--- a/vtiger/src/test/resources/VtigerTestData.xlsx
+++ b/vtiger/src/test/resources/VtigerTestData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AkashDeb\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="6015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Abhishek_TC1001" sheetId="1" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="TC_6001" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:E17"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7miZ0l8LkXVGbjw/cd6bQzvcAQNnag=="/>
@@ -3671,7 +3667,16 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3679,38 +3684,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3959,19 +3955,19 @@
       <c r="A1" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="210" t="s">
         <v>637</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="202"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="207"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="208" t="s">
         <v>611</v>
       </c>
       <c r="C2" s="194"/>
@@ -3983,7 +3979,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="208" t="s">
         <v>613</v>
       </c>
       <c r="C3" s="194"/>
@@ -3995,7 +3991,7 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="208" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="194"/>
@@ -4007,7 +4003,7 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="208" t="s">
         <v>612</v>
       </c>
       <c r="C5" s="194"/>
@@ -4019,7 +4015,7 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="208" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="194"/>
@@ -4031,7 +4027,7 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="208" t="s">
         <v>418</v>
       </c>
       <c r="C7" s="194"/>
@@ -4043,20 +4039,20 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="203"/>
+      <c r="B8" s="208"/>
       <c r="C8" s="194"/>
       <c r="D8" s="194"/>
       <c r="E8" s="194"/>
       <c r="F8" s="204"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="205"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="207"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="209"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="202"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -4176,7 +4172,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>8</v>
       </c>
@@ -4322,7 +4318,7 @@
       <c r="E27" s="26"/>
       <c r="F27" s="27"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -4330,7 +4326,7 @@
       <c r="E28" s="26"/>
       <c r="F28" s="27"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -4338,7 +4334,7 @@
       <c r="E29" s="26"/>
       <c r="F29" s="27"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -4346,7 +4342,7 @@
       <c r="E30" s="26"/>
       <c r="F30" s="27"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -4354,7 +4350,7 @@
       <c r="E31" s="26"/>
       <c r="F31" s="27"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="26"/>
@@ -4362,7 +4358,7 @@
       <c r="E32" s="26"/>
       <c r="F32" s="27"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="26"/>
@@ -4370,7 +4366,7 @@
       <c r="E33" s="26"/>
       <c r="F33" s="27"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="26"/>
@@ -4378,97 +4374,97 @@
       <c r="E34" s="26"/>
       <c r="F34" s="27"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="200"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
-      <c r="E35" s="201"/>
-      <c r="F35" s="202"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="210"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="207"/>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="203"/>
+      <c r="B36" s="208"/>
       <c r="C36" s="194"/>
       <c r="D36" s="194"/>
       <c r="E36" s="194"/>
       <c r="F36" s="204"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="203"/>
+      <c r="B37" s="208"/>
       <c r="C37" s="194"/>
       <c r="D37" s="194"/>
       <c r="E37" s="194"/>
       <c r="F37" s="204"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="203"/>
+      <c r="B38" s="208"/>
       <c r="C38" s="194"/>
       <c r="D38" s="194"/>
       <c r="E38" s="194"/>
       <c r="F38" s="204"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="203"/>
+      <c r="B39" s="208"/>
       <c r="C39" s="194"/>
       <c r="D39" s="194"/>
       <c r="E39" s="194"/>
       <c r="F39" s="204"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="203"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="194"/>
       <c r="D40" s="194"/>
       <c r="E40" s="194"/>
       <c r="F40" s="204"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="203"/>
+      <c r="B41" s="208"/>
       <c r="C41" s="194"/>
       <c r="D41" s="194"/>
       <c r="E41" s="194"/>
       <c r="F41" s="204"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="203"/>
+      <c r="B42" s="208"/>
       <c r="C42" s="194"/>
       <c r="D42" s="194"/>
       <c r="E42" s="194"/>
       <c r="F42" s="204"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="205"/>
-      <c r="C43" s="206"/>
-      <c r="D43" s="206"/>
-      <c r="E43" s="206"/>
-      <c r="F43" s="207"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="209"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="201"/>
+      <c r="E43" s="201"/>
+      <c r="F43" s="202"/>
+    </row>
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>14</v>
       </c>
@@ -4488,7 +4484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>1</v>
       </c>
@@ -4502,7 +4498,7 @@
       <c r="E45" s="29"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>2</v>
       </c>
@@ -4518,7 +4514,7 @@
       <c r="E46" s="18"/>
       <c r="F46" s="19"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="20">
         <v>3</v>
       </c>
@@ -4532,7 +4528,7 @@
       <c r="E47" s="18"/>
       <c r="F47" s="19"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="20">
         <v>4</v>
       </c>
@@ -4546,7 +4542,7 @@
       <c r="E48" s="18"/>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="20">
         <v>5</v>
       </c>
@@ -4560,7 +4556,7 @@
       <c r="E49" s="18"/>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="20">
         <v>6</v>
       </c>
@@ -4574,7 +4570,7 @@
       <c r="E50" s="18"/>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="20">
         <v>7</v>
       </c>
@@ -4588,7 +4584,7 @@
       <c r="E51" s="18"/>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="23">
         <v>8</v>
       </c>
@@ -4602,7 +4598,7 @@
       <c r="E52" s="18"/>
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="23">
         <v>9</v>
       </c>
@@ -4616,7 +4612,7 @@
       <c r="E53" s="26"/>
       <c r="F53" s="27"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="30">
         <v>10</v>
       </c>
@@ -4630,7 +4626,7 @@
       <c r="E54" s="33"/>
       <c r="F54" s="34"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="23">
         <v>11</v>
       </c>
@@ -4644,7 +4640,7 @@
       <c r="E55" s="26"/>
       <c r="F55" s="27"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="20">
         <v>12</v>
       </c>
@@ -4658,7 +4654,7 @@
       <c r="E56" s="26"/>
       <c r="F56" s="27"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="23">
         <v>13</v>
       </c>
@@ -4672,7 +4668,7 @@
       <c r="E57" s="26"/>
       <c r="F57" s="27"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="23">
         <v>14</v>
       </c>
@@ -4686,7 +4682,7 @@
       <c r="E58" s="26"/>
       <c r="F58" s="27"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="30">
         <v>15</v>
       </c>
@@ -4700,7 +4696,7 @@
       <c r="E59" s="26"/>
       <c r="F59" s="27"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="23">
         <v>16</v>
       </c>
@@ -4714,7 +4710,7 @@
       <c r="E60" s="26"/>
       <c r="F60" s="27"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="20">
         <v>17</v>
       </c>
@@ -4730,7 +4726,7 @@
       <c r="E61" s="26"/>
       <c r="F61" s="27"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="23">
         <v>18</v>
       </c>
@@ -4744,7 +4740,7 @@
       <c r="E62" s="26"/>
       <c r="F62" s="27"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="23">
         <v>19</v>
       </c>
@@ -4758,7 +4754,7 @@
       <c r="E63" s="26"/>
       <c r="F63" s="27"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="30">
         <v>20</v>
       </c>
@@ -4772,7 +4768,7 @@
       <c r="E64" s="26"/>
       <c r="F64" s="27"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="23">
         <v>21</v>
       </c>
@@ -4786,7 +4782,7 @@
       <c r="E65" s="26"/>
       <c r="F65" s="27"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="20">
         <v>22</v>
       </c>
@@ -4800,7 +4796,7 @@
       <c r="E66" s="26"/>
       <c r="F66" s="27"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="23">
         <v>23</v>
       </c>
@@ -4814,7 +4810,7 @@
       <c r="E67" s="26"/>
       <c r="F67" s="27"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="23">
         <v>24</v>
       </c>
@@ -4828,7 +4824,7 @@
       <c r="E68" s="26"/>
       <c r="F68" s="27"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="30">
         <v>25</v>
       </c>
@@ -4842,7 +4838,7 @@
       <c r="E69" s="26"/>
       <c r="F69" s="27"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="23">
         <v>26</v>
       </c>
@@ -4858,7 +4854,7 @@
       <c r="E70" s="26"/>
       <c r="F70" s="27"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="20">
         <v>27</v>
       </c>
@@ -4872,7 +4868,7 @@
       <c r="E71" s="26"/>
       <c r="F71" s="27"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="23">
         <v>28</v>
       </c>
@@ -4888,7 +4884,7 @@
       <c r="E72" s="26"/>
       <c r="F72" s="27"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
         <v>29</v>
       </c>
@@ -4902,7 +4898,7 @@
       <c r="E73" s="26"/>
       <c r="F73" s="27"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="30">
         <v>30</v>
       </c>
@@ -4918,7 +4914,7 @@
       <c r="E74" s="26"/>
       <c r="F74" s="27"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="23">
         <v>31</v>
       </c>
@@ -4932,7 +4928,7 @@
       <c r="E75" s="26"/>
       <c r="F75" s="27"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="20">
         <v>32</v>
       </c>
@@ -4946,7 +4942,7 @@
       <c r="E76" s="26"/>
       <c r="F76" s="27"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="23">
         <v>33</v>
       </c>
@@ -4960,7 +4956,7 @@
       <c r="E77" s="26"/>
       <c r="F77" s="27"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="23">
         <v>34</v>
       </c>
@@ -4974,7 +4970,7 @@
       <c r="E78" s="26"/>
       <c r="F78" s="27"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="30">
         <v>35</v>
       </c>
@@ -4988,7 +4984,7 @@
       <c r="E79" s="26"/>
       <c r="F79" s="27"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="23">
         <v>36</v>
       </c>
@@ -5002,7 +4998,7 @@
       <c r="E80" s="26"/>
       <c r="F80" s="27"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="20">
         <v>37</v>
       </c>
@@ -5016,7 +5012,7 @@
       <c r="E81" s="26"/>
       <c r="F81" s="27"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="23">
         <v>38</v>
       </c>
@@ -5032,7 +5028,7 @@
       <c r="E82" s="26"/>
       <c r="F82" s="27"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="23">
         <v>39</v>
       </c>
@@ -5046,7 +5042,7 @@
       <c r="E83" s="26"/>
       <c r="F83" s="27"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="30">
         <v>40</v>
       </c>
@@ -5060,7 +5056,7 @@
       <c r="E84" s="26"/>
       <c r="F84" s="27"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="23">
         <v>41</v>
       </c>
@@ -5074,7 +5070,7 @@
       <c r="E85" s="26"/>
       <c r="F85" s="27"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="20">
         <v>42</v>
       </c>
@@ -5086,7 +5082,7 @@
       <c r="E86" s="26"/>
       <c r="F86" s="27"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="23">
         <v>43</v>
       </c>
@@ -5100,7 +5096,7 @@
       <c r="E87" s="26"/>
       <c r="F87" s="27"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="23">
         <v>44</v>
       </c>
@@ -5114,33 +5110,33 @@
       <c r="E88" s="26"/>
       <c r="F88" s="27"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B89" s="200" t="s">
+      <c r="B89" s="210" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="201"/>
-      <c r="D89" s="201"/>
-      <c r="E89" s="201"/>
-      <c r="F89" s="202"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C89" s="206"/>
+      <c r="D89" s="206"/>
+      <c r="E89" s="206"/>
+      <c r="F89" s="207"/>
+    </row>
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="208"/>
+      <c r="B90" s="203"/>
       <c r="C90" s="194"/>
       <c r="D90" s="194"/>
       <c r="E90" s="194"/>
       <c r="F90" s="204"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="208" t="s">
+      <c r="B91" s="203" t="s">
         <v>98</v>
       </c>
       <c r="C91" s="194"/>
@@ -5148,11 +5144,11 @@
       <c r="E91" s="194"/>
       <c r="F91" s="204"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="208" t="s">
+      <c r="B92" s="203" t="s">
         <v>99</v>
       </c>
       <c r="C92" s="194"/>
@@ -5160,21 +5156,21 @@
       <c r="E92" s="194"/>
       <c r="F92" s="204"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="208"/>
+      <c r="B93" s="203"/>
       <c r="C93" s="194"/>
       <c r="D93" s="194"/>
       <c r="E93" s="194"/>
       <c r="F93" s="204"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="208" t="s">
+      <c r="B94" s="203" t="s">
         <v>100</v>
       </c>
       <c r="C94" s="194"/>
@@ -5182,11 +5178,11 @@
       <c r="E94" s="194"/>
       <c r="F94" s="204"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="208" t="s">
+      <c r="B95" s="203" t="s">
         <v>101</v>
       </c>
       <c r="C95" s="194"/>
@@ -5198,7 +5194,7 @@
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="208" t="s">
+      <c r="B96" s="203" t="s">
         <v>102</v>
       </c>
       <c r="C96" s="194"/>
@@ -5210,13 +5206,13 @@
       <c r="A97" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B97" s="209" t="s">
+      <c r="B97" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="206"/>
-      <c r="D97" s="206"/>
-      <c r="E97" s="206"/>
-      <c r="F97" s="207"/>
+      <c r="C97" s="201"/>
+      <c r="D97" s="201"/>
+      <c r="E97" s="201"/>
+      <c r="F97" s="202"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
@@ -5426,19 +5422,19 @@
       <c r="A112" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B112" s="210" t="s">
+      <c r="B112" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="201"/>
-      <c r="D112" s="201"/>
-      <c r="E112" s="201"/>
-      <c r="F112" s="202"/>
+      <c r="C112" s="206"/>
+      <c r="D112" s="206"/>
+      <c r="E112" s="206"/>
+      <c r="F112" s="207"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="208"/>
+      <c r="B113" s="203"/>
       <c r="C113" s="194"/>
       <c r="D113" s="194"/>
       <c r="E113" s="194"/>
@@ -5448,7 +5444,7 @@
       <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="208" t="s">
+      <c r="B114" s="203" t="s">
         <v>98</v>
       </c>
       <c r="C114" s="194"/>
@@ -5460,7 +5456,7 @@
       <c r="A115" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B115" s="208" t="s">
+      <c r="B115" s="203" t="s">
         <v>111</v>
       </c>
       <c r="C115" s="194"/>
@@ -5472,7 +5468,7 @@
       <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="208"/>
+      <c r="B116" s="203"/>
       <c r="C116" s="194"/>
       <c r="D116" s="194"/>
       <c r="E116" s="194"/>
@@ -5482,7 +5478,7 @@
       <c r="A117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="208" t="s">
+      <c r="B117" s="203" t="s">
         <v>112</v>
       </c>
       <c r="C117" s="194"/>
@@ -5494,7 +5490,7 @@
       <c r="A118" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="208" t="s">
+      <c r="B118" s="203" t="s">
         <v>101</v>
       </c>
       <c r="C118" s="194"/>
@@ -5506,7 +5502,7 @@
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="208" t="s">
+      <c r="B119" s="203" t="s">
         <v>102</v>
       </c>
       <c r="C119" s="194"/>
@@ -5518,13 +5514,13 @@
       <c r="A120" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="209" t="s">
+      <c r="B120" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="C120" s="206"/>
-      <c r="D120" s="206"/>
-      <c r="E120" s="206"/>
-      <c r="F120" s="207"/>
+      <c r="C120" s="201"/>
+      <c r="D120" s="201"/>
+      <c r="E120" s="201"/>
+      <c r="F120" s="202"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
@@ -6828,6 +6824,65 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
     <mergeCell ref="B159:F159"/>
     <mergeCell ref="B160:F160"/>
     <mergeCell ref="B161:F161"/>
@@ -6837,65 +6892,6 @@
     <mergeCell ref="B140:F140"/>
     <mergeCell ref="B142:F142"/>
     <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C46" r:id="rId1"/>
@@ -6919,7 +6915,7 @@
   </sheetPr>
   <dimension ref="A1:Z218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9057,7 +9053,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9101,7 +9099,7 @@
       <c r="A2" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="213" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="194"/>
@@ -9129,7 +9127,7 @@
       <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="211"/>
+      <c r="B3" s="213"/>
       <c r="C3" s="194"/>
       <c r="D3" s="194"/>
       <c r="E3" s="194"/>
@@ -9155,7 +9153,7 @@
       <c r="A4" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="213" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="194"/>
@@ -9183,7 +9181,7 @@
       <c r="A5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="213" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="194"/>
@@ -9211,7 +9209,7 @@
       <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="211"/>
+      <c r="B6" s="213"/>
       <c r="C6" s="194"/>
       <c r="D6" s="194"/>
       <c r="E6" s="194"/>
@@ -9237,7 +9235,7 @@
       <c r="A7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="213" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="194"/>
@@ -9265,7 +9263,7 @@
       <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="211"/>
+      <c r="B8" s="213"/>
       <c r="C8" s="194"/>
       <c r="D8" s="194"/>
       <c r="E8" s="194"/>
@@ -9983,7 +9981,7 @@
       <c r="A32" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="211" t="s">
+      <c r="B32" s="213" t="s">
         <v>451</v>
       </c>
       <c r="C32" s="194"/>
@@ -10012,7 +10010,7 @@
       <c r="A33" s="125" t="s">
         <v>452</v>
       </c>
-      <c r="B33" s="211"/>
+      <c r="B33" s="213"/>
       <c r="C33" s="194"/>
       <c r="D33" s="194"/>
       <c r="E33" s="194"/>
@@ -10039,7 +10037,7 @@
       <c r="A34" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="211" t="s">
+      <c r="B34" s="213" t="s">
         <v>453</v>
       </c>
       <c r="C34" s="194"/>
@@ -10068,7 +10066,7 @@
       <c r="A35" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="B35" s="211" t="s">
+      <c r="B35" s="213" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="194"/>
@@ -10097,7 +10095,7 @@
       <c r="A36" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="211"/>
+      <c r="B36" s="213"/>
       <c r="C36" s="194"/>
       <c r="D36" s="194"/>
       <c r="E36" s="194"/>
@@ -10124,7 +10122,7 @@
       <c r="A37" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="211" t="s">
+      <c r="B37" s="213" t="s">
         <v>455</v>
       </c>
       <c r="C37" s="194"/>
@@ -10153,7 +10151,7 @@
       <c r="A38" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="211"/>
+      <c r="B38" s="213"/>
       <c r="C38" s="194"/>
       <c r="D38" s="194"/>
       <c r="E38" s="194"/>
@@ -11050,7 +11048,7 @@
       <c r="A69" s="134" t="s">
         <v>454</v>
       </c>
-      <c r="B69" s="213" t="s">
+      <c r="B69" s="211" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="197"/>
@@ -12543,6 +12541,16 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B69:F69"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B71:F71"/>
@@ -12554,16 +12562,6 @@
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>
@@ -12626,7 +12624,7 @@
       <c r="A2" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="213" t="s">
         <v>486</v>
       </c>
       <c r="C2" s="194"/>
@@ -12654,7 +12652,7 @@
       <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="211"/>
+      <c r="B3" s="213"/>
       <c r="C3" s="194"/>
       <c r="D3" s="194"/>
       <c r="E3" s="194"/>
@@ -12680,7 +12678,7 @@
       <c r="A4" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="213" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="194"/>
@@ -12708,7 +12706,7 @@
       <c r="A5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="213" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="194"/>
@@ -12736,7 +12734,7 @@
       <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="211"/>
+      <c r="B6" s="213"/>
       <c r="C6" s="194"/>
       <c r="D6" s="194"/>
       <c r="E6" s="194"/>
@@ -12762,7 +12760,7 @@
       <c r="A7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="213" t="s">
         <v>487</v>
       </c>
       <c r="C7" s="194"/>
@@ -12790,7 +12788,7 @@
       <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="211"/>
+      <c r="B8" s="213"/>
       <c r="C8" s="194"/>
       <c r="D8" s="194"/>
       <c r="E8" s="194"/>
@@ -13487,7 +13485,7 @@
       <c r="A31" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="211" t="s">
+      <c r="B31" s="213" t="s">
         <v>519</v>
       </c>
       <c r="C31" s="194"/>
@@ -13516,7 +13514,7 @@
       <c r="A32" s="125" t="s">
         <v>452</v>
       </c>
-      <c r="B32" s="211"/>
+      <c r="B32" s="213"/>
       <c r="C32" s="194"/>
       <c r="D32" s="194"/>
       <c r="E32" s="194"/>
@@ -13543,7 +13541,7 @@
       <c r="A33" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="211" t="s">
+      <c r="B33" s="213" t="s">
         <v>453</v>
       </c>
       <c r="C33" s="194"/>
@@ -13572,7 +13570,7 @@
       <c r="A34" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="B34" s="211" t="s">
+      <c r="B34" s="213" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="194"/>
@@ -13601,7 +13599,7 @@
       <c r="A35" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="211"/>
+      <c r="B35" s="213"/>
       <c r="C35" s="194"/>
       <c r="D35" s="194"/>
       <c r="E35" s="194"/>
@@ -13628,7 +13626,7 @@
       <c r="A36" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="211" t="s">
+      <c r="B36" s="213" t="s">
         <v>487</v>
       </c>
       <c r="C36" s="194"/>
@@ -13657,7 +13655,7 @@
       <c r="A37" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="211"/>
+      <c r="B37" s="213"/>
       <c r="C37" s="194"/>
       <c r="D37" s="194"/>
       <c r="E37" s="194"/>
@@ -14577,7 +14575,7 @@
       <c r="A68" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="211" t="s">
+      <c r="B68" s="213" t="s">
         <v>453</v>
       </c>
       <c r="C68" s="194"/>
@@ -14609,7 +14607,7 @@
       <c r="A69" s="134" t="s">
         <v>454</v>
       </c>
-      <c r="B69" s="211" t="s">
+      <c r="B69" s="213" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="194"/>
@@ -14641,7 +14639,7 @@
       <c r="A70" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="211"/>
+      <c r="B70" s="213"/>
       <c r="C70" s="194"/>
       <c r="D70" s="194"/>
       <c r="E70" s="194"/>
@@ -14671,7 +14669,7 @@
       <c r="A71" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="211" t="s">
+      <c r="B71" s="213" t="s">
         <v>487</v>
       </c>
       <c r="C71" s="194"/>
@@ -14703,7 +14701,7 @@
       <c r="A72" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="211"/>
+      <c r="B72" s="213"/>
       <c r="C72" s="194"/>
       <c r="D72" s="194"/>
       <c r="E72" s="194"/>
@@ -16211,6 +16209,16 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B69:F69"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B71:F71"/>
@@ -16222,16 +16230,6 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>
@@ -16293,7 +16291,7 @@
       <c r="A2" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="213" t="s">
         <v>530</v>
       </c>
       <c r="C2" s="194"/>
@@ -16321,7 +16319,7 @@
       <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="211"/>
+      <c r="B3" s="213"/>
       <c r="C3" s="194"/>
       <c r="D3" s="194"/>
       <c r="E3" s="194"/>
@@ -16347,7 +16345,7 @@
       <c r="A4" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="213" t="s">
         <v>531</v>
       </c>
       <c r="C4" s="194"/>
@@ -16375,7 +16373,7 @@
       <c r="A5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="213" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="194"/>
@@ -16403,7 +16401,7 @@
       <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="213" t="s">
         <v>532</v>
       </c>
       <c r="C6" s="194"/>
@@ -16431,7 +16429,7 @@
       <c r="A7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="213" t="s">
         <v>533</v>
       </c>
       <c r="C7" s="194"/>
@@ -16487,7 +16485,7 @@
       <c r="A9" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="211"/>
+      <c r="B9" s="213"/>
       <c r="C9" s="194"/>
       <c r="D9" s="194"/>
       <c r="E9" s="194"/>
@@ -16940,7 +16938,7 @@
       <c r="A24" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="214" t="s">
+      <c r="B24" s="217" t="s">
         <v>556</v>
       </c>
       <c r="C24" s="194"/>
@@ -16969,7 +16967,7 @@
       <c r="A25" s="125" t="s">
         <v>452</v>
       </c>
-      <c r="B25" s="214"/>
+      <c r="B25" s="217"/>
       <c r="C25" s="194"/>
       <c r="D25" s="194"/>
       <c r="E25" s="194"/>
@@ -16996,7 +16994,7 @@
       <c r="A26" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="211" t="s">
+      <c r="B26" s="213" t="s">
         <v>557</v>
       </c>
       <c r="C26" s="194"/>
@@ -17025,7 +17023,7 @@
       <c r="A27" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="211"/>
+      <c r="B27" s="213"/>
       <c r="C27" s="194"/>
       <c r="D27" s="194"/>
       <c r="E27" s="194"/>
@@ -17052,7 +17050,7 @@
       <c r="A28" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="B28" s="211" t="s">
+      <c r="B28" s="213" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="194"/>
@@ -17081,7 +17079,7 @@
       <c r="A29" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="211"/>
+      <c r="B29" s="213"/>
       <c r="C29" s="194"/>
       <c r="D29" s="194"/>
       <c r="E29" s="194"/>
@@ -17108,7 +17106,7 @@
       <c r="A30" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="211"/>
+      <c r="B30" s="213"/>
       <c r="C30" s="194"/>
       <c r="D30" s="194"/>
       <c r="E30" s="194"/>
@@ -17135,7 +17133,7 @@
       <c r="A31" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="211"/>
+      <c r="B31" s="213"/>
       <c r="C31" s="194"/>
       <c r="D31" s="194"/>
       <c r="E31" s="194"/>
@@ -17788,7 +17786,7 @@
       <c r="A52" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="215" t="s">
+      <c r="B52" s="214" t="s">
         <v>581</v>
       </c>
       <c r="C52" s="195"/>
@@ -17844,7 +17842,7 @@
       <c r="A54" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="217"/>
+      <c r="B54" s="215"/>
       <c r="C54" s="195"/>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
@@ -17925,7 +17923,7 @@
       <c r="A57" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="217"/>
+      <c r="B57" s="215"/>
       <c r="C57" s="195"/>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
@@ -17952,7 +17950,7 @@
       <c r="A58" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="217"/>
+      <c r="B58" s="215"/>
       <c r="C58" s="195"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -17979,7 +17977,7 @@
       <c r="A59" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="217"/>
+      <c r="B59" s="215"/>
       <c r="C59" s="195"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
@@ -18218,7 +18216,7 @@
       <c r="A68" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="215" t="s">
+      <c r="B68" s="214" t="s">
         <v>582</v>
       </c>
       <c r="C68" s="194"/>
@@ -18247,7 +18245,7 @@
       <c r="A69" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="215"/>
+      <c r="B69" s="214"/>
       <c r="C69" s="194"/>
       <c r="D69" s="194"/>
       <c r="E69" s="194"/>
@@ -18274,7 +18272,7 @@
       <c r="A70" s="114" t="s">
         <v>583</v>
       </c>
-      <c r="B70" s="215"/>
+      <c r="B70" s="214"/>
       <c r="C70" s="194"/>
       <c r="D70" s="194"/>
       <c r="E70" s="194"/>
@@ -18301,7 +18299,7 @@
       <c r="A71" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="215"/>
+      <c r="B71" s="214"/>
       <c r="C71" s="194"/>
       <c r="D71" s="194"/>
       <c r="E71" s="194"/>
@@ -18328,7 +18326,7 @@
       <c r="A72" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="215"/>
+      <c r="B72" s="214"/>
       <c r="C72" s="194"/>
       <c r="D72" s="194"/>
       <c r="E72" s="194"/>
@@ -18355,7 +18353,7 @@
       <c r="A73" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="215"/>
+      <c r="B73" s="214"/>
       <c r="C73" s="194"/>
       <c r="D73" s="194"/>
       <c r="E73" s="194"/>
@@ -18382,7 +18380,7 @@
       <c r="A74" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="215"/>
+      <c r="B74" s="214"/>
       <c r="C74" s="194"/>
       <c r="D74" s="194"/>
       <c r="E74" s="194"/>
@@ -18409,7 +18407,7 @@
       <c r="A75" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="B75" s="215"/>
+      <c r="B75" s="214"/>
       <c r="C75" s="194"/>
       <c r="D75" s="194"/>
       <c r="E75" s="194"/>
@@ -18698,7 +18696,7 @@
       <c r="A86" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="211"/>
+      <c r="B86" s="213"/>
       <c r="C86" s="194"/>
       <c r="D86" s="194"/>
       <c r="E86" s="194"/>
@@ -18725,7 +18723,7 @@
       <c r="A87" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="211"/>
+      <c r="B87" s="213"/>
       <c r="C87" s="194"/>
       <c r="D87" s="194"/>
       <c r="E87" s="194"/>
@@ -18752,7 +18750,7 @@
       <c r="A88" s="114" t="s">
         <v>585</v>
       </c>
-      <c r="B88" s="211"/>
+      <c r="B88" s="213"/>
       <c r="C88" s="194"/>
       <c r="D88" s="194"/>
       <c r="E88" s="194"/>
@@ -18779,7 +18777,7 @@
       <c r="A89" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="211"/>
+      <c r="B89" s="213"/>
       <c r="C89" s="194"/>
       <c r="D89" s="194"/>
       <c r="E89" s="194"/>
@@ -18806,7 +18804,7 @@
       <c r="A90" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="211"/>
+      <c r="B90" s="213"/>
       <c r="C90" s="194"/>
       <c r="D90" s="194"/>
       <c r="E90" s="194"/>
@@ -18833,7 +18831,7 @@
       <c r="A91" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="211"/>
+      <c r="B91" s="213"/>
       <c r="C91" s="194"/>
       <c r="D91" s="194"/>
       <c r="E91" s="194"/>
@@ -18860,7 +18858,7 @@
       <c r="A92" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="B92" s="211"/>
+      <c r="B92" s="213"/>
       <c r="C92" s="194"/>
       <c r="D92" s="194"/>
       <c r="E92" s="194"/>
@@ -19199,7 +19197,7 @@
       <c r="A105" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="211"/>
+      <c r="B105" s="213"/>
       <c r="C105" s="194"/>
       <c r="D105" s="194"/>
       <c r="E105" s="194"/>
@@ -19226,7 +19224,7 @@
       <c r="A106" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="211"/>
+      <c r="B106" s="213"/>
       <c r="C106" s="194"/>
       <c r="D106" s="194"/>
       <c r="E106" s="194"/>
@@ -19253,7 +19251,7 @@
       <c r="A107" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="B107" s="211"/>
+      <c r="B107" s="213"/>
       <c r="C107" s="194"/>
       <c r="D107" s="194"/>
       <c r="E107" s="194"/>
@@ -19280,7 +19278,7 @@
       <c r="A108" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B108" s="211"/>
+      <c r="B108" s="213"/>
       <c r="C108" s="194"/>
       <c r="D108" s="194"/>
       <c r="E108" s="194"/>
@@ -19307,7 +19305,7 @@
       <c r="A109" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B109" s="211"/>
+      <c r="B109" s="213"/>
       <c r="C109" s="194"/>
       <c r="D109" s="194"/>
       <c r="E109" s="194"/>
@@ -19334,7 +19332,7 @@
       <c r="A110" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="211"/>
+      <c r="B110" s="213"/>
       <c r="C110" s="194"/>
       <c r="D110" s="194"/>
       <c r="E110" s="194"/>
@@ -19361,7 +19359,7 @@
       <c r="A111" s="114" t="s">
         <v>584</v>
       </c>
-      <c r="B111" s="211"/>
+      <c r="B111" s="213"/>
       <c r="C111" s="194"/>
       <c r="D111" s="194"/>
       <c r="E111" s="194"/>
@@ -24669,6 +24667,41 @@
     <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
     <mergeCell ref="B109:F109"/>
     <mergeCell ref="B110:F110"/>
     <mergeCell ref="B111:F111"/>
@@ -24679,41 +24712,6 @@
     <mergeCell ref="B106:F106"/>
     <mergeCell ref="B107:F107"/>
     <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>

--- a/vtiger/src/test/resources/VtigerTestData.xlsx
+++ b/vtiger/src/test/resources/VtigerTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="6015" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="6015" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Abhishek_TC1001" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="TC_6001" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E17"/>
+  <oleSize ref="A15:G31"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7miZ0l8LkXVGbjw/cd6bQzvcAQNnag=="/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="640">
   <si>
     <t>testcase no.</t>
   </si>
@@ -2109,37 +2109,19 @@
     <t>Enter the Product Name</t>
   </si>
   <si>
-    <t>Calculator</t>
-  </si>
-  <si>
     <t>Calculator Should be displayed</t>
   </si>
   <si>
     <t>Select Sales start date</t>
   </si>
   <si>
-    <t>enter sales start date</t>
-  </si>
-  <si>
     <t>Sales start Date should be displayed</t>
   </si>
   <si>
-    <t>Enter Vendor name</t>
-  </si>
-  <si>
     <t>Vendor Name should be displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter Website </t>
-  </si>
-  <si>
-    <t>www.facebook.com</t>
-  </si>
-  <si>
     <t>website url should be displayed.</t>
-  </si>
-  <si>
-    <t>logout</t>
   </si>
   <si>
     <t>login page should be displayed.</t>
@@ -2440,6 +2422,30 @@
   </si>
   <si>
     <t>Vtiger_TC_Lead_1001</t>
+  </si>
+  <si>
+    <t>Tutree Pvt Ltd.</t>
+  </si>
+  <si>
+    <t>Yono CRM</t>
+  </si>
+  <si>
+    <t>Click On Vebdor look Up Button</t>
+  </si>
+  <si>
+    <t>Enter Vendor Name in Search Box</t>
+  </si>
+  <si>
+    <t>Click On Save Button</t>
+  </si>
+  <si>
+    <t>Upload on Product Image Button</t>
+  </si>
+  <si>
+    <t>Verify product Name</t>
+  </si>
+  <si>
+    <t>Select Sales end date</t>
   </si>
 </sst>
 </file>
@@ -3146,7 +3152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3667,7 +3673,16 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3675,38 +3690,29 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3714,6 +3720,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3953,22 +3962,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B1" s="210" t="s">
-        <v>637</v>
-      </c>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="207"/>
+        <v>604</v>
+      </c>
+      <c r="B1" s="200" t="s">
+        <v>631</v>
+      </c>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="202"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="208" t="s">
-        <v>611</v>
+      <c r="B2" s="203" t="s">
+        <v>605</v>
       </c>
       <c r="C2" s="194"/>
       <c r="D2" s="194"/>
@@ -3979,8 +3988,8 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="208" t="s">
-        <v>613</v>
+      <c r="B3" s="203" t="s">
+        <v>607</v>
       </c>
       <c r="C3" s="194"/>
       <c r="D3" s="194"/>
@@ -3991,7 +4000,7 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="203" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="194"/>
@@ -4003,8 +4012,8 @@
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="208" t="s">
-        <v>612</v>
+      <c r="B5" s="203" t="s">
+        <v>606</v>
       </c>
       <c r="C5" s="194"/>
       <c r="D5" s="194"/>
@@ -4015,7 +4024,7 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="203" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="194"/>
@@ -4027,7 +4036,7 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="203" t="s">
         <v>418</v>
       </c>
       <c r="C7" s="194"/>
@@ -4039,18 +4048,18 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="208"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="194"/>
       <c r="D8" s="194"/>
       <c r="E8" s="194"/>
       <c r="F8" s="204"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="209"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="201"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="202"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="206"/>
+      <c r="E9" s="206"/>
+      <c r="F9" s="207"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -4081,7 +4090,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
@@ -4097,7 +4106,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
@@ -4139,7 +4148,7 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="17" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19"/>
@@ -4149,11 +4158,11 @@
         <v>6</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="17" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
@@ -4163,11 +4172,11 @@
         <v>7</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="17" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19"/>
@@ -4177,13 +4186,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>429</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19"/>
@@ -4196,7 +4205,7 @@
         <v>431</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="26"/>
@@ -4210,7 +4219,7 @@
         <v>433</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="26"/>
@@ -4224,7 +4233,7 @@
         <v>435</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="26"/>
@@ -4235,11 +4244,11 @@
         <v>12</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="25" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="27"/>
@@ -4249,13 +4258,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="27"/>
@@ -4269,7 +4278,7 @@
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="25" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="27"/>
@@ -4279,13 +4288,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="27"/>
@@ -4295,11 +4304,11 @@
         <v>16</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="25" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="27"/>
@@ -4309,11 +4318,11 @@
         <v>17</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="25" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="27"/>
@@ -4378,17 +4387,17 @@
       <c r="A35" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="210"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="207"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="202"/>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="208"/>
+      <c r="B36" s="203"/>
       <c r="C36" s="194"/>
       <c r="D36" s="194"/>
       <c r="E36" s="194"/>
@@ -4398,7 +4407,7 @@
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="208"/>
+      <c r="B37" s="203"/>
       <c r="C37" s="194"/>
       <c r="D37" s="194"/>
       <c r="E37" s="194"/>
@@ -4408,7 +4417,7 @@
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="208"/>
+      <c r="B38" s="203"/>
       <c r="C38" s="194"/>
       <c r="D38" s="194"/>
       <c r="E38" s="194"/>
@@ -4418,7 +4427,7 @@
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="208"/>
+      <c r="B39" s="203"/>
       <c r="C39" s="194"/>
       <c r="D39" s="194"/>
       <c r="E39" s="194"/>
@@ -4428,7 +4437,7 @@
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="208"/>
+      <c r="B40" s="203"/>
       <c r="C40" s="194"/>
       <c r="D40" s="194"/>
       <c r="E40" s="194"/>
@@ -4438,7 +4447,7 @@
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="208"/>
+      <c r="B41" s="203"/>
       <c r="C41" s="194"/>
       <c r="D41" s="194"/>
       <c r="E41" s="194"/>
@@ -4448,7 +4457,7 @@
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="208"/>
+      <c r="B42" s="203"/>
       <c r="C42" s="194"/>
       <c r="D42" s="194"/>
       <c r="E42" s="194"/>
@@ -4458,11 +4467,11 @@
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="209"/>
-      <c r="C43" s="201"/>
-      <c r="D43" s="201"/>
-      <c r="E43" s="201"/>
-      <c r="F43" s="202"/>
+      <c r="B43" s="205"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="206"/>
+      <c r="E43" s="206"/>
+      <c r="F43" s="207"/>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -5114,19 +5123,19 @@
       <c r="A89" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B89" s="210" t="s">
+      <c r="B89" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="206"/>
-      <c r="D89" s="206"/>
-      <c r="E89" s="206"/>
-      <c r="F89" s="207"/>
+      <c r="C89" s="201"/>
+      <c r="D89" s="201"/>
+      <c r="E89" s="201"/>
+      <c r="F89" s="202"/>
     </row>
     <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="203"/>
+      <c r="B90" s="208"/>
       <c r="C90" s="194"/>
       <c r="D90" s="194"/>
       <c r="E90" s="194"/>
@@ -5136,7 +5145,7 @@
       <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="203" t="s">
+      <c r="B91" s="208" t="s">
         <v>98</v>
       </c>
       <c r="C91" s="194"/>
@@ -5148,7 +5157,7 @@
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="203" t="s">
+      <c r="B92" s="208" t="s">
         <v>99</v>
       </c>
       <c r="C92" s="194"/>
@@ -5160,7 +5169,7 @@
       <c r="A93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="203"/>
+      <c r="B93" s="208"/>
       <c r="C93" s="194"/>
       <c r="D93" s="194"/>
       <c r="E93" s="194"/>
@@ -5170,7 +5179,7 @@
       <c r="A94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="203" t="s">
+      <c r="B94" s="208" t="s">
         <v>100</v>
       </c>
       <c r="C94" s="194"/>
@@ -5182,7 +5191,7 @@
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="203" t="s">
+      <c r="B95" s="208" t="s">
         <v>101</v>
       </c>
       <c r="C95" s="194"/>
@@ -5190,11 +5199,11 @@
       <c r="E95" s="194"/>
       <c r="F95" s="204"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="203" t="s">
+      <c r="B96" s="208" t="s">
         <v>102</v>
       </c>
       <c r="C96" s="194"/>
@@ -5202,19 +5211,19 @@
       <c r="E96" s="194"/>
       <c r="F96" s="204"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B97" s="200" t="s">
+      <c r="B97" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="201"/>
-      <c r="D97" s="201"/>
-      <c r="E97" s="201"/>
-      <c r="F97" s="202"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C97" s="206"/>
+      <c r="D97" s="206"/>
+      <c r="E97" s="206"/>
+      <c r="F97" s="207"/>
+    </row>
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>14</v>
       </c>
@@ -5234,7 +5243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="14">
         <v>1</v>
       </c>
@@ -5248,7 +5257,7 @@
       <c r="E99" s="18"/>
       <c r="F99" s="19"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="14">
         <v>2</v>
       </c>
@@ -5264,7 +5273,7 @@
       <c r="E100" s="18"/>
       <c r="F100" s="19"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="20">
         <v>3</v>
       </c>
@@ -5278,7 +5287,7 @@
       <c r="E101" s="18"/>
       <c r="F101" s="19"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="20">
         <v>4</v>
       </c>
@@ -5292,7 +5301,7 @@
       <c r="E102" s="18"/>
       <c r="F102" s="19"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="20">
         <v>5</v>
       </c>
@@ -5306,7 +5315,7 @@
       <c r="E103" s="18"/>
       <c r="F103" s="19"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="20">
         <v>6</v>
       </c>
@@ -5320,7 +5329,7 @@
       <c r="E104" s="18"/>
       <c r="F104" s="19"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="20">
         <v>7</v>
       </c>
@@ -5336,7 +5345,7 @@
       <c r="E105" s="18"/>
       <c r="F105" s="19"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="23">
         <v>8</v>
       </c>
@@ -5350,7 +5359,7 @@
       <c r="E106" s="18"/>
       <c r="F106" s="19"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="23">
         <v>9</v>
       </c>
@@ -5364,7 +5373,7 @@
       <c r="E107" s="26"/>
       <c r="F107" s="27"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="30">
         <v>10</v>
       </c>
@@ -5378,7 +5387,7 @@
       <c r="E108" s="33"/>
       <c r="F108" s="34"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="23">
         <v>11</v>
       </c>
@@ -5422,19 +5431,19 @@
       <c r="A112" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B112" s="205" t="s">
+      <c r="B112" s="210" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="206"/>
-      <c r="D112" s="206"/>
-      <c r="E112" s="206"/>
-      <c r="F112" s="207"/>
+      <c r="C112" s="201"/>
+      <c r="D112" s="201"/>
+      <c r="E112" s="201"/>
+      <c r="F112" s="202"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="203"/>
+      <c r="B113" s="208"/>
       <c r="C113" s="194"/>
       <c r="D113" s="194"/>
       <c r="E113" s="194"/>
@@ -5444,7 +5453,7 @@
       <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="203" t="s">
+      <c r="B114" s="208" t="s">
         <v>98</v>
       </c>
       <c r="C114" s="194"/>
@@ -5456,7 +5465,7 @@
       <c r="A115" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B115" s="203" t="s">
+      <c r="B115" s="208" t="s">
         <v>111</v>
       </c>
       <c r="C115" s="194"/>
@@ -5468,7 +5477,7 @@
       <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="203"/>
+      <c r="B116" s="208"/>
       <c r="C116" s="194"/>
       <c r="D116" s="194"/>
       <c r="E116" s="194"/>
@@ -5478,7 +5487,7 @@
       <c r="A117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="203" t="s">
+      <c r="B117" s="208" t="s">
         <v>112</v>
       </c>
       <c r="C117" s="194"/>
@@ -5490,7 +5499,7 @@
       <c r="A118" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="203" t="s">
+      <c r="B118" s="208" t="s">
         <v>101</v>
       </c>
       <c r="C118" s="194"/>
@@ -5502,7 +5511,7 @@
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="203" t="s">
+      <c r="B119" s="208" t="s">
         <v>102</v>
       </c>
       <c r="C119" s="194"/>
@@ -5514,13 +5523,13 @@
       <c r="A120" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="200" t="s">
+      <c r="B120" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="C120" s="201"/>
-      <c r="D120" s="201"/>
-      <c r="E120" s="201"/>
-      <c r="F120" s="202"/>
+      <c r="C120" s="206"/>
+      <c r="D120" s="206"/>
+      <c r="E120" s="206"/>
+      <c r="F120" s="207"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
@@ -6824,16 +6833,55 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B209:F209"/>
     <mergeCell ref="B211:F211"/>
     <mergeCell ref="B185:F185"/>
@@ -6843,55 +6891,16 @@
     <mergeCell ref="B203:F203"/>
     <mergeCell ref="B204:F204"/>
     <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C46" r:id="rId1"/>
@@ -9053,7 +9062,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -9099,7 +9108,7 @@
       <c r="A2" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="211" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="194"/>
@@ -9127,7 +9136,7 @@
       <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="213"/>
+      <c r="B3" s="211"/>
       <c r="C3" s="194"/>
       <c r="D3" s="194"/>
       <c r="E3" s="194"/>
@@ -9153,7 +9162,7 @@
       <c r="A4" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="211" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="194"/>
@@ -9181,7 +9190,7 @@
       <c r="A5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="211" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="194"/>
@@ -9209,7 +9218,7 @@
       <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="213"/>
+      <c r="B6" s="211"/>
       <c r="C6" s="194"/>
       <c r="D6" s="194"/>
       <c r="E6" s="194"/>
@@ -9235,7 +9244,7 @@
       <c r="A7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="211" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="194"/>
@@ -9263,7 +9272,7 @@
       <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="213"/>
+      <c r="B8" s="211"/>
       <c r="C8" s="194"/>
       <c r="D8" s="194"/>
       <c r="E8" s="194"/>
@@ -9981,7 +9990,7 @@
       <c r="A32" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="213" t="s">
+      <c r="B32" s="211" t="s">
         <v>451</v>
       </c>
       <c r="C32" s="194"/>
@@ -10010,7 +10019,7 @@
       <c r="A33" s="125" t="s">
         <v>452</v>
       </c>
-      <c r="B33" s="213"/>
+      <c r="B33" s="211"/>
       <c r="C33" s="194"/>
       <c r="D33" s="194"/>
       <c r="E33" s="194"/>
@@ -10037,7 +10046,7 @@
       <c r="A34" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="213" t="s">
+      <c r="B34" s="211" t="s">
         <v>453</v>
       </c>
       <c r="C34" s="194"/>
@@ -10066,7 +10075,7 @@
       <c r="A35" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="B35" s="213" t="s">
+      <c r="B35" s="211" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="194"/>
@@ -10095,7 +10104,7 @@
       <c r="A36" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="213"/>
+      <c r="B36" s="211"/>
       <c r="C36" s="194"/>
       <c r="D36" s="194"/>
       <c r="E36" s="194"/>
@@ -10122,7 +10131,7 @@
       <c r="A37" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="213" t="s">
+      <c r="B37" s="211" t="s">
         <v>455</v>
       </c>
       <c r="C37" s="194"/>
@@ -10151,7 +10160,7 @@
       <c r="A38" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="213"/>
+      <c r="B38" s="211"/>
       <c r="C38" s="194"/>
       <c r="D38" s="194"/>
       <c r="E38" s="194"/>
@@ -11048,7 +11057,7 @@
       <c r="A69" s="134" t="s">
         <v>454</v>
       </c>
-      <c r="B69" s="211" t="s">
+      <c r="B69" s="213" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="197"/>
@@ -12541,16 +12550,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B69:F69"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B71:F71"/>
@@ -12562,6 +12561,16 @@
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>
@@ -12580,7 +12589,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12624,7 +12635,7 @@
       <c r="A2" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="211" t="s">
         <v>486</v>
       </c>
       <c r="C2" s="194"/>
@@ -12652,7 +12663,7 @@
       <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="213"/>
+      <c r="B3" s="211"/>
       <c r="C3" s="194"/>
       <c r="D3" s="194"/>
       <c r="E3" s="194"/>
@@ -12678,7 +12689,7 @@
       <c r="A4" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="211" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="194"/>
@@ -12706,7 +12717,7 @@
       <c r="A5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="211" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="194"/>
@@ -12734,7 +12745,7 @@
       <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="213"/>
+      <c r="B6" s="211"/>
       <c r="C6" s="194"/>
       <c r="D6" s="194"/>
       <c r="E6" s="194"/>
@@ -12760,7 +12771,7 @@
       <c r="A7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="211" t="s">
         <v>487</v>
       </c>
       <c r="C7" s="194"/>
@@ -12788,7 +12799,7 @@
       <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="213"/>
+      <c r="B8" s="211"/>
       <c r="C8" s="194"/>
       <c r="D8" s="194"/>
       <c r="E8" s="194"/>
@@ -13032,7 +13043,7 @@
       <c r="V15" s="113"/>
       <c r="W15" s="113"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="120">
         <v>6</v>
       </c>
@@ -13063,7 +13074,7 @@
       <c r="V16" s="113"/>
       <c r="W16" s="113"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="120">
         <v>7</v>
       </c>
@@ -13094,7 +13105,7 @@
       <c r="V17" s="113"/>
       <c r="W17" s="113"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="120">
         <v>8</v>
       </c>
@@ -13125,7 +13136,7 @@
       <c r="V18" s="113"/>
       <c r="W18" s="113"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="121">
         <v>9</v>
       </c>
@@ -13366,7 +13377,7 @@
       <c r="V26" s="113"/>
       <c r="W26" s="113"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="121">
         <v>18</v>
       </c>
@@ -13485,7 +13496,7 @@
       <c r="A31" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="213" t="s">
+      <c r="B31" s="211" t="s">
         <v>519</v>
       </c>
       <c r="C31" s="194"/>
@@ -13514,7 +13525,7 @@
       <c r="A32" s="125" t="s">
         <v>452</v>
       </c>
-      <c r="B32" s="213"/>
+      <c r="B32" s="211"/>
       <c r="C32" s="194"/>
       <c r="D32" s="194"/>
       <c r="E32" s="194"/>
@@ -13541,7 +13552,7 @@
       <c r="A33" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="211" t="s">
         <v>453</v>
       </c>
       <c r="C33" s="194"/>
@@ -13570,7 +13581,7 @@
       <c r="A34" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="B34" s="213" t="s">
+      <c r="B34" s="211" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="194"/>
@@ -13599,7 +13610,7 @@
       <c r="A35" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="213"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="194"/>
       <c r="D35" s="194"/>
       <c r="E35" s="194"/>
@@ -13626,7 +13637,7 @@
       <c r="A36" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="213" t="s">
+      <c r="B36" s="211" t="s">
         <v>487</v>
       </c>
       <c r="C36" s="194"/>
@@ -13655,7 +13666,7 @@
       <c r="A37" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="213"/>
+      <c r="B37" s="211"/>
       <c r="C37" s="194"/>
       <c r="D37" s="194"/>
       <c r="E37" s="194"/>
@@ -14575,7 +14586,7 @@
       <c r="A68" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="213" t="s">
+      <c r="B68" s="211" t="s">
         <v>453</v>
       </c>
       <c r="C68" s="194"/>
@@ -14607,7 +14618,7 @@
       <c r="A69" s="134" t="s">
         <v>454</v>
       </c>
-      <c r="B69" s="213" t="s">
+      <c r="B69" s="211" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="194"/>
@@ -14639,7 +14650,7 @@
       <c r="A70" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="213"/>
+      <c r="B70" s="211"/>
       <c r="C70" s="194"/>
       <c r="D70" s="194"/>
       <c r="E70" s="194"/>
@@ -14669,7 +14680,7 @@
       <c r="A71" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="213" t="s">
+      <c r="B71" s="211" t="s">
         <v>487</v>
       </c>
       <c r="C71" s="194"/>
@@ -14701,7 +14712,7 @@
       <c r="A72" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="213"/>
+      <c r="B72" s="211"/>
       <c r="C72" s="194"/>
       <c r="D72" s="194"/>
       <c r="E72" s="194"/>
@@ -16209,16 +16220,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B69:F69"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B71:F71"/>
@@ -16230,6 +16231,16 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>
@@ -16246,9 +16257,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1014"/>
+  <dimension ref="A1:Z1031"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16259,7 +16272,7 @@
     <col min="5" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="148" t="s">
         <v>24</v>
       </c>
@@ -16287,11 +16300,11 @@
       <c r="U1" s="113"/>
       <c r="V1" s="113"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="211" t="s">
         <v>530</v>
       </c>
       <c r="C2" s="194"/>
@@ -16315,11 +16328,11 @@
       <c r="U2" s="113"/>
       <c r="V2" s="113"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="213"/>
+      <c r="B3" s="211"/>
       <c r="C3" s="194"/>
       <c r="D3" s="194"/>
       <c r="E3" s="194"/>
@@ -16341,11 +16354,11 @@
       <c r="U3" s="113"/>
       <c r="V3" s="113"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="211" t="s">
         <v>531</v>
       </c>
       <c r="C4" s="194"/>
@@ -16369,11 +16382,11 @@
       <c r="U4" s="113"/>
       <c r="V4" s="113"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="211" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="194"/>
@@ -16397,11 +16410,11 @@
       <c r="U5" s="113"/>
       <c r="V5" s="113"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="211" t="s">
         <v>532</v>
       </c>
       <c r="C6" s="194"/>
@@ -16425,11 +16438,11 @@
       <c r="U6" s="113"/>
       <c r="V6" s="113"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="211" t="s">
         <v>533</v>
       </c>
       <c r="C7" s="194"/>
@@ -16453,7 +16466,7 @@
       <c r="U7" s="113"/>
       <c r="V7" s="113"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="126" t="s">
         <v>417</v>
       </c>
@@ -16481,11 +16494,11 @@
       <c r="U8" s="113"/>
       <c r="V8" s="113"/>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="213"/>
+      <c r="B9" s="211"/>
       <c r="C9" s="194"/>
       <c r="D9" s="194"/>
       <c r="E9" s="194"/>
@@ -16507,7 +16520,7 @@
       <c r="U9" s="113"/>
       <c r="V9" s="113"/>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="114" t="s">
         <v>14</v>
       </c>
@@ -16544,7 +16557,7 @@
       <c r="V10" s="113"/>
       <c r="W10" s="113"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>1</v>
       </c>
@@ -16575,7 +16588,7 @@
       <c r="V11" s="113"/>
       <c r="W11" s="113"/>
     </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>2</v>
       </c>
@@ -16608,7 +16621,7 @@
       <c r="V12" s="113"/>
       <c r="W12" s="113"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="120">
         <v>3</v>
       </c>
@@ -16639,7 +16652,7 @@
       <c r="V13" s="113"/>
       <c r="W13" s="113"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="120">
         <v>4</v>
       </c>
@@ -16670,7 +16683,7 @@
       <c r="V14" s="113"/>
       <c r="W14" s="113"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="120">
         <v>5</v>
       </c>
@@ -16701,16 +16714,16 @@
       <c r="V15" s="113"/>
       <c r="W15" s="113"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="120">
         <v>6</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>539</v>
+      <c r="B16" s="18" t="s">
+        <v>489</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="17" t="s">
-        <v>540</v>
+      <c r="D16" s="18" t="s">
+        <v>490</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -16732,16 +16745,16 @@
       <c r="V16" s="113"/>
       <c r="W16" s="113"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="120">
         <v>7</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>541</v>
+      <c r="B17" s="22" t="s">
+        <v>491</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="17" t="s">
-        <v>542</v>
+      <c r="D17" s="18" t="s">
+        <v>492</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -16763,18 +16776,16 @@
       <c r="V17" s="113"/>
       <c r="W17" s="113"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="121">
+    <row r="18" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="120">
         <v>8</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>545</v>
+      <c r="B18" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="18" t="s">
+        <v>494</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -16796,21 +16807,21 @@
       <c r="V18" s="113"/>
       <c r="W18" s="113"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="121">
+    <row r="19" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="124">
         <v>9</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="B19" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="113"/>
       <c r="H19" s="113"/>
       <c r="I19" s="113"/>
@@ -16829,37 +16840,50 @@
       <c r="V19" s="113"/>
       <c r="W19" s="113"/>
     </row>
-    <row r="20" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="122">
-        <v>10</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>550</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="121">
-        <v>11</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="C21" s="145" t="s">
-        <v>552</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+    <row r="20" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="124">
+        <v>18</v>
+      </c>
+      <c r="B20" s="146" t="s">
+        <v>515</v>
+      </c>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146" t="s">
+        <v>516</v>
+      </c>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+    </row>
+    <row r="21" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="120">
+        <v>6</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="113"/>
       <c r="H21" s="113"/>
       <c r="I21" s="113"/>
@@ -16878,19 +16902,19 @@
       <c r="V21" s="113"/>
       <c r="W21" s="113"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121">
-        <v>12</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+    <row r="22" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="120">
+        <v>7</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="113"/>
       <c r="H22" s="113"/>
       <c r="I22" s="113"/>
@@ -16909,13 +16933,21 @@
       <c r="V22" s="113"/>
       <c r="W22" s="113"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="121"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+    <row r="23" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="121">
+        <v>8</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="113"/>
       <c r="H23" s="113"/>
       <c r="I23" s="113"/>
@@ -16934,17 +16966,21 @@
       <c r="V23" s="113"/>
       <c r="W23" s="113"/>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="217" t="s">
-        <v>556</v>
-      </c>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="195"/>
+    <row r="24" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="121">
+        <v>9</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="C24" s="220">
+        <v>45078</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="113"/>
       <c r="H24" s="113"/>
       <c r="I24" s="113"/>
@@ -16963,15 +16999,21 @@
       <c r="V24" s="113"/>
       <c r="W24" s="113"/>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="B25" s="217"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="195"/>
+    <row r="25" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="124">
+        <v>9</v>
+      </c>
+      <c r="B25" s="146" t="s">
+        <v>639</v>
+      </c>
+      <c r="C25" s="220">
+        <v>45107</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
       <c r="G25" s="113"/>
       <c r="H25" s="113"/>
       <c r="I25" s="113"/>
@@ -16990,44 +17032,35 @@
       <c r="V25" s="113"/>
       <c r="W25" s="113"/>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="125" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="213" t="s">
-        <v>557</v>
-      </c>
-      <c r="C26" s="194"/>
-      <c r="D26" s="194"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="125" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="213"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="195"/>
+    <row r="26" spans="1:26" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="122">
+        <v>10</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="121">
+        <v>11</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="113"/>
       <c r="H27" s="113"/>
       <c r="I27" s="113"/>
@@ -17046,17 +17079,19 @@
       <c r="V27" s="113"/>
       <c r="W27" s="113"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="125" t="s">
-        <v>454</v>
-      </c>
-      <c r="B28" s="213" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="194"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="195"/>
+    <row r="28" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="121">
+        <v>12</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="113"/>
       <c r="H28" s="113"/>
       <c r="I28" s="113"/>
@@ -17075,15 +17110,15 @@
       <c r="V28" s="113"/>
       <c r="W28" s="113"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="125" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="213"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="195"/>
+    <row r="29" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="124"/>
+      <c r="B29" s="146" t="s">
+        <v>637</v>
+      </c>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
       <c r="G29" s="113"/>
       <c r="H29" s="113"/>
       <c r="I29" s="113"/>
@@ -17102,15 +17137,15 @@
       <c r="V29" s="113"/>
       <c r="W29" s="113"/>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="125" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="213"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
+    <row r="30" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="124"/>
+      <c r="B30" s="146" t="s">
+        <v>638</v>
+      </c>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
       <c r="G30" s="113"/>
       <c r="H30" s="113"/>
       <c r="I30" s="113"/>
@@ -17129,15 +17164,15 @@
       <c r="V30" s="113"/>
       <c r="W30" s="113"/>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="213"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="195"/>
+    <row r="31" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="124"/>
+      <c r="B31" s="146" t="s">
+        <v>449</v>
+      </c>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
       <c r="G31" s="113"/>
       <c r="H31" s="113"/>
       <c r="I31" s="113"/>
@@ -17156,25 +17191,13 @@
       <c r="V31" s="113"/>
       <c r="W31" s="113"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="125" t="s">
-        <v>456</v>
-      </c>
-      <c r="B32" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="151" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="151" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="151" t="s">
-        <v>19</v>
-      </c>
+    <row r="32" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="124"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
       <c r="G32" s="113"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
@@ -17193,19 +17216,13 @@
       <c r="V32" s="113"/>
       <c r="W32" s="113"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
-        <v>1</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>184</v>
-      </c>
+    <row r="33" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="121"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="D33" s="24"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="18"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="113"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
@@ -17224,21 +17241,17 @@
       <c r="V33" s="113"/>
       <c r="W33" s="113"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
-        <v>2</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="18"/>
+    <row r="34" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="214" t="s">
+        <v>550</v>
+      </c>
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="195"/>
       <c r="G34" s="113"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
@@ -17257,19 +17270,15 @@
       <c r="V34" s="113"/>
       <c r="W34" s="113"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="120">
-        <v>3</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="18"/>
+    <row r="35" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="125" t="s">
+        <v>452</v>
+      </c>
+      <c r="B35" s="214"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="195"/>
       <c r="G35" s="113"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
@@ -17288,19 +17297,17 @@
       <c r="V35" s="113"/>
       <c r="W35" s="113"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="120">
-        <v>4</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="18"/>
+    <row r="36" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="211" t="s">
+        <v>551</v>
+      </c>
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="195"/>
       <c r="G36" s="113"/>
       <c r="H36" s="113"/>
       <c r="I36" s="113"/>
@@ -17319,19 +17326,15 @@
       <c r="V36" s="113"/>
       <c r="W36" s="113"/>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="120">
-        <v>5</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="18"/>
+    <row r="37" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="211"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="194"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="195"/>
       <c r="G37" s="113"/>
       <c r="H37" s="113"/>
       <c r="I37" s="113"/>
@@ -17350,19 +17353,17 @@
       <c r="V37" s="113"/>
       <c r="W37" s="113"/>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="120">
-        <v>6</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="17" t="s">
-        <v>540</v>
-      </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="18"/>
+    <row r="38" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="125" t="s">
+        <v>454</v>
+      </c>
+      <c r="B38" s="211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="194"/>
+      <c r="D38" s="194"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="195"/>
       <c r="G38" s="113"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
@@ -17381,19 +17382,15 @@
       <c r="V38" s="113"/>
       <c r="W38" s="113"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="120">
-        <v>7</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="18"/>
+    <row r="39" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="211"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="195"/>
       <c r="G39" s="113"/>
       <c r="H39" s="113"/>
       <c r="I39" s="113"/>
@@ -17412,21 +17409,15 @@
       <c r="V39" s="113"/>
       <c r="W39" s="113"/>
     </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17">
-        <v>8</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="18"/>
+    <row r="40" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="211"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="195"/>
       <c r="G40" s="113"/>
       <c r="H40" s="113"/>
       <c r="I40" s="113"/>
@@ -17445,21 +17436,15 @@
       <c r="V40" s="113"/>
       <c r="W40" s="113"/>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17">
-        <v>9</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+    <row r="41" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="211"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="195"/>
       <c r="G41" s="113"/>
       <c r="H41" s="113"/>
       <c r="I41" s="113"/>
@@ -17478,21 +17463,25 @@
       <c r="V41" s="113"/>
       <c r="W41" s="113"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17">
-        <v>10</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+    <row r="42" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="B42" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="151" t="s">
+        <v>19</v>
+      </c>
       <c r="G42" s="113"/>
       <c r="H42" s="113"/>
       <c r="I42" s="113"/>
@@ -17511,16 +17500,18 @@
       <c r="V42" s="113"/>
       <c r="W42" s="113"/>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17">
-        <v>11</v>
+    <row r="43" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>1</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
+        <v>184</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="26"/>
       <c r="F43" s="18"/>
       <c r="G43" s="113"/>
       <c r="H43" s="113"/>
@@ -17540,20 +17531,20 @@
       <c r="V43" s="113"/>
       <c r="W43" s="113"/>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17">
-        <v>12</v>
+    <row r="44" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>2</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>569</v>
+        <v>535</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="E44" s="18"/>
+        <v>536</v>
+      </c>
+      <c r="E44" s="22"/>
       <c r="F44" s="18"/>
       <c r="G44" s="113"/>
       <c r="H44" s="113"/>
@@ -17573,20 +17564,18 @@
       <c r="V44" s="113"/>
       <c r="W44" s="113"/>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17">
-        <v>13</v>
+    <row r="45" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="120">
+        <v>3</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="E45" s="18"/>
+        <v>537</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="22"/>
       <c r="F45" s="18"/>
       <c r="G45" s="113"/>
       <c r="H45" s="113"/>
@@ -17606,18 +17595,18 @@
       <c r="V45" s="113"/>
       <c r="W45" s="113"/>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17">
-        <v>14</v>
+    <row r="46" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="120">
+        <v>4</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="E46" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="18"/>
       <c r="G46" s="113"/>
       <c r="H46" s="113"/>
@@ -17637,20 +17626,18 @@
       <c r="V46" s="113"/>
       <c r="W46" s="113"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17">
-        <v>15</v>
+    <row r="47" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="120">
+        <v>5</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>577</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C47" s="21"/>
       <c r="D47" s="17" t="s">
-        <v>578</v>
-      </c>
-      <c r="E47" s="18"/>
+        <v>538</v>
+      </c>
+      <c r="E47" s="21"/>
       <c r="F47" s="18"/>
       <c r="G47" s="113"/>
       <c r="H47" s="113"/>
@@ -17670,18 +17657,18 @@
       <c r="V47" s="113"/>
       <c r="W47" s="113"/>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
-        <v>16</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="17"/>
+    <row r="48" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="120">
+        <v>6</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="C48" s="18"/>
       <c r="D48" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="E48" s="18"/>
+        <v>540</v>
+      </c>
+      <c r="E48" s="21"/>
       <c r="F48" s="18"/>
       <c r="G48" s="113"/>
       <c r="H48" s="113"/>
@@ -17701,18 +17688,18 @@
       <c r="V48" s="113"/>
       <c r="W48" s="113"/>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17">
-        <v>17</v>
+    <row r="49" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="120">
+        <v>7</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="C49" s="17"/>
+        <v>541</v>
+      </c>
+      <c r="C49" s="22"/>
       <c r="D49" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="E49" s="18"/>
+        <v>542</v>
+      </c>
+      <c r="E49" s="22"/>
       <c r="F49" s="18"/>
       <c r="G49" s="113"/>
       <c r="H49" s="113"/>
@@ -17732,12 +17719,20 @@
       <c r="V49" s="113"/>
       <c r="W49" s="113"/>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
+    <row r="50" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17">
+        <v>8</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="E50" s="26"/>
       <c r="F50" s="18"/>
       <c r="G50" s="113"/>
       <c r="H50" s="113"/>
@@ -17757,11 +17752,19 @@
       <c r="V50" s="113"/>
       <c r="W50" s="113"/>
     </row>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="18"/>
+    <row r="51" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17">
+        <v>9</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>557</v>
+      </c>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
       <c r="G51" s="113"/>
@@ -17782,15 +17785,19 @@
       <c r="V51" s="113"/>
       <c r="W51" s="113"/>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="214" t="s">
-        <v>581</v>
-      </c>
-      <c r="C52" s="195"/>
-      <c r="D52" s="18"/>
+    <row r="52" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="17">
+        <v>10</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>560</v>
+      </c>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="113"/>
@@ -17811,12 +17818,14 @@
       <c r="V52" s="113"/>
       <c r="W52" s="113"/>
     </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="B53" s="216"/>
-      <c r="C53" s="195"/>
+    <row r="53" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17">
+        <v>11</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
@@ -17838,13 +17847,19 @@
       <c r="V53" s="113"/>
       <c r="W53" s="113"/>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="125" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="215"/>
-      <c r="C54" s="195"/>
-      <c r="D54" s="18"/>
+    <row r="54" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="17">
+        <v>12</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>564</v>
+      </c>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="113"/>
@@ -17865,13 +17880,19 @@
       <c r="V54" s="113"/>
       <c r="W54" s="113"/>
     </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="125" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="216"/>
-      <c r="C55" s="195"/>
-      <c r="D55" s="18"/>
+    <row r="55" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="17">
+        <v>13</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>567</v>
+      </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="G55" s="113"/>
@@ -17892,13 +17913,17 @@
       <c r="V55" s="113"/>
       <c r="W55" s="113"/>
     </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="125" t="s">
-        <v>454</v>
-      </c>
-      <c r="B56" s="216"/>
-      <c r="C56" s="195"/>
-      <c r="D56" s="18"/>
+    <row r="56" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="17">
+        <v>14</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17" t="s">
+        <v>569</v>
+      </c>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
       <c r="G56" s="113"/>
@@ -17919,13 +17944,19 @@
       <c r="V56" s="113"/>
       <c r="W56" s="113"/>
     </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="125" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="215"/>
-      <c r="C57" s="195"/>
-      <c r="D57" s="18"/>
+    <row r="57" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="17">
+        <v>15</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>572</v>
+      </c>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
       <c r="G57" s="113"/>
@@ -17946,13 +17977,17 @@
       <c r="V57" s="113"/>
       <c r="W57" s="113"/>
     </row>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="125" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="215"/>
-      <c r="C58" s="195"/>
-      <c r="D58" s="18"/>
+    <row r="58" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="17">
+        <v>16</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
+        <v>573</v>
+      </c>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="113"/>
@@ -17973,13 +18008,17 @@
       <c r="V58" s="113"/>
       <c r="W58" s="113"/>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="125" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="215"/>
-      <c r="C59" s="195"/>
-      <c r="D59" s="18"/>
+    <row r="59" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="17">
+        <v>17</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17" t="s">
+        <v>574</v>
+      </c>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="113"/>
@@ -18000,25 +18039,13 @@
       <c r="V59" s="113"/>
       <c r="W59" s="113"/>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="125" t="s">
-        <v>456</v>
-      </c>
-      <c r="B60" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="151" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="151" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="151" t="s">
-        <v>19</v>
-      </c>
+    <row r="60" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="17"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
       <c r="G60" s="113"/>
       <c r="H60" s="113"/>
       <c r="I60" s="113"/>
@@ -18037,10 +18064,10 @@
       <c r="V60" s="113"/>
       <c r="W60" s="113"/>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
+    <row r="61" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
       <c r="B61" s="22"/>
-      <c r="C61" s="26"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -18062,10 +18089,14 @@
       <c r="V61" s="113"/>
       <c r="W61" s="113"/>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
+    <row r="62" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="215" t="s">
+        <v>575</v>
+      </c>
+      <c r="C62" s="195"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
@@ -18087,10 +18118,12 @@
       <c r="V62" s="113"/>
       <c r="W62" s="113"/>
     </row>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+    <row r="63" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="125" t="s">
+        <v>452</v>
+      </c>
+      <c r="B63" s="216"/>
+      <c r="C63" s="195"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
@@ -18112,10 +18145,12 @@
       <c r="V63" s="113"/>
       <c r="W63" s="113"/>
     </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="18"/>
+    <row r="64" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="217"/>
+      <c r="C64" s="195"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
@@ -18137,10 +18172,12 @@
       <c r="V64" s="113"/>
       <c r="W64" s="113"/>
     </row>
-    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
+    <row r="65" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="216"/>
+      <c r="C65" s="195"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
@@ -18162,10 +18199,12 @@
       <c r="V65" s="113"/>
       <c r="W65" s="113"/>
     </row>
-    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="22"/>
+    <row r="66" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="125" t="s">
+        <v>454</v>
+      </c>
+      <c r="B66" s="216"/>
+      <c r="C66" s="195"/>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
@@ -18187,10 +18226,12 @@
       <c r="V66" s="113"/>
       <c r="W66" s="113"/>
     </row>
-    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
+    <row r="67" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="217"/>
+      <c r="C67" s="195"/>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -18212,17 +18253,15 @@
       <c r="V67" s="113"/>
       <c r="W67" s="113"/>
     </row>
-    <row r="68" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="214" t="s">
-        <v>582</v>
-      </c>
-      <c r="C68" s="194"/>
-      <c r="D68" s="194"/>
-      <c r="E68" s="194"/>
-      <c r="F68" s="195"/>
+    <row r="68" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="217"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
       <c r="G68" s="113"/>
       <c r="H68" s="113"/>
       <c r="I68" s="113"/>
@@ -18241,15 +18280,15 @@
       <c r="V68" s="113"/>
       <c r="W68" s="113"/>
     </row>
-    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="214"/>
-      <c r="C69" s="194"/>
-      <c r="D69" s="194"/>
-      <c r="E69" s="194"/>
-      <c r="F69" s="195"/>
+    <row r="69" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="217"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
       <c r="G69" s="113"/>
       <c r="H69" s="113"/>
       <c r="I69" s="113"/>
@@ -18268,15 +18307,25 @@
       <c r="V69" s="113"/>
       <c r="W69" s="113"/>
     </row>
-    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="114" t="s">
-        <v>583</v>
-      </c>
-      <c r="B70" s="214"/>
-      <c r="C70" s="194"/>
-      <c r="D70" s="194"/>
-      <c r="E70" s="194"/>
-      <c r="F70" s="195"/>
+    <row r="70" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="B70" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="151" t="s">
+        <v>19</v>
+      </c>
       <c r="G70" s="113"/>
       <c r="H70" s="113"/>
       <c r="I70" s="113"/>
@@ -18295,15 +18344,13 @@
       <c r="V70" s="113"/>
       <c r="W70" s="113"/>
     </row>
-    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="114" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="214"/>
-      <c r="C71" s="194"/>
-      <c r="D71" s="194"/>
-      <c r="E71" s="194"/>
-      <c r="F71" s="195"/>
+    <row r="71" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
       <c r="G71" s="113"/>
       <c r="H71" s="113"/>
       <c r="I71" s="113"/>
@@ -18322,15 +18369,13 @@
       <c r="V71" s="113"/>
       <c r="W71" s="113"/>
     </row>
-    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="214"/>
-      <c r="C72" s="194"/>
-      <c r="D72" s="194"/>
-      <c r="E72" s="194"/>
-      <c r="F72" s="195"/>
+    <row r="72" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
       <c r="G72" s="113"/>
       <c r="H72" s="113"/>
       <c r="I72" s="113"/>
@@ -18349,15 +18394,13 @@
       <c r="V72" s="113"/>
       <c r="W72" s="113"/>
     </row>
-    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="214"/>
-      <c r="C73" s="194"/>
-      <c r="D73" s="194"/>
-      <c r="E73" s="194"/>
-      <c r="F73" s="195"/>
+    <row r="73" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
       <c r="G73" s="113"/>
       <c r="H73" s="113"/>
       <c r="I73" s="113"/>
@@ -18376,15 +18419,13 @@
       <c r="V73" s="113"/>
       <c r="W73" s="113"/>
     </row>
-    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="214"/>
-      <c r="C74" s="194"/>
-      <c r="D74" s="194"/>
-      <c r="E74" s="194"/>
-      <c r="F74" s="195"/>
+    <row r="74" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
       <c r="G74" s="113"/>
       <c r="H74" s="113"/>
       <c r="I74" s="113"/>
@@ -18403,15 +18444,13 @@
       <c r="V74" s="113"/>
       <c r="W74" s="113"/>
     </row>
-    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="114" t="s">
-        <v>584</v>
-      </c>
-      <c r="B75" s="214"/>
-      <c r="C75" s="194"/>
-      <c r="D75" s="194"/>
-      <c r="E75" s="194"/>
-      <c r="F75" s="195"/>
+    <row r="75" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="22"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
       <c r="G75" s="113"/>
       <c r="H75" s="113"/>
       <c r="I75" s="113"/>
@@ -18430,25 +18469,13 @@
       <c r="V75" s="113"/>
       <c r="W75" s="113"/>
     </row>
-    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="125" t="s">
-        <v>456</v>
-      </c>
-      <c r="B76" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="151" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="151" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="151" t="s">
-        <v>19</v>
-      </c>
+    <row r="76" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="22"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
       <c r="G76" s="113"/>
       <c r="H76" s="113"/>
       <c r="I76" s="113"/>
@@ -18467,8 +18494,8 @@
       <c r="V76" s="113"/>
       <c r="W76" s="113"/>
     </row>
-    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
+    <row r="77" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
@@ -18492,13 +18519,17 @@
       <c r="V77" s="113"/>
       <c r="W77" s="113"/>
     </row>
-    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="18"/>
+    <row r="78" spans="1:26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="215" t="s">
+        <v>576</v>
+      </c>
+      <c r="C78" s="194"/>
+      <c r="D78" s="194"/>
+      <c r="E78" s="194"/>
+      <c r="F78" s="195"/>
       <c r="G78" s="113"/>
       <c r="H78" s="113"/>
       <c r="I78" s="113"/>
@@ -18517,13 +18548,15 @@
       <c r="V78" s="113"/>
       <c r="W78" s="113"/>
     </row>
-    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="18"/>
+    <row r="79" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="215"/>
+      <c r="C79" s="194"/>
+      <c r="D79" s="194"/>
+      <c r="E79" s="194"/>
+      <c r="F79" s="195"/>
       <c r="G79" s="113"/>
       <c r="H79" s="113"/>
       <c r="I79" s="113"/>
@@ -18542,13 +18575,15 @@
       <c r="V79" s="113"/>
       <c r="W79" s="113"/>
     </row>
-    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="18"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="18"/>
+    <row r="80" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="114" t="s">
+        <v>577</v>
+      </c>
+      <c r="B80" s="215"/>
+      <c r="C80" s="194"/>
+      <c r="D80" s="194"/>
+      <c r="E80" s="194"/>
+      <c r="F80" s="195"/>
       <c r="G80" s="113"/>
       <c r="H80" s="113"/>
       <c r="I80" s="113"/>
@@ -18567,13 +18602,15 @@
       <c r="V80" s="113"/>
       <c r="W80" s="113"/>
     </row>
-    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="18"/>
+    <row r="81" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="215"/>
+      <c r="C81" s="194"/>
+      <c r="D81" s="194"/>
+      <c r="E81" s="194"/>
+      <c r="F81" s="195"/>
       <c r="G81" s="113"/>
       <c r="H81" s="113"/>
       <c r="I81" s="113"/>
@@ -18592,13 +18629,15 @@
       <c r="V81" s="113"/>
       <c r="W81" s="113"/>
     </row>
-    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="18"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="18"/>
+    <row r="82" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="215"/>
+      <c r="C82" s="194"/>
+      <c r="D82" s="194"/>
+      <c r="E82" s="194"/>
+      <c r="F82" s="195"/>
       <c r="G82" s="113"/>
       <c r="H82" s="113"/>
       <c r="I82" s="113"/>
@@ -18617,13 +18656,15 @@
       <c r="V82" s="113"/>
       <c r="W82" s="113"/>
     </row>
-    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
+    <row r="83" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="215"/>
+      <c r="C83" s="194"/>
+      <c r="D83" s="194"/>
+      <c r="E83" s="194"/>
+      <c r="F83" s="195"/>
       <c r="G83" s="113"/>
       <c r="H83" s="113"/>
       <c r="I83" s="113"/>
@@ -18642,13 +18683,15 @@
       <c r="V83" s="113"/>
       <c r="W83" s="113"/>
     </row>
-    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="22"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="18"/>
+    <row r="84" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="215"/>
+      <c r="C84" s="194"/>
+      <c r="D84" s="194"/>
+      <c r="E84" s="194"/>
+      <c r="F84" s="195"/>
       <c r="G84" s="113"/>
       <c r="H84" s="113"/>
       <c r="I84" s="113"/>
@@ -18667,13 +18710,15 @@
       <c r="V84" s="113"/>
       <c r="W84" s="113"/>
     </row>
-    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
+    <row r="85" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="114" t="s">
+        <v>578</v>
+      </c>
+      <c r="B85" s="215"/>
+      <c r="C85" s="194"/>
+      <c r="D85" s="194"/>
+      <c r="E85" s="194"/>
+      <c r="F85" s="195"/>
       <c r="G85" s="113"/>
       <c r="H85" s="113"/>
       <c r="I85" s="113"/>
@@ -18692,15 +18737,25 @@
       <c r="V85" s="113"/>
       <c r="W85" s="113"/>
     </row>
-    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="213"/>
-      <c r="C86" s="194"/>
-      <c r="D86" s="194"/>
-      <c r="E86" s="194"/>
-      <c r="F86" s="195"/>
+    <row r="86" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="B86" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="151" t="s">
+        <v>19</v>
+      </c>
       <c r="G86" s="113"/>
       <c r="H86" s="113"/>
       <c r="I86" s="113"/>
@@ -18719,15 +18774,13 @@
       <c r="V86" s="113"/>
       <c r="W86" s="113"/>
     </row>
-    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="213"/>
-      <c r="C87" s="194"/>
-      <c r="D87" s="194"/>
-      <c r="E87" s="194"/>
-      <c r="F87" s="195"/>
+    <row r="87" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="22"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
       <c r="G87" s="113"/>
       <c r="H87" s="113"/>
       <c r="I87" s="113"/>
@@ -18746,15 +18799,13 @@
       <c r="V87" s="113"/>
       <c r="W87" s="113"/>
     </row>
-    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="114" t="s">
-        <v>585</v>
-      </c>
-      <c r="B88" s="213"/>
-      <c r="C88" s="194"/>
-      <c r="D88" s="194"/>
-      <c r="E88" s="194"/>
-      <c r="F88" s="195"/>
+    <row r="88" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="18"/>
       <c r="G88" s="113"/>
       <c r="H88" s="113"/>
       <c r="I88" s="113"/>
@@ -18773,15 +18824,13 @@
       <c r="V88" s="113"/>
       <c r="W88" s="113"/>
     </row>
-    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="213"/>
-      <c r="C89" s="194"/>
-      <c r="D89" s="194"/>
-      <c r="E89" s="194"/>
-      <c r="F89" s="195"/>
+    <row r="89" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="18"/>
       <c r="G89" s="113"/>
       <c r="H89" s="113"/>
       <c r="I89" s="113"/>
@@ -18800,15 +18849,13 @@
       <c r="V89" s="113"/>
       <c r="W89" s="113"/>
     </row>
-    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="213"/>
-      <c r="C90" s="194"/>
-      <c r="D90" s="194"/>
-      <c r="E90" s="194"/>
-      <c r="F90" s="195"/>
+    <row r="90" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="18"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="18"/>
       <c r="G90" s="113"/>
       <c r="H90" s="113"/>
       <c r="I90" s="113"/>
@@ -18827,15 +18874,13 @@
       <c r="V90" s="113"/>
       <c r="W90" s="113"/>
     </row>
-    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="213"/>
-      <c r="C91" s="194"/>
-      <c r="D91" s="194"/>
-      <c r="E91" s="194"/>
-      <c r="F91" s="195"/>
+    <row r="91" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="18"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="18"/>
       <c r="G91" s="113"/>
       <c r="H91" s="113"/>
       <c r="I91" s="113"/>
@@ -18854,15 +18899,13 @@
       <c r="V91" s="113"/>
       <c r="W91" s="113"/>
     </row>
-    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="114" t="s">
-        <v>584</v>
-      </c>
-      <c r="B92" s="213"/>
-      <c r="C92" s="194"/>
-      <c r="D92" s="194"/>
-      <c r="E92" s="194"/>
-      <c r="F92" s="195"/>
+    <row r="92" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="18"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="18"/>
       <c r="G92" s="113"/>
       <c r="H92" s="113"/>
       <c r="I92" s="113"/>
@@ -18881,25 +18924,13 @@
       <c r="V92" s="113"/>
       <c r="W92" s="113"/>
     </row>
-    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="125" t="s">
-        <v>456</v>
-      </c>
-      <c r="B93" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="152" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="152" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="152" t="s">
-        <v>19</v>
-      </c>
+    <row r="93" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="22"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
       <c r="G93" s="113"/>
       <c r="H93" s="113"/>
       <c r="I93" s="113"/>
@@ -18918,12 +18949,12 @@
       <c r="V93" s="113"/>
       <c r="W93" s="113"/>
     </row>
-    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
+      <c r="B94" s="26"/>
       <c r="C94" s="26"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="18"/>
       <c r="G94" s="113"/>
       <c r="H94" s="113"/>
@@ -18943,10 +18974,10 @@
       <c r="V94" s="113"/>
       <c r="W94" s="113"/>
     </row>
-    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="22"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
+    <row r="95" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="18"/>
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
@@ -18968,13 +18999,15 @@
       <c r="V95" s="113"/>
       <c r="W95" s="113"/>
     </row>
-    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="22"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
+    <row r="96" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="211"/>
+      <c r="C96" s="194"/>
+      <c r="D96" s="194"/>
+      <c r="E96" s="194"/>
+      <c r="F96" s="195"/>
       <c r="G96" s="113"/>
       <c r="H96" s="113"/>
       <c r="I96" s="113"/>
@@ -18993,13 +19026,15 @@
       <c r="V96" s="113"/>
       <c r="W96" s="113"/>
     </row>
-    <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="22"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
+    <row r="97" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="211"/>
+      <c r="C97" s="194"/>
+      <c r="D97" s="194"/>
+      <c r="E97" s="194"/>
+      <c r="F97" s="195"/>
       <c r="G97" s="113"/>
       <c r="H97" s="113"/>
       <c r="I97" s="113"/>
@@ -19018,13 +19053,15 @@
       <c r="V97" s="113"/>
       <c r="W97" s="113"/>
     </row>
-    <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="22"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
+    <row r="98" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="114" t="s">
+        <v>579</v>
+      </c>
+      <c r="B98" s="211"/>
+      <c r="C98" s="194"/>
+      <c r="D98" s="194"/>
+      <c r="E98" s="194"/>
+      <c r="F98" s="195"/>
       <c r="G98" s="113"/>
       <c r="H98" s="113"/>
       <c r="I98" s="113"/>
@@ -19043,13 +19080,15 @@
       <c r="V98" s="113"/>
       <c r="W98" s="113"/>
     </row>
-    <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="22"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
+    <row r="99" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="211"/>
+      <c r="C99" s="194"/>
+      <c r="D99" s="194"/>
+      <c r="E99" s="194"/>
+      <c r="F99" s="195"/>
       <c r="G99" s="113"/>
       <c r="H99" s="113"/>
       <c r="I99" s="113"/>
@@ -19068,13 +19107,15 @@
       <c r="V99" s="113"/>
       <c r="W99" s="113"/>
     </row>
-    <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
+    <row r="100" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="211"/>
+      <c r="C100" s="194"/>
+      <c r="D100" s="194"/>
+      <c r="E100" s="194"/>
+      <c r="F100" s="195"/>
       <c r="G100" s="113"/>
       <c r="H100" s="113"/>
       <c r="I100" s="113"/>
@@ -19093,13 +19134,15 @@
       <c r="V100" s="113"/>
       <c r="W100" s="113"/>
     </row>
-    <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
+    <row r="101" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="211"/>
+      <c r="C101" s="194"/>
+      <c r="D101" s="194"/>
+      <c r="E101" s="194"/>
+      <c r="F101" s="195"/>
       <c r="G101" s="113"/>
       <c r="H101" s="113"/>
       <c r="I101" s="113"/>
@@ -19118,13 +19161,15 @@
       <c r="V101" s="113"/>
       <c r="W101" s="113"/>
     </row>
-    <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="22"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
+    <row r="102" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="114" t="s">
+        <v>578</v>
+      </c>
+      <c r="B102" s="211"/>
+      <c r="C102" s="194"/>
+      <c r="D102" s="194"/>
+      <c r="E102" s="194"/>
+      <c r="F102" s="195"/>
       <c r="G102" s="113"/>
       <c r="H102" s="113"/>
       <c r="I102" s="113"/>
@@ -19143,13 +19188,25 @@
       <c r="V102" s="113"/>
       <c r="W102" s="113"/>
     </row>
-    <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="22"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
+    <row r="103" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="B103" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="152" t="s">
+        <v>19</v>
+      </c>
       <c r="G103" s="113"/>
       <c r="H103" s="113"/>
       <c r="I103" s="113"/>
@@ -19168,10 +19225,10 @@
       <c r="V103" s="113"/>
       <c r="W103" s="113"/>
     </row>
-    <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
+      <c r="C104" s="26"/>
       <c r="D104" s="18"/>
       <c r="E104" s="18"/>
       <c r="F104" s="18"/>
@@ -19193,15 +19250,13 @@
       <c r="V104" s="113"/>
       <c r="W104" s="113"/>
     </row>
-    <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" s="213"/>
-      <c r="C105" s="194"/>
-      <c r="D105" s="194"/>
-      <c r="E105" s="194"/>
-      <c r="F105" s="195"/>
+    <row r="105" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
       <c r="G105" s="113"/>
       <c r="H105" s="113"/>
       <c r="I105" s="113"/>
@@ -19220,15 +19275,13 @@
       <c r="V105" s="113"/>
       <c r="W105" s="113"/>
     </row>
-    <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="213"/>
-      <c r="C106" s="194"/>
-      <c r="D106" s="194"/>
-      <c r="E106" s="194"/>
-      <c r="F106" s="195"/>
+    <row r="106" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
       <c r="G106" s="113"/>
       <c r="H106" s="113"/>
       <c r="I106" s="113"/>
@@ -19247,15 +19300,13 @@
       <c r="V106" s="113"/>
       <c r="W106" s="113"/>
     </row>
-    <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="114" t="s">
-        <v>586</v>
-      </c>
-      <c r="B107" s="213"/>
-      <c r="C107" s="194"/>
-      <c r="D107" s="194"/>
-      <c r="E107" s="194"/>
-      <c r="F107" s="195"/>
+    <row r="107" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="22"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
       <c r="G107" s="113"/>
       <c r="H107" s="113"/>
       <c r="I107" s="113"/>
@@ -19274,15 +19325,13 @@
       <c r="V107" s="113"/>
       <c r="W107" s="113"/>
     </row>
-    <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" s="213"/>
-      <c r="C108" s="194"/>
-      <c r="D108" s="194"/>
-      <c r="E108" s="194"/>
-      <c r="F108" s="195"/>
+    <row r="108" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="22"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
       <c r="G108" s="113"/>
       <c r="H108" s="113"/>
       <c r="I108" s="113"/>
@@ -19301,15 +19350,13 @@
       <c r="V108" s="113"/>
       <c r="W108" s="113"/>
     </row>
-    <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" s="213"/>
-      <c r="C109" s="194"/>
-      <c r="D109" s="194"/>
-      <c r="E109" s="194"/>
-      <c r="F109" s="195"/>
+    <row r="109" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="22"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
       <c r="G109" s="113"/>
       <c r="H109" s="113"/>
       <c r="I109" s="113"/>
@@ -19328,15 +19375,13 @@
       <c r="V109" s="113"/>
       <c r="W109" s="113"/>
     </row>
-    <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="114" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" s="213"/>
-      <c r="C110" s="194"/>
-      <c r="D110" s="194"/>
-      <c r="E110" s="194"/>
-      <c r="F110" s="195"/>
+    <row r="110" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
       <c r="G110" s="113"/>
       <c r="H110" s="113"/>
       <c r="I110" s="113"/>
@@ -19355,15 +19400,13 @@
       <c r="V110" s="113"/>
       <c r="W110" s="113"/>
     </row>
-    <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="114" t="s">
-        <v>584</v>
-      </c>
-      <c r="B111" s="213"/>
-      <c r="C111" s="194"/>
-      <c r="D111" s="194"/>
-      <c r="E111" s="194"/>
-      <c r="F111" s="195"/>
+    <row r="111" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="22"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
       <c r="G111" s="113"/>
       <c r="H111" s="113"/>
       <c r="I111" s="113"/>
@@ -19382,25 +19425,13 @@
       <c r="V111" s="113"/>
       <c r="W111" s="113"/>
     </row>
-    <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="125" t="s">
-        <v>456</v>
-      </c>
-      <c r="B112" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="152" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="152" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" s="152" t="s">
-        <v>19</v>
-      </c>
+    <row r="112" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
       <c r="G112" s="113"/>
       <c r="H112" s="113"/>
       <c r="I112" s="113"/>
@@ -19419,10 +19450,10 @@
       <c r="V112" s="113"/>
       <c r="W112" s="113"/>
     </row>
-    <row r="113" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
-      <c r="C113" s="26"/>
+      <c r="C113" s="22"/>
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
       <c r="F113" s="18"/>
@@ -19444,7 +19475,7 @@
       <c r="V113" s="113"/>
       <c r="W113" s="113"/>
     </row>
-    <row r="114" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
@@ -19469,13 +19500,15 @@
       <c r="V114" s="113"/>
       <c r="W114" s="113"/>
     </row>
-    <row r="115" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="22"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
+    <row r="115" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" s="211"/>
+      <c r="C115" s="194"/>
+      <c r="D115" s="194"/>
+      <c r="E115" s="194"/>
+      <c r="F115" s="195"/>
       <c r="G115" s="113"/>
       <c r="H115" s="113"/>
       <c r="I115" s="113"/>
@@ -19494,13 +19527,15 @@
       <c r="V115" s="113"/>
       <c r="W115" s="113"/>
     </row>
-    <row r="116" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="22"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
+    <row r="116" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="211"/>
+      <c r="C116" s="194"/>
+      <c r="D116" s="194"/>
+      <c r="E116" s="194"/>
+      <c r="F116" s="195"/>
       <c r="G116" s="113"/>
       <c r="H116" s="113"/>
       <c r="I116" s="113"/>
@@ -19519,13 +19554,15 @@
       <c r="V116" s="113"/>
       <c r="W116" s="113"/>
     </row>
-    <row r="117" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="22"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
+    <row r="117" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="114" t="s">
+        <v>580</v>
+      </c>
+      <c r="B117" s="211"/>
+      <c r="C117" s="194"/>
+      <c r="D117" s="194"/>
+      <c r="E117" s="194"/>
+      <c r="F117" s="195"/>
       <c r="G117" s="113"/>
       <c r="H117" s="113"/>
       <c r="I117" s="113"/>
@@ -19544,13 +19581,15 @@
       <c r="V117" s="113"/>
       <c r="W117" s="113"/>
     </row>
-    <row r="118" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="22"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
+    <row r="118" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="211"/>
+      <c r="C118" s="194"/>
+      <c r="D118" s="194"/>
+      <c r="E118" s="194"/>
+      <c r="F118" s="195"/>
       <c r="G118" s="113"/>
       <c r="H118" s="113"/>
       <c r="I118" s="113"/>
@@ -19569,13 +19608,15 @@
       <c r="V118" s="113"/>
       <c r="W118" s="113"/>
     </row>
-    <row r="119" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
+    <row r="119" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="211"/>
+      <c r="C119" s="194"/>
+      <c r="D119" s="194"/>
+      <c r="E119" s="194"/>
+      <c r="F119" s="195"/>
       <c r="G119" s="113"/>
       <c r="H119" s="113"/>
       <c r="I119" s="113"/>
@@ -19594,13 +19635,15 @@
       <c r="V119" s="113"/>
       <c r="W119" s="113"/>
     </row>
-    <row r="120" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
+    <row r="120" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="211"/>
+      <c r="C120" s="194"/>
+      <c r="D120" s="194"/>
+      <c r="E120" s="194"/>
+      <c r="F120" s="195"/>
       <c r="G120" s="113"/>
       <c r="H120" s="113"/>
       <c r="I120" s="113"/>
@@ -19619,13 +19662,15 @@
       <c r="V120" s="113"/>
       <c r="W120" s="113"/>
     </row>
-    <row r="121" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="22"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
+    <row r="121" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="114" t="s">
+        <v>578</v>
+      </c>
+      <c r="B121" s="211"/>
+      <c r="C121" s="194"/>
+      <c r="D121" s="194"/>
+      <c r="E121" s="194"/>
+      <c r="F121" s="195"/>
       <c r="G121" s="113"/>
       <c r="H121" s="113"/>
       <c r="I121" s="113"/>
@@ -19644,13 +19689,25 @@
       <c r="V121" s="113"/>
       <c r="W121" s="113"/>
     </row>
-    <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="22"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
+    <row r="122" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="B122" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="152" t="s">
+        <v>19</v>
+      </c>
       <c r="G122" s="113"/>
       <c r="H122" s="113"/>
       <c r="I122" s="113"/>
@@ -19669,10 +19726,10 @@
       <c r="V122" s="113"/>
       <c r="W122" s="113"/>
     </row>
-    <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
+      <c r="C123" s="26"/>
       <c r="D123" s="18"/>
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
@@ -19694,13 +19751,13 @@
       <c r="V123" s="113"/>
       <c r="W123" s="113"/>
     </row>
-    <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="113"/>
-      <c r="B124" s="113"/>
-      <c r="C124" s="113"/>
-      <c r="D124" s="113"/>
-      <c r="E124" s="113"/>
-      <c r="F124" s="113"/>
+    <row r="124" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="22"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
       <c r="G124" s="113"/>
       <c r="H124" s="113"/>
       <c r="I124" s="113"/>
@@ -19719,13 +19776,13 @@
       <c r="V124" s="113"/>
       <c r="W124" s="113"/>
     </row>
-    <row r="125" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="113"/>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
+    <row r="125" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="22"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
       <c r="G125" s="113"/>
       <c r="H125" s="113"/>
       <c r="I125" s="113"/>
@@ -19744,13 +19801,13 @@
       <c r="V125" s="113"/>
       <c r="W125" s="113"/>
     </row>
-    <row r="126" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="113"/>
-      <c r="B126" s="113"/>
-      <c r="C126" s="113"/>
-      <c r="D126" s="113"/>
-      <c r="E126" s="113"/>
-      <c r="F126" s="113"/>
+    <row r="126" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="22"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
       <c r="G126" s="113"/>
       <c r="H126" s="113"/>
       <c r="I126" s="113"/>
@@ -19769,13 +19826,13 @@
       <c r="V126" s="113"/>
       <c r="W126" s="113"/>
     </row>
-    <row r="127" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="113"/>
-      <c r="B127" s="113"/>
-      <c r="C127" s="113"/>
-      <c r="D127" s="113"/>
-      <c r="E127" s="113"/>
-      <c r="F127" s="113"/>
+    <row r="127" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="22"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
       <c r="G127" s="113"/>
       <c r="H127" s="113"/>
       <c r="I127" s="113"/>
@@ -19794,13 +19851,13 @@
       <c r="V127" s="113"/>
       <c r="W127" s="113"/>
     </row>
-    <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="113"/>
-      <c r="B128" s="113"/>
-      <c r="C128" s="113"/>
-      <c r="D128" s="113"/>
-      <c r="E128" s="113"/>
-      <c r="F128" s="113"/>
+    <row r="128" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="22"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
       <c r="G128" s="113"/>
       <c r="H128" s="113"/>
       <c r="I128" s="113"/>
@@ -19819,13 +19876,13 @@
       <c r="V128" s="113"/>
       <c r="W128" s="113"/>
     </row>
-    <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="113"/>
-      <c r="B129" s="113"/>
-      <c r="C129" s="113"/>
-      <c r="D129" s="113"/>
-      <c r="E129" s="113"/>
-      <c r="F129" s="113"/>
+    <row r="129" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
       <c r="G129" s="113"/>
       <c r="H129" s="113"/>
       <c r="I129" s="113"/>
@@ -19844,13 +19901,13 @@
       <c r="V129" s="113"/>
       <c r="W129" s="113"/>
     </row>
-    <row r="130" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="113"/>
-      <c r="B130" s="113"/>
-      <c r="C130" s="113"/>
-      <c r="D130" s="113"/>
-      <c r="E130" s="113"/>
-      <c r="F130" s="113"/>
+    <row r="130" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
       <c r="G130" s="113"/>
       <c r="H130" s="113"/>
       <c r="I130" s="113"/>
@@ -19869,13 +19926,13 @@
       <c r="V130" s="113"/>
       <c r="W130" s="113"/>
     </row>
-    <row r="131" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="113"/>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
+    <row r="131" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
       <c r="G131" s="113"/>
       <c r="H131" s="113"/>
       <c r="I131" s="113"/>
@@ -19894,13 +19951,13 @@
       <c r="V131" s="113"/>
       <c r="W131" s="113"/>
     </row>
-    <row r="132" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="113"/>
-      <c r="B132" s="113"/>
-      <c r="C132" s="113"/>
-      <c r="D132" s="113"/>
-      <c r="E132" s="113"/>
-      <c r="F132" s="113"/>
+    <row r="132" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
       <c r="G132" s="113"/>
       <c r="H132" s="113"/>
       <c r="I132" s="113"/>
@@ -19919,13 +19976,13 @@
       <c r="V132" s="113"/>
       <c r="W132" s="113"/>
     </row>
-    <row r="133" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="113"/>
-      <c r="B133" s="113"/>
-      <c r="C133" s="113"/>
-      <c r="D133" s="113"/>
-      <c r="E133" s="113"/>
-      <c r="F133" s="113"/>
+    <row r="133" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="22"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
       <c r="G133" s="113"/>
       <c r="H133" s="113"/>
       <c r="I133" s="113"/>
@@ -19944,7 +20001,7 @@
       <c r="V133" s="113"/>
       <c r="W133" s="113"/>
     </row>
-    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="113"/>
       <c r="B134" s="113"/>
       <c r="C134" s="113"/>
@@ -19969,7 +20026,7 @@
       <c r="V134" s="113"/>
       <c r="W134" s="113"/>
     </row>
-    <row r="135" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="113"/>
       <c r="B135" s="113"/>
       <c r="C135" s="113"/>
@@ -19994,7 +20051,7 @@
       <c r="V135" s="113"/>
       <c r="W135" s="113"/>
     </row>
-    <row r="136" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="113"/>
       <c r="B136" s="113"/>
       <c r="C136" s="113"/>
@@ -20019,7 +20076,7 @@
       <c r="V136" s="113"/>
       <c r="W136" s="113"/>
     </row>
-    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="113"/>
       <c r="B137" s="113"/>
       <c r="C137" s="113"/>
@@ -20044,7 +20101,7 @@
       <c r="V137" s="113"/>
       <c r="W137" s="113"/>
     </row>
-    <row r="138" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="113"/>
       <c r="B138" s="113"/>
       <c r="C138" s="113"/>
@@ -20069,7 +20126,7 @@
       <c r="V138" s="113"/>
       <c r="W138" s="113"/>
     </row>
-    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="113"/>
       <c r="B139" s="113"/>
       <c r="C139" s="113"/>
@@ -20094,7 +20151,7 @@
       <c r="V139" s="113"/>
       <c r="W139" s="113"/>
     </row>
-    <row r="140" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="113"/>
       <c r="B140" s="113"/>
       <c r="C140" s="113"/>
@@ -20119,7 +20176,7 @@
       <c r="V140" s="113"/>
       <c r="W140" s="113"/>
     </row>
-    <row r="141" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="113"/>
       <c r="B141" s="113"/>
       <c r="C141" s="113"/>
@@ -20144,7 +20201,7 @@
       <c r="V141" s="113"/>
       <c r="W141" s="113"/>
     </row>
-    <row r="142" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="113"/>
       <c r="B142" s="113"/>
       <c r="C142" s="113"/>
@@ -20169,7 +20226,7 @@
       <c r="V142" s="113"/>
       <c r="W142" s="113"/>
     </row>
-    <row r="143" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="113"/>
       <c r="B143" s="113"/>
       <c r="C143" s="113"/>
@@ -20194,7 +20251,7 @@
       <c r="V143" s="113"/>
       <c r="W143" s="113"/>
     </row>
-    <row r="144" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="113"/>
       <c r="B144" s="113"/>
       <c r="C144" s="113"/>
@@ -20219,7 +20276,7 @@
       <c r="V144" s="113"/>
       <c r="W144" s="113"/>
     </row>
-    <row r="145" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="113"/>
       <c r="B145" s="113"/>
       <c r="C145" s="113"/>
@@ -20244,7 +20301,7 @@
       <c r="V145" s="113"/>
       <c r="W145" s="113"/>
     </row>
-    <row r="146" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="113"/>
       <c r="B146" s="113"/>
       <c r="C146" s="113"/>
@@ -20269,7 +20326,7 @@
       <c r="V146" s="113"/>
       <c r="W146" s="113"/>
     </row>
-    <row r="147" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="113"/>
       <c r="B147" s="113"/>
       <c r="C147" s="113"/>
@@ -20294,7 +20351,7 @@
       <c r="V147" s="113"/>
       <c r="W147" s="113"/>
     </row>
-    <row r="148" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="113"/>
       <c r="B148" s="113"/>
       <c r="C148" s="113"/>
@@ -20319,7 +20376,7 @@
       <c r="V148" s="113"/>
       <c r="W148" s="113"/>
     </row>
-    <row r="149" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="113"/>
       <c r="B149" s="113"/>
       <c r="C149" s="113"/>
@@ -20344,7 +20401,7 @@
       <c r="V149" s="113"/>
       <c r="W149" s="113"/>
     </row>
-    <row r="150" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="113"/>
       <c r="B150" s="113"/>
       <c r="C150" s="113"/>
@@ -20369,7 +20426,7 @@
       <c r="V150" s="113"/>
       <c r="W150" s="113"/>
     </row>
-    <row r="151" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="113"/>
       <c r="B151" s="113"/>
       <c r="C151" s="113"/>
@@ -20394,7 +20451,7 @@
       <c r="V151" s="113"/>
       <c r="W151" s="113"/>
     </row>
-    <row r="152" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="113"/>
       <c r="B152" s="113"/>
       <c r="C152" s="113"/>
@@ -20419,7 +20476,7 @@
       <c r="V152" s="113"/>
       <c r="W152" s="113"/>
     </row>
-    <row r="153" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="113"/>
       <c r="B153" s="113"/>
       <c r="C153" s="113"/>
@@ -20444,7 +20501,7 @@
       <c r="V153" s="113"/>
       <c r="W153" s="113"/>
     </row>
-    <row r="154" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="113"/>
       <c r="B154" s="113"/>
       <c r="C154" s="113"/>
@@ -20469,7 +20526,7 @@
       <c r="V154" s="113"/>
       <c r="W154" s="113"/>
     </row>
-    <row r="155" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="113"/>
       <c r="B155" s="113"/>
       <c r="C155" s="113"/>
@@ -20494,7 +20551,7 @@
       <c r="V155" s="113"/>
       <c r="W155" s="113"/>
     </row>
-    <row r="156" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="113"/>
       <c r="B156" s="113"/>
       <c r="C156" s="113"/>
@@ -20519,7 +20576,7 @@
       <c r="V156" s="113"/>
       <c r="W156" s="113"/>
     </row>
-    <row r="157" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="113"/>
       <c r="B157" s="113"/>
       <c r="C157" s="113"/>
@@ -20544,7 +20601,7 @@
       <c r="V157" s="113"/>
       <c r="W157" s="113"/>
     </row>
-    <row r="158" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="113"/>
       <c r="B158" s="113"/>
       <c r="C158" s="113"/>
@@ -20569,7 +20626,7 @@
       <c r="V158" s="113"/>
       <c r="W158" s="113"/>
     </row>
-    <row r="159" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="113"/>
       <c r="B159" s="113"/>
       <c r="C159" s="113"/>
@@ -20594,7 +20651,7 @@
       <c r="V159" s="113"/>
       <c r="W159" s="113"/>
     </row>
-    <row r="160" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="113"/>
       <c r="B160" s="113"/>
       <c r="C160" s="113"/>
@@ -20619,7 +20676,7 @@
       <c r="V160" s="113"/>
       <c r="W160" s="113"/>
     </row>
-    <row r="161" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="113"/>
       <c r="B161" s="113"/>
       <c r="C161" s="113"/>
@@ -20644,7 +20701,7 @@
       <c r="V161" s="113"/>
       <c r="W161" s="113"/>
     </row>
-    <row r="162" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="113"/>
       <c r="B162" s="113"/>
       <c r="C162" s="113"/>
@@ -20669,7 +20726,7 @@
       <c r="V162" s="113"/>
       <c r="W162" s="113"/>
     </row>
-    <row r="163" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="113"/>
       <c r="B163" s="113"/>
       <c r="C163" s="113"/>
@@ -20694,7 +20751,7 @@
       <c r="V163" s="113"/>
       <c r="W163" s="113"/>
     </row>
-    <row r="164" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="113"/>
       <c r="B164" s="113"/>
       <c r="C164" s="113"/>
@@ -20719,7 +20776,7 @@
       <c r="V164" s="113"/>
       <c r="W164" s="113"/>
     </row>
-    <row r="165" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="113"/>
       <c r="B165" s="113"/>
       <c r="C165" s="113"/>
@@ -20744,7 +20801,7 @@
       <c r="V165" s="113"/>
       <c r="W165" s="113"/>
     </row>
-    <row r="166" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="113"/>
       <c r="B166" s="113"/>
       <c r="C166" s="113"/>
@@ -20769,7 +20826,7 @@
       <c r="V166" s="113"/>
       <c r="W166" s="113"/>
     </row>
-    <row r="167" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="113"/>
       <c r="B167" s="113"/>
       <c r="C167" s="113"/>
@@ -20794,7 +20851,7 @@
       <c r="V167" s="113"/>
       <c r="W167" s="113"/>
     </row>
-    <row r="168" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="113"/>
       <c r="B168" s="113"/>
       <c r="C168" s="113"/>
@@ -20819,7 +20876,7 @@
       <c r="V168" s="113"/>
       <c r="W168" s="113"/>
     </row>
-    <row r="169" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="113"/>
       <c r="B169" s="113"/>
       <c r="C169" s="113"/>
@@ -20844,7 +20901,7 @@
       <c r="V169" s="113"/>
       <c r="W169" s="113"/>
     </row>
-    <row r="170" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="113"/>
       <c r="B170" s="113"/>
       <c r="C170" s="113"/>
@@ -20869,7 +20926,7 @@
       <c r="V170" s="113"/>
       <c r="W170" s="113"/>
     </row>
-    <row r="171" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="113"/>
       <c r="B171" s="113"/>
       <c r="C171" s="113"/>
@@ -20894,7 +20951,7 @@
       <c r="V171" s="113"/>
       <c r="W171" s="113"/>
     </row>
-    <row r="172" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="113"/>
       <c r="B172" s="113"/>
       <c r="C172" s="113"/>
@@ -20919,7 +20976,7 @@
       <c r="V172" s="113"/>
       <c r="W172" s="113"/>
     </row>
-    <row r="173" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="113"/>
       <c r="B173" s="113"/>
       <c r="C173" s="113"/>
@@ -20944,7 +21001,7 @@
       <c r="V173" s="113"/>
       <c r="W173" s="113"/>
     </row>
-    <row r="174" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="113"/>
       <c r="B174" s="113"/>
       <c r="C174" s="113"/>
@@ -20969,7 +21026,7 @@
       <c r="V174" s="113"/>
       <c r="W174" s="113"/>
     </row>
-    <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="113"/>
       <c r="B175" s="113"/>
       <c r="C175" s="113"/>
@@ -20994,7 +21051,7 @@
       <c r="V175" s="113"/>
       <c r="W175" s="113"/>
     </row>
-    <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="113"/>
       <c r="B176" s="113"/>
       <c r="C176" s="113"/>
@@ -21019,7 +21076,7 @@
       <c r="V176" s="113"/>
       <c r="W176" s="113"/>
     </row>
-    <row r="177" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="113"/>
       <c r="B177" s="113"/>
       <c r="C177" s="113"/>
@@ -21044,7 +21101,7 @@
       <c r="V177" s="113"/>
       <c r="W177" s="113"/>
     </row>
-    <row r="178" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="113"/>
       <c r="B178" s="113"/>
       <c r="C178" s="113"/>
@@ -21069,7 +21126,7 @@
       <c r="V178" s="113"/>
       <c r="W178" s="113"/>
     </row>
-    <row r="179" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="113"/>
       <c r="B179" s="113"/>
       <c r="C179" s="113"/>
@@ -21094,7 +21151,7 @@
       <c r="V179" s="113"/>
       <c r="W179" s="113"/>
     </row>
-    <row r="180" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="113"/>
       <c r="B180" s="113"/>
       <c r="C180" s="113"/>
@@ -21119,7 +21176,7 @@
       <c r="V180" s="113"/>
       <c r="W180" s="113"/>
     </row>
-    <row r="181" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="113"/>
       <c r="B181" s="113"/>
       <c r="C181" s="113"/>
@@ -21144,7 +21201,7 @@
       <c r="V181" s="113"/>
       <c r="W181" s="113"/>
     </row>
-    <row r="182" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="113"/>
       <c r="B182" s="113"/>
       <c r="C182" s="113"/>
@@ -21169,7 +21226,7 @@
       <c r="V182" s="113"/>
       <c r="W182" s="113"/>
     </row>
-    <row r="183" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="113"/>
       <c r="B183" s="113"/>
       <c r="C183" s="113"/>
@@ -21194,7 +21251,7 @@
       <c r="V183" s="113"/>
       <c r="W183" s="113"/>
     </row>
-    <row r="184" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="113"/>
       <c r="B184" s="113"/>
       <c r="C184" s="113"/>
@@ -21219,7 +21276,7 @@
       <c r="V184" s="113"/>
       <c r="W184" s="113"/>
     </row>
-    <row r="185" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="113"/>
       <c r="B185" s="113"/>
       <c r="C185" s="113"/>
@@ -21244,7 +21301,7 @@
       <c r="V185" s="113"/>
       <c r="W185" s="113"/>
     </row>
-    <row r="186" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="113"/>
       <c r="B186" s="113"/>
       <c r="C186" s="113"/>
@@ -21269,7 +21326,7 @@
       <c r="V186" s="113"/>
       <c r="W186" s="113"/>
     </row>
-    <row r="187" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="113"/>
       <c r="B187" s="113"/>
       <c r="C187" s="113"/>
@@ -21294,7 +21351,7 @@
       <c r="V187" s="113"/>
       <c r="W187" s="113"/>
     </row>
-    <row r="188" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="113"/>
       <c r="B188" s="113"/>
       <c r="C188" s="113"/>
@@ -21319,7 +21376,7 @@
       <c r="V188" s="113"/>
       <c r="W188" s="113"/>
     </row>
-    <row r="189" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="113"/>
       <c r="B189" s="113"/>
       <c r="C189" s="113"/>
@@ -21344,7 +21401,7 @@
       <c r="V189" s="113"/>
       <c r="W189" s="113"/>
     </row>
-    <row r="190" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="113"/>
       <c r="B190" s="113"/>
       <c r="C190" s="113"/>
@@ -21369,7 +21426,7 @@
       <c r="V190" s="113"/>
       <c r="W190" s="113"/>
     </row>
-    <row r="191" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="113"/>
       <c r="B191" s="113"/>
       <c r="C191" s="113"/>
@@ -21394,7 +21451,7 @@
       <c r="V191" s="113"/>
       <c r="W191" s="113"/>
     </row>
-    <row r="192" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="113"/>
       <c r="B192" s="113"/>
       <c r="C192" s="113"/>
@@ -21419,7 +21476,7 @@
       <c r="V192" s="113"/>
       <c r="W192" s="113"/>
     </row>
-    <row r="193" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="113"/>
       <c r="B193" s="113"/>
       <c r="C193" s="113"/>
@@ -21444,7 +21501,7 @@
       <c r="V193" s="113"/>
       <c r="W193" s="113"/>
     </row>
-    <row r="194" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="113"/>
       <c r="B194" s="113"/>
       <c r="C194" s="113"/>
@@ -21469,7 +21526,7 @@
       <c r="V194" s="113"/>
       <c r="W194" s="113"/>
     </row>
-    <row r="195" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="113"/>
       <c r="B195" s="113"/>
       <c r="C195" s="113"/>
@@ -21494,7 +21551,7 @@
       <c r="V195" s="113"/>
       <c r="W195" s="113"/>
     </row>
-    <row r="196" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="113"/>
       <c r="B196" s="113"/>
       <c r="C196" s="113"/>
@@ -21519,7 +21576,7 @@
       <c r="V196" s="113"/>
       <c r="W196" s="113"/>
     </row>
-    <row r="197" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="113"/>
       <c r="B197" s="113"/>
       <c r="C197" s="113"/>
@@ -21544,7 +21601,7 @@
       <c r="V197" s="113"/>
       <c r="W197" s="113"/>
     </row>
-    <row r="198" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="113"/>
       <c r="B198" s="113"/>
       <c r="C198" s="113"/>
@@ -21569,7 +21626,7 @@
       <c r="V198" s="113"/>
       <c r="W198" s="113"/>
     </row>
-    <row r="199" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="113"/>
       <c r="B199" s="113"/>
       <c r="C199" s="113"/>
@@ -21594,7 +21651,7 @@
       <c r="V199" s="113"/>
       <c r="W199" s="113"/>
     </row>
-    <row r="200" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="113"/>
       <c r="B200" s="113"/>
       <c r="C200" s="113"/>
@@ -21619,7 +21676,7 @@
       <c r="V200" s="113"/>
       <c r="W200" s="113"/>
     </row>
-    <row r="201" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="113"/>
       <c r="B201" s="113"/>
       <c r="C201" s="113"/>
@@ -21644,7 +21701,7 @@
       <c r="V201" s="113"/>
       <c r="W201" s="113"/>
     </row>
-    <row r="202" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="113"/>
       <c r="B202" s="113"/>
       <c r="C202" s="113"/>
@@ -21669,7 +21726,7 @@
       <c r="V202" s="113"/>
       <c r="W202" s="113"/>
     </row>
-    <row r="203" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="113"/>
       <c r="B203" s="113"/>
       <c r="C203" s="113"/>
@@ -21694,7 +21751,7 @@
       <c r="V203" s="113"/>
       <c r="W203" s="113"/>
     </row>
-    <row r="204" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="113"/>
       <c r="B204" s="113"/>
       <c r="C204" s="113"/>
@@ -21719,7 +21776,7 @@
       <c r="V204" s="113"/>
       <c r="W204" s="113"/>
     </row>
-    <row r="205" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="113"/>
       <c r="B205" s="113"/>
       <c r="C205" s="113"/>
@@ -21744,7 +21801,7 @@
       <c r="V205" s="113"/>
       <c r="W205" s="113"/>
     </row>
-    <row r="206" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="113"/>
       <c r="B206" s="113"/>
       <c r="C206" s="113"/>
@@ -21769,7 +21826,7 @@
       <c r="V206" s="113"/>
       <c r="W206" s="113"/>
     </row>
-    <row r="207" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="113"/>
       <c r="B207" s="113"/>
       <c r="C207" s="113"/>
@@ -21794,7 +21851,7 @@
       <c r="V207" s="113"/>
       <c r="W207" s="113"/>
     </row>
-    <row r="208" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="113"/>
       <c r="B208" s="113"/>
       <c r="C208" s="113"/>
@@ -21819,7 +21876,7 @@
       <c r="V208" s="113"/>
       <c r="W208" s="113"/>
     </row>
-    <row r="209" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="113"/>
       <c r="B209" s="113"/>
       <c r="C209" s="113"/>
@@ -21844,7 +21901,7 @@
       <c r="V209" s="113"/>
       <c r="W209" s="113"/>
     </row>
-    <row r="210" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="113"/>
       <c r="B210" s="113"/>
       <c r="C210" s="113"/>
@@ -21869,7 +21926,7 @@
       <c r="V210" s="113"/>
       <c r="W210" s="113"/>
     </row>
-    <row r="211" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="113"/>
       <c r="B211" s="113"/>
       <c r="C211" s="113"/>
@@ -21894,7 +21951,7 @@
       <c r="V211" s="113"/>
       <c r="W211" s="113"/>
     </row>
-    <row r="212" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="113"/>
       <c r="B212" s="113"/>
       <c r="C212" s="113"/>
@@ -21919,7 +21976,7 @@
       <c r="V212" s="113"/>
       <c r="W212" s="113"/>
     </row>
-    <row r="213" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="113"/>
       <c r="B213" s="113"/>
       <c r="C213" s="113"/>
@@ -21944,7 +22001,7 @@
       <c r="V213" s="113"/>
       <c r="W213" s="113"/>
     </row>
-    <row r="214" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="113"/>
       <c r="B214" s="113"/>
       <c r="C214" s="113"/>
@@ -21969,7 +22026,7 @@
       <c r="V214" s="113"/>
       <c r="W214" s="113"/>
     </row>
-    <row r="215" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="113"/>
       <c r="B215" s="113"/>
       <c r="C215" s="113"/>
@@ -21994,7 +22051,7 @@
       <c r="V215" s="113"/>
       <c r="W215" s="113"/>
     </row>
-    <row r="216" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="113"/>
       <c r="B216" s="113"/>
       <c r="C216" s="113"/>
@@ -22019,7 +22076,7 @@
       <c r="V216" s="113"/>
       <c r="W216" s="113"/>
     </row>
-    <row r="217" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="113"/>
       <c r="B217" s="113"/>
       <c r="C217" s="113"/>
@@ -22044,7 +22101,7 @@
       <c r="V217" s="113"/>
       <c r="W217" s="113"/>
     </row>
-    <row r="218" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="113"/>
       <c r="B218" s="113"/>
       <c r="C218" s="113"/>
@@ -22069,7 +22126,7 @@
       <c r="V218" s="113"/>
       <c r="W218" s="113"/>
     </row>
-    <row r="219" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="113"/>
       <c r="B219" s="113"/>
       <c r="C219" s="113"/>
@@ -22094,7 +22151,7 @@
       <c r="V219" s="113"/>
       <c r="W219" s="113"/>
     </row>
-    <row r="220" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="113"/>
       <c r="B220" s="113"/>
       <c r="C220" s="113"/>
@@ -22119,7 +22176,7 @@
       <c r="V220" s="113"/>
       <c r="W220" s="113"/>
     </row>
-    <row r="221" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="113"/>
       <c r="B221" s="113"/>
       <c r="C221" s="113"/>
@@ -22144,7 +22201,7 @@
       <c r="V221" s="113"/>
       <c r="W221" s="113"/>
     </row>
-    <row r="222" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="113"/>
       <c r="B222" s="113"/>
       <c r="C222" s="113"/>
@@ -22169,7 +22226,7 @@
       <c r="V222" s="113"/>
       <c r="W222" s="113"/>
     </row>
-    <row r="223" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="113"/>
       <c r="B223" s="113"/>
       <c r="C223" s="113"/>
@@ -22194,7 +22251,7 @@
       <c r="V223" s="113"/>
       <c r="W223" s="113"/>
     </row>
-    <row r="224" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="113"/>
       <c r="B224" s="113"/>
       <c r="C224" s="113"/>
@@ -22219,7 +22276,7 @@
       <c r="V224" s="113"/>
       <c r="W224" s="113"/>
     </row>
-    <row r="225" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="113"/>
       <c r="B225" s="113"/>
       <c r="C225" s="113"/>
@@ -22244,7 +22301,7 @@
       <c r="V225" s="113"/>
       <c r="W225" s="113"/>
     </row>
-    <row r="226" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="113"/>
       <c r="B226" s="113"/>
       <c r="C226" s="113"/>
@@ -22269,7 +22326,7 @@
       <c r="V226" s="113"/>
       <c r="W226" s="113"/>
     </row>
-    <row r="227" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="113"/>
       <c r="B227" s="113"/>
       <c r="C227" s="113"/>
@@ -22294,7 +22351,7 @@
       <c r="V227" s="113"/>
       <c r="W227" s="113"/>
     </row>
-    <row r="228" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="113"/>
       <c r="B228" s="113"/>
       <c r="C228" s="113"/>
@@ -22319,7 +22376,7 @@
       <c r="V228" s="113"/>
       <c r="W228" s="113"/>
     </row>
-    <row r="229" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="113"/>
       <c r="B229" s="113"/>
       <c r="C229" s="113"/>
@@ -22344,7 +22401,7 @@
       <c r="V229" s="113"/>
       <c r="W229" s="113"/>
     </row>
-    <row r="230" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="113"/>
       <c r="B230" s="113"/>
       <c r="C230" s="113"/>
@@ -22369,7 +22426,7 @@
       <c r="V230" s="113"/>
       <c r="W230" s="113"/>
     </row>
-    <row r="231" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="113"/>
       <c r="B231" s="113"/>
       <c r="C231" s="113"/>
@@ -22394,7 +22451,7 @@
       <c r="V231" s="113"/>
       <c r="W231" s="113"/>
     </row>
-    <row r="232" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="113"/>
       <c r="B232" s="113"/>
       <c r="C232" s="113"/>
@@ -22419,7 +22476,7 @@
       <c r="V232" s="113"/>
       <c r="W232" s="113"/>
     </row>
-    <row r="233" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="113"/>
       <c r="B233" s="113"/>
       <c r="C233" s="113"/>
@@ -22444,7 +22501,7 @@
       <c r="V233" s="113"/>
       <c r="W233" s="113"/>
     </row>
-    <row r="234" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="113"/>
       <c r="B234" s="113"/>
       <c r="C234" s="113"/>
@@ -22469,7 +22526,7 @@
       <c r="V234" s="113"/>
       <c r="W234" s="113"/>
     </row>
-    <row r="235" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="113"/>
       <c r="B235" s="113"/>
       <c r="C235" s="113"/>
@@ -22494,7 +22551,7 @@
       <c r="V235" s="113"/>
       <c r="W235" s="113"/>
     </row>
-    <row r="236" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="113"/>
       <c r="B236" s="113"/>
       <c r="C236" s="113"/>
@@ -22519,7 +22576,7 @@
       <c r="V236" s="113"/>
       <c r="W236" s="113"/>
     </row>
-    <row r="237" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="113"/>
       <c r="B237" s="113"/>
       <c r="C237" s="113"/>
@@ -22544,7 +22601,7 @@
       <c r="V237" s="113"/>
       <c r="W237" s="113"/>
     </row>
-    <row r="238" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="113"/>
       <c r="B238" s="113"/>
       <c r="C238" s="113"/>
@@ -22569,7 +22626,7 @@
       <c r="V238" s="113"/>
       <c r="W238" s="113"/>
     </row>
-    <row r="239" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="113"/>
       <c r="B239" s="113"/>
       <c r="C239" s="113"/>
@@ -22594,7 +22651,7 @@
       <c r="V239" s="113"/>
       <c r="W239" s="113"/>
     </row>
-    <row r="240" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="113"/>
       <c r="B240" s="113"/>
       <c r="C240" s="113"/>
@@ -22619,7 +22676,7 @@
       <c r="V240" s="113"/>
       <c r="W240" s="113"/>
     </row>
-    <row r="241" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="113"/>
       <c r="B241" s="113"/>
       <c r="C241" s="113"/>
@@ -22644,7 +22701,7 @@
       <c r="V241" s="113"/>
       <c r="W241" s="113"/>
     </row>
-    <row r="242" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="113"/>
       <c r="B242" s="113"/>
       <c r="C242" s="113"/>
@@ -22669,7 +22726,7 @@
       <c r="V242" s="113"/>
       <c r="W242" s="113"/>
     </row>
-    <row r="243" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="113"/>
       <c r="B243" s="113"/>
       <c r="C243" s="113"/>
@@ -22694,7 +22751,7 @@
       <c r="V243" s="113"/>
       <c r="W243" s="113"/>
     </row>
-    <row r="244" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="113"/>
       <c r="B244" s="113"/>
       <c r="C244" s="113"/>
@@ -22719,7 +22776,7 @@
       <c r="V244" s="113"/>
       <c r="W244" s="113"/>
     </row>
-    <row r="245" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="113"/>
       <c r="B245" s="113"/>
       <c r="C245" s="113"/>
@@ -22744,7 +22801,7 @@
       <c r="V245" s="113"/>
       <c r="W245" s="113"/>
     </row>
-    <row r="246" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="113"/>
       <c r="B246" s="113"/>
       <c r="C246" s="113"/>
@@ -22769,7 +22826,7 @@
       <c r="V246" s="113"/>
       <c r="W246" s="113"/>
     </row>
-    <row r="247" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="113"/>
       <c r="B247" s="113"/>
       <c r="C247" s="113"/>
@@ -22794,7 +22851,7 @@
       <c r="V247" s="113"/>
       <c r="W247" s="113"/>
     </row>
-    <row r="248" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="113"/>
       <c r="B248" s="113"/>
       <c r="C248" s="113"/>
@@ -22819,7 +22876,7 @@
       <c r="V248" s="113"/>
       <c r="W248" s="113"/>
     </row>
-    <row r="249" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="113"/>
       <c r="B249" s="113"/>
       <c r="C249" s="113"/>
@@ -22844,7 +22901,7 @@
       <c r="V249" s="113"/>
       <c r="W249" s="113"/>
     </row>
-    <row r="250" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="113"/>
       <c r="B250" s="113"/>
       <c r="C250" s="113"/>
@@ -22869,7 +22926,7 @@
       <c r="V250" s="113"/>
       <c r="W250" s="113"/>
     </row>
-    <row r="251" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="113"/>
       <c r="B251" s="113"/>
       <c r="C251" s="113"/>
@@ -22894,7 +22951,7 @@
       <c r="V251" s="113"/>
       <c r="W251" s="113"/>
     </row>
-    <row r="252" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="113"/>
       <c r="B252" s="113"/>
       <c r="C252" s="113"/>
@@ -22919,7 +22976,7 @@
       <c r="V252" s="113"/>
       <c r="W252" s="113"/>
     </row>
-    <row r="253" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="113"/>
       <c r="B253" s="113"/>
       <c r="C253" s="113"/>
@@ -22944,7 +23001,7 @@
       <c r="V253" s="113"/>
       <c r="W253" s="113"/>
     </row>
-    <row r="254" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="113"/>
       <c r="B254" s="113"/>
       <c r="C254" s="113"/>
@@ -22969,7 +23026,7 @@
       <c r="V254" s="113"/>
       <c r="W254" s="113"/>
     </row>
-    <row r="255" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="113"/>
       <c r="B255" s="113"/>
       <c r="C255" s="113"/>
@@ -22994,7 +23051,7 @@
       <c r="V255" s="113"/>
       <c r="W255" s="113"/>
     </row>
-    <row r="256" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="113"/>
       <c r="B256" s="113"/>
       <c r="C256" s="113"/>
@@ -23019,7 +23076,7 @@
       <c r="V256" s="113"/>
       <c r="W256" s="113"/>
     </row>
-    <row r="257" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="113"/>
       <c r="B257" s="113"/>
       <c r="C257" s="113"/>
@@ -23044,7 +23101,7 @@
       <c r="V257" s="113"/>
       <c r="W257" s="113"/>
     </row>
-    <row r="258" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="113"/>
       <c r="B258" s="113"/>
       <c r="C258" s="113"/>
@@ -23069,7 +23126,7 @@
       <c r="V258" s="113"/>
       <c r="W258" s="113"/>
     </row>
-    <row r="259" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="113"/>
       <c r="B259" s="113"/>
       <c r="C259" s="113"/>
@@ -23094,7 +23151,7 @@
       <c r="V259" s="113"/>
       <c r="W259" s="113"/>
     </row>
-    <row r="260" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="113"/>
       <c r="B260" s="113"/>
       <c r="C260" s="113"/>
@@ -23119,7 +23176,7 @@
       <c r="V260" s="113"/>
       <c r="W260" s="113"/>
     </row>
-    <row r="261" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="113"/>
       <c r="B261" s="113"/>
       <c r="C261" s="113"/>
@@ -23144,7 +23201,7 @@
       <c r="V261" s="113"/>
       <c r="W261" s="113"/>
     </row>
-    <row r="262" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="113"/>
       <c r="B262" s="113"/>
       <c r="C262" s="113"/>
@@ -23169,7 +23226,7 @@
       <c r="V262" s="113"/>
       <c r="W262" s="113"/>
     </row>
-    <row r="263" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="113"/>
       <c r="B263" s="113"/>
       <c r="C263" s="113"/>
@@ -23194,7 +23251,7 @@
       <c r="V263" s="113"/>
       <c r="W263" s="113"/>
     </row>
-    <row r="264" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="113"/>
       <c r="B264" s="113"/>
       <c r="C264" s="113"/>
@@ -23219,7 +23276,7 @@
       <c r="V264" s="113"/>
       <c r="W264" s="113"/>
     </row>
-    <row r="265" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="113"/>
       <c r="B265" s="113"/>
       <c r="C265" s="113"/>
@@ -23244,7 +23301,7 @@
       <c r="V265" s="113"/>
       <c r="W265" s="113"/>
     </row>
-    <row r="266" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="113"/>
       <c r="B266" s="113"/>
       <c r="C266" s="113"/>
@@ -23269,7 +23326,7 @@
       <c r="V266" s="113"/>
       <c r="W266" s="113"/>
     </row>
-    <row r="267" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="113"/>
       <c r="B267" s="113"/>
       <c r="C267" s="113"/>
@@ -23294,7 +23351,7 @@
       <c r="V267" s="113"/>
       <c r="W267" s="113"/>
     </row>
-    <row r="268" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="113"/>
       <c r="B268" s="113"/>
       <c r="C268" s="113"/>
@@ -23319,7 +23376,7 @@
       <c r="V268" s="113"/>
       <c r="W268" s="113"/>
     </row>
-    <row r="269" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="113"/>
       <c r="B269" s="113"/>
       <c r="C269" s="113"/>
@@ -23344,7 +23401,7 @@
       <c r="V269" s="113"/>
       <c r="W269" s="113"/>
     </row>
-    <row r="270" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="113"/>
       <c r="B270" s="113"/>
       <c r="C270" s="113"/>
@@ -23369,7 +23426,7 @@
       <c r="V270" s="113"/>
       <c r="W270" s="113"/>
     </row>
-    <row r="271" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="113"/>
       <c r="B271" s="113"/>
       <c r="C271" s="113"/>
@@ -23394,7 +23451,7 @@
       <c r="V271" s="113"/>
       <c r="W271" s="113"/>
     </row>
-    <row r="272" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="113"/>
       <c r="B272" s="113"/>
       <c r="C272" s="113"/>
@@ -23419,7 +23476,7 @@
       <c r="V272" s="113"/>
       <c r="W272" s="113"/>
     </row>
-    <row r="273" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="113"/>
       <c r="B273" s="113"/>
       <c r="C273" s="113"/>
@@ -23444,7 +23501,7 @@
       <c r="V273" s="113"/>
       <c r="W273" s="113"/>
     </row>
-    <row r="274" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="113"/>
       <c r="B274" s="113"/>
       <c r="C274" s="113"/>
@@ -23469,7 +23526,7 @@
       <c r="V274" s="113"/>
       <c r="W274" s="113"/>
     </row>
-    <row r="275" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="113"/>
       <c r="B275" s="113"/>
       <c r="C275" s="113"/>
@@ -23494,7 +23551,7 @@
       <c r="V275" s="113"/>
       <c r="W275" s="113"/>
     </row>
-    <row r="276" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="113"/>
       <c r="B276" s="113"/>
       <c r="C276" s="113"/>
@@ -23519,7 +23576,7 @@
       <c r="V276" s="113"/>
       <c r="W276" s="113"/>
     </row>
-    <row r="277" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="113"/>
       <c r="B277" s="113"/>
       <c r="C277" s="113"/>
@@ -23544,7 +23601,7 @@
       <c r="V277" s="113"/>
       <c r="W277" s="113"/>
     </row>
-    <row r="278" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="113"/>
       <c r="B278" s="113"/>
       <c r="C278" s="113"/>
@@ -23569,7 +23626,7 @@
       <c r="V278" s="113"/>
       <c r="W278" s="113"/>
     </row>
-    <row r="279" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="113"/>
       <c r="B279" s="113"/>
       <c r="C279" s="113"/>
@@ -23594,7 +23651,7 @@
       <c r="V279" s="113"/>
       <c r="W279" s="113"/>
     </row>
-    <row r="280" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="113"/>
       <c r="B280" s="113"/>
       <c r="C280" s="113"/>
@@ -23619,7 +23676,7 @@
       <c r="V280" s="113"/>
       <c r="W280" s="113"/>
     </row>
-    <row r="281" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="113"/>
       <c r="B281" s="113"/>
       <c r="C281" s="113"/>
@@ -23644,7 +23701,7 @@
       <c r="V281" s="113"/>
       <c r="W281" s="113"/>
     </row>
-    <row r="282" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="113"/>
       <c r="B282" s="113"/>
       <c r="C282" s="113"/>
@@ -23669,7 +23726,7 @@
       <c r="V282" s="113"/>
       <c r="W282" s="113"/>
     </row>
-    <row r="283" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="113"/>
       <c r="B283" s="113"/>
       <c r="C283" s="113"/>
@@ -23694,7 +23751,7 @@
       <c r="V283" s="113"/>
       <c r="W283" s="113"/>
     </row>
-    <row r="284" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="113"/>
       <c r="B284" s="113"/>
       <c r="C284" s="113"/>
@@ -23719,7 +23776,7 @@
       <c r="V284" s="113"/>
       <c r="W284" s="113"/>
     </row>
-    <row r="285" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="113"/>
       <c r="B285" s="113"/>
       <c r="C285" s="113"/>
@@ -23744,7 +23801,7 @@
       <c r="V285" s="113"/>
       <c r="W285" s="113"/>
     </row>
-    <row r="286" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="113"/>
       <c r="B286" s="113"/>
       <c r="C286" s="113"/>
@@ -23769,7 +23826,7 @@
       <c r="V286" s="113"/>
       <c r="W286" s="113"/>
     </row>
-    <row r="287" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="113"/>
       <c r="B287" s="113"/>
       <c r="C287" s="113"/>
@@ -23794,7 +23851,7 @@
       <c r="V287" s="113"/>
       <c r="W287" s="113"/>
     </row>
-    <row r="288" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="113"/>
       <c r="B288" s="113"/>
       <c r="C288" s="113"/>
@@ -23819,7 +23876,7 @@
       <c r="V288" s="113"/>
       <c r="W288" s="113"/>
     </row>
-    <row r="289" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="113"/>
       <c r="B289" s="113"/>
       <c r="C289" s="113"/>
@@ -23844,7 +23901,7 @@
       <c r="V289" s="113"/>
       <c r="W289" s="113"/>
     </row>
-    <row r="290" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="113"/>
       <c r="B290" s="113"/>
       <c r="C290" s="113"/>
@@ -23869,7 +23926,7 @@
       <c r="V290" s="113"/>
       <c r="W290" s="113"/>
     </row>
-    <row r="291" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="113"/>
       <c r="B291" s="113"/>
       <c r="C291" s="113"/>
@@ -23894,7 +23951,7 @@
       <c r="V291" s="113"/>
       <c r="W291" s="113"/>
     </row>
-    <row r="292" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="113"/>
       <c r="B292" s="113"/>
       <c r="C292" s="113"/>
@@ -23919,7 +23976,7 @@
       <c r="V292" s="113"/>
       <c r="W292" s="113"/>
     </row>
-    <row r="293" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="113"/>
       <c r="B293" s="113"/>
       <c r="C293" s="113"/>
@@ -23944,782 +24001,1038 @@
       <c r="V293" s="113"/>
       <c r="W293" s="113"/>
     </row>
-    <row r="294" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="113"/>
+      <c r="B294" s="113"/>
+      <c r="C294" s="113"/>
+      <c r="D294" s="113"/>
+      <c r="E294" s="113"/>
+      <c r="F294" s="113"/>
+      <c r="G294" s="113"/>
+      <c r="H294" s="113"/>
+      <c r="I294" s="113"/>
+      <c r="J294" s="113"/>
+      <c r="K294" s="113"/>
+      <c r="L294" s="113"/>
+      <c r="M294" s="113"/>
+      <c r="N294" s="113"/>
+      <c r="O294" s="113"/>
+      <c r="P294" s="113"/>
+      <c r="Q294" s="113"/>
+      <c r="R294" s="113"/>
+      <c r="S294" s="113"/>
+      <c r="T294" s="113"/>
+      <c r="U294" s="113"/>
+      <c r="V294" s="113"/>
+      <c r="W294" s="113"/>
+    </row>
+    <row r="295" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="113"/>
+      <c r="B295" s="113"/>
+      <c r="C295" s="113"/>
+      <c r="D295" s="113"/>
+      <c r="E295" s="113"/>
+      <c r="F295" s="113"/>
+      <c r="G295" s="113"/>
+      <c r="H295" s="113"/>
+      <c r="I295" s="113"/>
+      <c r="J295" s="113"/>
+      <c r="K295" s="113"/>
+      <c r="L295" s="113"/>
+      <c r="M295" s="113"/>
+      <c r="N295" s="113"/>
+      <c r="O295" s="113"/>
+      <c r="P295" s="113"/>
+      <c r="Q295" s="113"/>
+      <c r="R295" s="113"/>
+      <c r="S295" s="113"/>
+      <c r="T295" s="113"/>
+      <c r="U295" s="113"/>
+      <c r="V295" s="113"/>
+      <c r="W295" s="113"/>
+    </row>
+    <row r="296" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="113"/>
+      <c r="B296" s="113"/>
+      <c r="C296" s="113"/>
+      <c r="D296" s="113"/>
+      <c r="E296" s="113"/>
+      <c r="F296" s="113"/>
+      <c r="G296" s="113"/>
+      <c r="H296" s="113"/>
+      <c r="I296" s="113"/>
+      <c r="J296" s="113"/>
+      <c r="K296" s="113"/>
+      <c r="L296" s="113"/>
+      <c r="M296" s="113"/>
+      <c r="N296" s="113"/>
+      <c r="O296" s="113"/>
+      <c r="P296" s="113"/>
+      <c r="Q296" s="113"/>
+      <c r="R296" s="113"/>
+      <c r="S296" s="113"/>
+      <c r="T296" s="113"/>
+      <c r="U296" s="113"/>
+      <c r="V296" s="113"/>
+      <c r="W296" s="113"/>
+    </row>
+    <row r="297" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="113"/>
+      <c r="B297" s="113"/>
+      <c r="C297" s="113"/>
+      <c r="D297" s="113"/>
+      <c r="E297" s="113"/>
+      <c r="F297" s="113"/>
+      <c r="G297" s="113"/>
+      <c r="H297" s="113"/>
+      <c r="I297" s="113"/>
+      <c r="J297" s="113"/>
+      <c r="K297" s="113"/>
+      <c r="L297" s="113"/>
+      <c r="M297" s="113"/>
+      <c r="N297" s="113"/>
+      <c r="O297" s="113"/>
+      <c r="P297" s="113"/>
+      <c r="Q297" s="113"/>
+      <c r="R297" s="113"/>
+      <c r="S297" s="113"/>
+      <c r="T297" s="113"/>
+      <c r="U297" s="113"/>
+      <c r="V297" s="113"/>
+      <c r="W297" s="113"/>
+    </row>
+    <row r="298" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="113"/>
+      <c r="B298" s="113"/>
+      <c r="C298" s="113"/>
+      <c r="D298" s="113"/>
+      <c r="E298" s="113"/>
+      <c r="F298" s="113"/>
+      <c r="G298" s="113"/>
+      <c r="H298" s="113"/>
+      <c r="I298" s="113"/>
+      <c r="J298" s="113"/>
+      <c r="K298" s="113"/>
+      <c r="L298" s="113"/>
+      <c r="M298" s="113"/>
+      <c r="N298" s="113"/>
+      <c r="O298" s="113"/>
+      <c r="P298" s="113"/>
+      <c r="Q298" s="113"/>
+      <c r="R298" s="113"/>
+      <c r="S298" s="113"/>
+      <c r="T298" s="113"/>
+      <c r="U298" s="113"/>
+      <c r="V298" s="113"/>
+      <c r="W298" s="113"/>
+    </row>
+    <row r="299" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="113"/>
+      <c r="B299" s="113"/>
+      <c r="C299" s="113"/>
+      <c r="D299" s="113"/>
+      <c r="E299" s="113"/>
+      <c r="F299" s="113"/>
+      <c r="G299" s="113"/>
+      <c r="H299" s="113"/>
+      <c r="I299" s="113"/>
+      <c r="J299" s="113"/>
+      <c r="K299" s="113"/>
+      <c r="L299" s="113"/>
+      <c r="M299" s="113"/>
+      <c r="N299" s="113"/>
+      <c r="O299" s="113"/>
+      <c r="P299" s="113"/>
+      <c r="Q299" s="113"/>
+      <c r="R299" s="113"/>
+      <c r="S299" s="113"/>
+      <c r="T299" s="113"/>
+      <c r="U299" s="113"/>
+      <c r="V299" s="113"/>
+      <c r="W299" s="113"/>
+    </row>
+    <row r="300" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="113"/>
+      <c r="B300" s="113"/>
+      <c r="C300" s="113"/>
+      <c r="D300" s="113"/>
+      <c r="E300" s="113"/>
+      <c r="F300" s="113"/>
+      <c r="G300" s="113"/>
+      <c r="H300" s="113"/>
+      <c r="I300" s="113"/>
+      <c r="J300" s="113"/>
+      <c r="K300" s="113"/>
+      <c r="L300" s="113"/>
+      <c r="M300" s="113"/>
+      <c r="N300" s="113"/>
+      <c r="O300" s="113"/>
+      <c r="P300" s="113"/>
+      <c r="Q300" s="113"/>
+      <c r="R300" s="113"/>
+      <c r="S300" s="113"/>
+      <c r="T300" s="113"/>
+      <c r="U300" s="113"/>
+      <c r="V300" s="113"/>
+      <c r="W300" s="113"/>
+    </row>
+    <row r="301" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="113"/>
+      <c r="B301" s="113"/>
+      <c r="C301" s="113"/>
+      <c r="D301" s="113"/>
+      <c r="E301" s="113"/>
+      <c r="F301" s="113"/>
+      <c r="G301" s="113"/>
+      <c r="H301" s="113"/>
+      <c r="I301" s="113"/>
+      <c r="J301" s="113"/>
+      <c r="K301" s="113"/>
+      <c r="L301" s="113"/>
+      <c r="M301" s="113"/>
+      <c r="N301" s="113"/>
+      <c r="O301" s="113"/>
+      <c r="P301" s="113"/>
+      <c r="Q301" s="113"/>
+      <c r="R301" s="113"/>
+      <c r="S301" s="113"/>
+      <c r="T301" s="113"/>
+      <c r="U301" s="113"/>
+      <c r="V301" s="113"/>
+      <c r="W301" s="113"/>
+    </row>
+    <row r="302" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="113"/>
+      <c r="B302" s="113"/>
+      <c r="C302" s="113"/>
+      <c r="D302" s="113"/>
+      <c r="E302" s="113"/>
+      <c r="F302" s="113"/>
+      <c r="G302" s="113"/>
+      <c r="H302" s="113"/>
+      <c r="I302" s="113"/>
+      <c r="J302" s="113"/>
+      <c r="K302" s="113"/>
+      <c r="L302" s="113"/>
+      <c r="M302" s="113"/>
+      <c r="N302" s="113"/>
+      <c r="O302" s="113"/>
+      <c r="P302" s="113"/>
+      <c r="Q302" s="113"/>
+      <c r="R302" s="113"/>
+      <c r="S302" s="113"/>
+      <c r="T302" s="113"/>
+      <c r="U302" s="113"/>
+      <c r="V302" s="113"/>
+      <c r="W302" s="113"/>
+    </row>
+    <row r="303" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="113"/>
+      <c r="B303" s="113"/>
+      <c r="C303" s="113"/>
+      <c r="D303" s="113"/>
+      <c r="E303" s="113"/>
+      <c r="F303" s="113"/>
+      <c r="G303" s="113"/>
+      <c r="H303" s="113"/>
+      <c r="I303" s="113"/>
+      <c r="J303" s="113"/>
+      <c r="K303" s="113"/>
+      <c r="L303" s="113"/>
+      <c r="M303" s="113"/>
+      <c r="N303" s="113"/>
+      <c r="O303" s="113"/>
+      <c r="P303" s="113"/>
+      <c r="Q303" s="113"/>
+      <c r="R303" s="113"/>
+      <c r="S303" s="113"/>
+      <c r="T303" s="113"/>
+      <c r="U303" s="113"/>
+      <c r="V303" s="113"/>
+      <c r="W303" s="113"/>
+    </row>
+    <row r="304" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1013" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1014" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1015" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1016" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1017" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1018" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1019" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1020" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1021" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1022" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1023" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1024" spans="1:26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1025" spans="1:26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1026" spans="1:26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1027" spans="1:26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1028" spans="1:26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1029" spans="1:26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1030" spans="1:26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1031" spans="1:26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B108:F108"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>
-    <hyperlink ref="C21" r:id="rId2"/>
-    <hyperlink ref="C34" r:id="rId3"/>
+    <hyperlink ref="C44" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -24745,12 +25058,12 @@
         <v>25</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="154" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B2" s="218"/>
       <c r="C2" s="194"/>
@@ -24800,7 +25113,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="154" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B7" s="155"/>
       <c r="C7" s="156"/>
@@ -24810,7 +25123,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="154" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B8" s="158"/>
       <c r="C8" s="156"/>
@@ -24994,10 +25307,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="173" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B1" s="174" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C1" s="175"/>
       <c r="D1" s="175"/>
@@ -25051,7 +25364,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="219" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C6" s="197"/>
       <c r="D6" s="197"/>
@@ -25063,7 +25376,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="219" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C7" s="197"/>
       <c r="D7" s="197"/>
@@ -25075,7 +25388,7 @@
         <v>417</v>
       </c>
       <c r="B8" s="177" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C8" s="178"/>
       <c r="D8" s="178"/>
@@ -25137,7 +25450,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="183" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E12" s="184"/>
       <c r="F12" s="184"/>
@@ -25189,11 +25502,11 @@
         <v>6</v>
       </c>
       <c r="B16" s="183" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C16" s="184"/>
       <c r="D16" s="183" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E16" s="184"/>
       <c r="F16" s="184"/>
@@ -25203,11 +25516,11 @@
         <v>7</v>
       </c>
       <c r="B17" s="182" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C17" s="184"/>
       <c r="D17" s="183" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E17" s="184"/>
       <c r="F17" s="184"/>
@@ -25217,11 +25530,11 @@
         <v>8</v>
       </c>
       <c r="B18" s="183" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C18" s="184"/>
       <c r="D18" s="183" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E18" s="184"/>
       <c r="F18" s="184"/>
@@ -25231,10 +25544,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="188" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C19" s="177" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D19" s="189"/>
       <c r="E19" s="178"/>
@@ -25245,11 +25558,11 @@
         <v>10</v>
       </c>
       <c r="B20" s="191" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C20" s="189"/>
       <c r="D20" s="191" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E20" s="189"/>
       <c r="F20" s="189"/>
@@ -25259,11 +25572,11 @@
         <v>11</v>
       </c>
       <c r="B21" s="188" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C21" s="178"/>
       <c r="D21" s="188" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E21" s="178"/>
       <c r="F21" s="178"/>
@@ -25277,7 +25590,7 @@
       </c>
       <c r="C22" s="178"/>
       <c r="D22" s="188" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E22" s="178"/>
       <c r="F22" s="178"/>

--- a/vtiger/src/test/resources/VtigerTestData.xlsx
+++ b/vtiger/src/test/resources/VtigerTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="6015" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="3630" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Abhishek_TC1001" sheetId="1" r:id="rId1"/>
@@ -3662,6 +3662,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3673,7 +3676,16 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3681,38 +3693,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3720,9 +3723,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3964,102 +3964,102 @@
       <c r="A1" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="211" t="s">
         <v>631</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="202"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="208"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="209" t="s">
         <v>605</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="204"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="205"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="209" t="s">
         <v>607</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="204"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="205"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="204"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="205"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="209" t="s">
         <v>606</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="204"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="205"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="204"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="205"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="209" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="204"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="205"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="203"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="204"/>
+      <c r="B8" s="209"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="205"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="205"/>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="207"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="203"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -4387,91 +4387,91 @@
       <c r="A35" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="200"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
-      <c r="E35" s="201"/>
-      <c r="F35" s="202"/>
+      <c r="B35" s="211"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="207"/>
+      <c r="F35" s="208"/>
     </row>
     <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="203"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="204"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="205"/>
     </row>
     <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="203"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="204"/>
+      <c r="B37" s="209"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="205"/>
     </row>
     <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="203"/>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="204"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="205"/>
     </row>
     <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="203"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="204"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="205"/>
     </row>
     <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="203"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="204"/>
+      <c r="B40" s="209"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="205"/>
     </row>
     <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="203"/>
-      <c r="C41" s="194"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="204"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="205"/>
     </row>
     <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="203"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="204"/>
+      <c r="B42" s="209"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="205"/>
     </row>
     <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="205"/>
-      <c r="C43" s="206"/>
-      <c r="D43" s="206"/>
-      <c r="E43" s="206"/>
-      <c r="F43" s="207"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="202"/>
+      <c r="E43" s="202"/>
+      <c r="F43" s="203"/>
     </row>
     <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -5123,105 +5123,105 @@
       <c r="A89" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B89" s="200" t="s">
+      <c r="B89" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="C89" s="201"/>
-      <c r="D89" s="201"/>
-      <c r="E89" s="201"/>
-      <c r="F89" s="202"/>
+      <c r="C89" s="207"/>
+      <c r="D89" s="207"/>
+      <c r="E89" s="207"/>
+      <c r="F89" s="208"/>
     </row>
     <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="208"/>
-      <c r="C90" s="194"/>
-      <c r="D90" s="194"/>
-      <c r="E90" s="194"/>
-      <c r="F90" s="204"/>
+      <c r="B90" s="204"/>
+      <c r="C90" s="195"/>
+      <c r="D90" s="195"/>
+      <c r="E90" s="195"/>
+      <c r="F90" s="205"/>
     </row>
     <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="208" t="s">
+      <c r="B91" s="204" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="194"/>
-      <c r="D91" s="194"/>
-      <c r="E91" s="194"/>
-      <c r="F91" s="204"/>
+      <c r="C91" s="195"/>
+      <c r="D91" s="195"/>
+      <c r="E91" s="195"/>
+      <c r="F91" s="205"/>
     </row>
     <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="208" t="s">
+      <c r="B92" s="204" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="194"/>
-      <c r="D92" s="194"/>
-      <c r="E92" s="194"/>
-      <c r="F92" s="204"/>
+      <c r="C92" s="195"/>
+      <c r="D92" s="195"/>
+      <c r="E92" s="195"/>
+      <c r="F92" s="205"/>
     </row>
     <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="208"/>
-      <c r="C93" s="194"/>
-      <c r="D93" s="194"/>
-      <c r="E93" s="194"/>
-      <c r="F93" s="204"/>
+      <c r="B93" s="204"/>
+      <c r="C93" s="195"/>
+      <c r="D93" s="195"/>
+      <c r="E93" s="195"/>
+      <c r="F93" s="205"/>
     </row>
     <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="208" t="s">
+      <c r="B94" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="194"/>
-      <c r="D94" s="194"/>
-      <c r="E94" s="194"/>
-      <c r="F94" s="204"/>
+      <c r="C94" s="195"/>
+      <c r="D94" s="195"/>
+      <c r="E94" s="195"/>
+      <c r="F94" s="205"/>
     </row>
     <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="208" t="s">
+      <c r="B95" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="194"/>
-      <c r="D95" s="194"/>
-      <c r="E95" s="194"/>
-      <c r="F95" s="204"/>
+      <c r="C95" s="195"/>
+      <c r="D95" s="195"/>
+      <c r="E95" s="195"/>
+      <c r="F95" s="205"/>
     </row>
     <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="208" t="s">
+      <c r="B96" s="204" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="194"/>
-      <c r="D96" s="194"/>
-      <c r="E96" s="194"/>
-      <c r="F96" s="204"/>
+      <c r="C96" s="195"/>
+      <c r="D96" s="195"/>
+      <c r="E96" s="195"/>
+      <c r="F96" s="205"/>
     </row>
     <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B97" s="209" t="s">
+      <c r="B97" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="206"/>
-      <c r="D97" s="206"/>
-      <c r="E97" s="206"/>
-      <c r="F97" s="207"/>
+      <c r="C97" s="202"/>
+      <c r="D97" s="202"/>
+      <c r="E97" s="202"/>
+      <c r="F97" s="203"/>
     </row>
     <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
@@ -5431,105 +5431,105 @@
       <c r="A112" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B112" s="210" t="s">
+      <c r="B112" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="201"/>
-      <c r="D112" s="201"/>
-      <c r="E112" s="201"/>
-      <c r="F112" s="202"/>
+      <c r="C112" s="207"/>
+      <c r="D112" s="207"/>
+      <c r="E112" s="207"/>
+      <c r="F112" s="208"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="208"/>
-      <c r="C113" s="194"/>
-      <c r="D113" s="194"/>
-      <c r="E113" s="194"/>
-      <c r="F113" s="204"/>
+      <c r="B113" s="204"/>
+      <c r="C113" s="195"/>
+      <c r="D113" s="195"/>
+      <c r="E113" s="195"/>
+      <c r="F113" s="205"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="208" t="s">
+      <c r="B114" s="204" t="s">
         <v>98</v>
       </c>
-      <c r="C114" s="194"/>
-      <c r="D114" s="194"/>
-      <c r="E114" s="194"/>
-      <c r="F114" s="204"/>
+      <c r="C114" s="195"/>
+      <c r="D114" s="195"/>
+      <c r="E114" s="195"/>
+      <c r="F114" s="205"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B115" s="208" t="s">
+      <c r="B115" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="C115" s="194"/>
-      <c r="D115" s="194"/>
-      <c r="E115" s="194"/>
-      <c r="F115" s="204"/>
+      <c r="C115" s="195"/>
+      <c r="D115" s="195"/>
+      <c r="E115" s="195"/>
+      <c r="F115" s="205"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B116" s="208"/>
-      <c r="C116" s="194"/>
-      <c r="D116" s="194"/>
-      <c r="E116" s="194"/>
-      <c r="F116" s="204"/>
+      <c r="B116" s="204"/>
+      <c r="C116" s="195"/>
+      <c r="D116" s="195"/>
+      <c r="E116" s="195"/>
+      <c r="F116" s="205"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="208" t="s">
+      <c r="B117" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="C117" s="194"/>
-      <c r="D117" s="194"/>
-      <c r="E117" s="194"/>
-      <c r="F117" s="204"/>
+      <c r="C117" s="195"/>
+      <c r="D117" s="195"/>
+      <c r="E117" s="195"/>
+      <c r="F117" s="205"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="208" t="s">
+      <c r="B118" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="C118" s="194"/>
-      <c r="D118" s="194"/>
-      <c r="E118" s="194"/>
-      <c r="F118" s="204"/>
+      <c r="C118" s="195"/>
+      <c r="D118" s="195"/>
+      <c r="E118" s="195"/>
+      <c r="F118" s="205"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="208" t="s">
+      <c r="B119" s="204" t="s">
         <v>102</v>
       </c>
-      <c r="C119" s="194"/>
-      <c r="D119" s="194"/>
-      <c r="E119" s="194"/>
-      <c r="F119" s="204"/>
+      <c r="C119" s="195"/>
+      <c r="D119" s="195"/>
+      <c r="E119" s="195"/>
+      <c r="F119" s="205"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="209" t="s">
+      <c r="B120" s="201" t="s">
         <v>103</v>
       </c>
-      <c r="C120" s="206"/>
-      <c r="D120" s="206"/>
-      <c r="E120" s="206"/>
-      <c r="F120" s="207"/>
+      <c r="C120" s="202"/>
+      <c r="D120" s="202"/>
+      <c r="E120" s="202"/>
+      <c r="F120" s="203"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
@@ -5713,81 +5713,81 @@
       <c r="A134" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B134" s="199" t="s">
+      <c r="B134" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="C134" s="194"/>
-      <c r="D134" s="194"/>
-      <c r="E134" s="194"/>
-      <c r="F134" s="195"/>
+      <c r="C134" s="195"/>
+      <c r="D134" s="195"/>
+      <c r="E134" s="195"/>
+      <c r="F134" s="196"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="193" t="s">
+      <c r="B135" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="C135" s="194"/>
-      <c r="D135" s="194"/>
-      <c r="E135" s="194"/>
-      <c r="F135" s="195"/>
+      <c r="C135" s="195"/>
+      <c r="D135" s="195"/>
+      <c r="E135" s="195"/>
+      <c r="F135" s="196"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B136" s="193" t="s">
+      <c r="B136" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="C136" s="194"/>
-      <c r="D136" s="194"/>
-      <c r="E136" s="194"/>
-      <c r="F136" s="195"/>
+      <c r="C136" s="195"/>
+      <c r="D136" s="195"/>
+      <c r="E136" s="195"/>
+      <c r="F136" s="196"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B137" s="196"/>
-      <c r="C137" s="197"/>
-      <c r="D137" s="197"/>
-      <c r="E137" s="197"/>
-      <c r="F137" s="198"/>
+      <c r="B137" s="197"/>
+      <c r="C137" s="198"/>
+      <c r="D137" s="198"/>
+      <c r="E137" s="198"/>
+      <c r="F137" s="199"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B138" s="196"/>
-      <c r="C138" s="197"/>
-      <c r="D138" s="197"/>
-      <c r="E138" s="197"/>
-      <c r="F138" s="198"/>
+      <c r="B138" s="197"/>
+      <c r="C138" s="198"/>
+      <c r="D138" s="198"/>
+      <c r="E138" s="198"/>
+      <c r="F138" s="199"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B139" s="193" t="s">
+      <c r="B139" s="194" t="s">
         <v>122</v>
       </c>
-      <c r="C139" s="194"/>
-      <c r="D139" s="194"/>
-      <c r="E139" s="194"/>
-      <c r="F139" s="195"/>
+      <c r="C139" s="195"/>
+      <c r="D139" s="195"/>
+      <c r="E139" s="195"/>
+      <c r="F139" s="196"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B140" s="193" t="s">
+      <c r="B140" s="194" t="s">
         <v>123</v>
       </c>
-      <c r="C140" s="194"/>
-      <c r="D140" s="194"/>
-      <c r="E140" s="194"/>
-      <c r="F140" s="195"/>
+      <c r="C140" s="195"/>
+      <c r="D140" s="195"/>
+      <c r="E140" s="195"/>
+      <c r="F140" s="196"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="48" t="s">
@@ -5805,11 +5805,11 @@
       <c r="A142" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B142" s="196"/>
-      <c r="C142" s="197"/>
-      <c r="D142" s="197"/>
-      <c r="E142" s="197"/>
-      <c r="F142" s="198"/>
+      <c r="B142" s="197"/>
+      <c r="C142" s="198"/>
+      <c r="D142" s="198"/>
+      <c r="E142" s="198"/>
+      <c r="F142" s="199"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="48" t="s">
@@ -6029,79 +6029,79 @@
       <c r="A158" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B158" s="199" t="s">
+      <c r="B158" s="200" t="s">
         <v>147</v>
       </c>
-      <c r="C158" s="194"/>
-      <c r="D158" s="194"/>
-      <c r="E158" s="194"/>
-      <c r="F158" s="195"/>
+      <c r="C158" s="195"/>
+      <c r="D158" s="195"/>
+      <c r="E158" s="195"/>
+      <c r="F158" s="196"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="193" t="s">
+      <c r="B159" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="C159" s="194"/>
-      <c r="D159" s="194"/>
-      <c r="E159" s="194"/>
-      <c r="F159" s="195"/>
+      <c r="C159" s="195"/>
+      <c r="D159" s="195"/>
+      <c r="E159" s="195"/>
+      <c r="F159" s="196"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B160" s="193" t="s">
+      <c r="B160" s="194" t="s">
         <v>148</v>
       </c>
-      <c r="C160" s="194"/>
-      <c r="D160" s="194"/>
-      <c r="E160" s="194"/>
-      <c r="F160" s="195"/>
+      <c r="C160" s="195"/>
+      <c r="D160" s="195"/>
+      <c r="E160" s="195"/>
+      <c r="F160" s="196"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B161" s="196"/>
-      <c r="C161" s="197"/>
-      <c r="D161" s="197"/>
-      <c r="E161" s="197"/>
-      <c r="F161" s="198"/>
+      <c r="B161" s="197"/>
+      <c r="C161" s="198"/>
+      <c r="D161" s="198"/>
+      <c r="E161" s="198"/>
+      <c r="F161" s="199"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B162" s="196"/>
-      <c r="C162" s="197"/>
-      <c r="D162" s="197"/>
-      <c r="E162" s="197"/>
-      <c r="F162" s="198"/>
+      <c r="B162" s="197"/>
+      <c r="C162" s="198"/>
+      <c r="D162" s="198"/>
+      <c r="E162" s="198"/>
+      <c r="F162" s="199"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B163" s="193" t="s">
+      <c r="B163" s="194" t="s">
         <v>149</v>
       </c>
-      <c r="C163" s="194"/>
-      <c r="D163" s="194"/>
-      <c r="E163" s="194"/>
-      <c r="F163" s="195"/>
+      <c r="C163" s="195"/>
+      <c r="D163" s="195"/>
+      <c r="E163" s="195"/>
+      <c r="F163" s="196"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B164" s="196"/>
-      <c r="C164" s="197"/>
-      <c r="D164" s="197"/>
-      <c r="E164" s="197"/>
-      <c r="F164" s="198"/>
+      <c r="B164" s="197"/>
+      <c r="C164" s="198"/>
+      <c r="D164" s="198"/>
+      <c r="E164" s="198"/>
+      <c r="F164" s="199"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="48" t="s">
@@ -6119,11 +6119,11 @@
       <c r="A166" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B166" s="196"/>
-      <c r="C166" s="197"/>
-      <c r="D166" s="197"/>
-      <c r="E166" s="197"/>
-      <c r="F166" s="198"/>
+      <c r="B166" s="197"/>
+      <c r="C166" s="198"/>
+      <c r="D166" s="198"/>
+      <c r="E166" s="198"/>
+      <c r="F166" s="199"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="48" t="s">
@@ -6307,81 +6307,81 @@
       <c r="A181" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B181" s="199" t="s">
+      <c r="B181" s="200" t="s">
         <v>169</v>
       </c>
-      <c r="C181" s="194"/>
-      <c r="D181" s="194"/>
-      <c r="E181" s="194"/>
-      <c r="F181" s="195"/>
+      <c r="C181" s="195"/>
+      <c r="D181" s="195"/>
+      <c r="E181" s="195"/>
+      <c r="F181" s="196"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B182" s="193" t="s">
+      <c r="B182" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="C182" s="194"/>
-      <c r="D182" s="194"/>
-      <c r="E182" s="194"/>
-      <c r="F182" s="195"/>
+      <c r="C182" s="195"/>
+      <c r="D182" s="195"/>
+      <c r="E182" s="195"/>
+      <c r="F182" s="196"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B183" s="193" t="s">
+      <c r="B183" s="194" t="s">
         <v>170</v>
       </c>
-      <c r="C183" s="194"/>
-      <c r="D183" s="194"/>
-      <c r="E183" s="194"/>
-      <c r="F183" s="195"/>
+      <c r="C183" s="195"/>
+      <c r="D183" s="195"/>
+      <c r="E183" s="195"/>
+      <c r="F183" s="196"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B184" s="196"/>
-      <c r="C184" s="197"/>
-      <c r="D184" s="197"/>
-      <c r="E184" s="197"/>
-      <c r="F184" s="198"/>
+      <c r="B184" s="197"/>
+      <c r="C184" s="198"/>
+      <c r="D184" s="198"/>
+      <c r="E184" s="198"/>
+      <c r="F184" s="199"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B185" s="196"/>
-      <c r="C185" s="197"/>
-      <c r="D185" s="197"/>
-      <c r="E185" s="197"/>
-      <c r="F185" s="198"/>
+      <c r="B185" s="197"/>
+      <c r="C185" s="198"/>
+      <c r="D185" s="198"/>
+      <c r="E185" s="198"/>
+      <c r="F185" s="199"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B186" s="193" t="s">
+      <c r="B186" s="194" t="s">
         <v>171</v>
       </c>
-      <c r="C186" s="194"/>
-      <c r="D186" s="194"/>
-      <c r="E186" s="194"/>
-      <c r="F186" s="195"/>
+      <c r="C186" s="195"/>
+      <c r="D186" s="195"/>
+      <c r="E186" s="195"/>
+      <c r="F186" s="196"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B187" s="193" t="s">
+      <c r="B187" s="194" t="s">
         <v>172</v>
       </c>
-      <c r="C187" s="194"/>
-      <c r="D187" s="194"/>
-      <c r="E187" s="194"/>
-      <c r="F187" s="195"/>
+      <c r="C187" s="195"/>
+      <c r="D187" s="195"/>
+      <c r="E187" s="195"/>
+      <c r="F187" s="196"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="48" t="s">
@@ -6399,11 +6399,11 @@
       <c r="A189" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B189" s="196"/>
-      <c r="C189" s="197"/>
-      <c r="D189" s="197"/>
-      <c r="E189" s="197"/>
-      <c r="F189" s="198"/>
+      <c r="B189" s="197"/>
+      <c r="C189" s="198"/>
+      <c r="D189" s="198"/>
+      <c r="E189" s="198"/>
+      <c r="F189" s="199"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="48" t="s">
@@ -6587,81 +6587,81 @@
       <c r="A203" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B203" s="199" t="s">
+      <c r="B203" s="200" t="s">
         <v>181</v>
       </c>
-      <c r="C203" s="194"/>
-      <c r="D203" s="194"/>
-      <c r="E203" s="194"/>
-      <c r="F203" s="195"/>
+      <c r="C203" s="195"/>
+      <c r="D203" s="195"/>
+      <c r="E203" s="195"/>
+      <c r="F203" s="196"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B204" s="193" t="s">
+      <c r="B204" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="C204" s="194"/>
-      <c r="D204" s="194"/>
-      <c r="E204" s="194"/>
-      <c r="F204" s="195"/>
+      <c r="C204" s="195"/>
+      <c r="D204" s="195"/>
+      <c r="E204" s="195"/>
+      <c r="F204" s="196"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B205" s="193" t="s">
+      <c r="B205" s="194" t="s">
         <v>182</v>
       </c>
-      <c r="C205" s="194"/>
-      <c r="D205" s="194"/>
-      <c r="E205" s="194"/>
-      <c r="F205" s="195"/>
+      <c r="C205" s="195"/>
+      <c r="D205" s="195"/>
+      <c r="E205" s="195"/>
+      <c r="F205" s="196"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B206" s="196"/>
-      <c r="C206" s="197"/>
-      <c r="D206" s="197"/>
-      <c r="E206" s="197"/>
-      <c r="F206" s="198"/>
+      <c r="B206" s="197"/>
+      <c r="C206" s="198"/>
+      <c r="D206" s="198"/>
+      <c r="E206" s="198"/>
+      <c r="F206" s="199"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B207" s="196"/>
-      <c r="C207" s="197"/>
-      <c r="D207" s="197"/>
-      <c r="E207" s="197"/>
-      <c r="F207" s="198"/>
+      <c r="B207" s="197"/>
+      <c r="C207" s="198"/>
+      <c r="D207" s="198"/>
+      <c r="E207" s="198"/>
+      <c r="F207" s="199"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B208" s="193" t="s">
+      <c r="B208" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="C208" s="194"/>
-      <c r="D208" s="194"/>
-      <c r="E208" s="194"/>
-      <c r="F208" s="195"/>
+      <c r="C208" s="195"/>
+      <c r="D208" s="195"/>
+      <c r="E208" s="195"/>
+      <c r="F208" s="196"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B209" s="193" t="s">
+      <c r="B209" s="194" t="s">
         <v>123</v>
       </c>
-      <c r="C209" s="194"/>
-      <c r="D209" s="194"/>
-      <c r="E209" s="194"/>
-      <c r="F209" s="195"/>
+      <c r="C209" s="195"/>
+      <c r="D209" s="195"/>
+      <c r="E209" s="195"/>
+      <c r="F209" s="196"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="48" t="s">
@@ -6679,11 +6679,11 @@
       <c r="A211" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B211" s="196"/>
-      <c r="C211" s="197"/>
-      <c r="D211" s="197"/>
-      <c r="E211" s="197"/>
-      <c r="F211" s="198"/>
+      <c r="B211" s="197"/>
+      <c r="C211" s="198"/>
+      <c r="D211" s="198"/>
+      <c r="E211" s="198"/>
+      <c r="F211" s="199"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="48" t="s">
@@ -6833,6 +6833,65 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
     <mergeCell ref="B159:F159"/>
     <mergeCell ref="B160:F160"/>
     <mergeCell ref="B161:F161"/>
@@ -6842,65 +6901,6 @@
     <mergeCell ref="B140:F140"/>
     <mergeCell ref="B142:F142"/>
     <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C46" r:id="rId1"/>
@@ -9108,13 +9108,13 @@
       <c r="A2" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="113"/>
       <c r="H2" s="113"/>
       <c r="I2" s="113"/>
@@ -9136,11 +9136,11 @@
       <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="195"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="196"/>
       <c r="G3" s="113"/>
       <c r="H3" s="113"/>
       <c r="I3" s="113"/>
@@ -9162,13 +9162,13 @@
       <c r="A4" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="196"/>
       <c r="G4" s="113"/>
       <c r="H4" s="113"/>
       <c r="I4" s="113"/>
@@ -9190,13 +9190,13 @@
       <c r="A5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="196"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
@@ -9218,11 +9218,11 @@
       <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="195"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="196"/>
       <c r="G6" s="113"/>
       <c r="H6" s="113"/>
       <c r="I6" s="113"/>
@@ -9244,13 +9244,13 @@
       <c r="A7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="196"/>
       <c r="G7" s="113"/>
       <c r="H7" s="113"/>
       <c r="I7" s="113"/>
@@ -9272,11 +9272,11 @@
       <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="195"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="196"/>
       <c r="G8" s="113"/>
       <c r="H8" s="113"/>
       <c r="I8" s="113"/>
@@ -9990,13 +9990,13 @@
       <c r="A32" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="211" t="s">
+      <c r="B32" s="214" t="s">
         <v>451</v>
       </c>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="195"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="196"/>
       <c r="G32" s="113"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
@@ -10019,11 +10019,11 @@
       <c r="A33" s="125" t="s">
         <v>452</v>
       </c>
-      <c r="B33" s="211"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="195"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="196"/>
       <c r="G33" s="113"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
@@ -10046,13 +10046,13 @@
       <c r="A34" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="211" t="s">
+      <c r="B34" s="214" t="s">
         <v>453</v>
       </c>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="195"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="196"/>
       <c r="G34" s="113"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
@@ -10075,13 +10075,13 @@
       <c r="A35" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="B35" s="211" t="s">
+      <c r="B35" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="195"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="196"/>
       <c r="G35" s="113"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
@@ -10104,11 +10104,11 @@
       <c r="A36" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="211"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="195"/>
+      <c r="B36" s="214"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="196"/>
       <c r="G36" s="113"/>
       <c r="H36" s="113"/>
       <c r="I36" s="113"/>
@@ -10131,13 +10131,13 @@
       <c r="A37" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="211" t="s">
+      <c r="B37" s="214" t="s">
         <v>455</v>
       </c>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="195"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="196"/>
       <c r="G37" s="113"/>
       <c r="H37" s="113"/>
       <c r="I37" s="113"/>
@@ -10160,11 +10160,11 @@
       <c r="A38" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="211"/>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="195"/>
+      <c r="B38" s="214"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="196"/>
       <c r="G38" s="113"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
@@ -10963,13 +10963,13 @@
       <c r="A66" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="212" t="s">
+      <c r="B66" s="213" t="s">
         <v>480</v>
       </c>
-      <c r="C66" s="197"/>
-      <c r="D66" s="197"/>
-      <c r="E66" s="197"/>
-      <c r="F66" s="198"/>
+      <c r="C66" s="198"/>
+      <c r="D66" s="198"/>
+      <c r="E66" s="198"/>
+      <c r="F66" s="199"/>
       <c r="G66" s="131"/>
       <c r="H66" s="131"/>
       <c r="I66" s="131"/>
@@ -10995,11 +10995,11 @@
       <c r="A67" s="134" t="s">
         <v>452</v>
       </c>
-      <c r="B67" s="212"/>
-      <c r="C67" s="197"/>
-      <c r="D67" s="197"/>
-      <c r="E67" s="197"/>
-      <c r="F67" s="198"/>
+      <c r="B67" s="213"/>
+      <c r="C67" s="198"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="198"/>
+      <c r="F67" s="199"/>
       <c r="G67" s="131"/>
       <c r="H67" s="131"/>
       <c r="I67" s="131"/>
@@ -11025,13 +11025,13 @@
       <c r="A68" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="212" t="s">
+      <c r="B68" s="213" t="s">
         <v>481</v>
       </c>
-      <c r="C68" s="197"/>
-      <c r="D68" s="197"/>
-      <c r="E68" s="197"/>
-      <c r="F68" s="198"/>
+      <c r="C68" s="198"/>
+      <c r="D68" s="198"/>
+      <c r="E68" s="198"/>
+      <c r="F68" s="199"/>
       <c r="G68" s="131"/>
       <c r="H68" s="131"/>
       <c r="I68" s="131"/>
@@ -11057,13 +11057,13 @@
       <c r="A69" s="134" t="s">
         <v>454</v>
       </c>
-      <c r="B69" s="213" t="s">
+      <c r="B69" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="197"/>
-      <c r="D69" s="197"/>
-      <c r="E69" s="197"/>
-      <c r="F69" s="198"/>
+      <c r="C69" s="198"/>
+      <c r="D69" s="198"/>
+      <c r="E69" s="198"/>
+      <c r="F69" s="199"/>
       <c r="G69" s="131"/>
       <c r="H69" s="131"/>
       <c r="I69" s="131"/>
@@ -11089,11 +11089,11 @@
       <c r="A70" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="212"/>
-      <c r="C70" s="197"/>
-      <c r="D70" s="197"/>
-      <c r="E70" s="197"/>
-      <c r="F70" s="198"/>
+      <c r="B70" s="213"/>
+      <c r="C70" s="198"/>
+      <c r="D70" s="198"/>
+      <c r="E70" s="198"/>
+      <c r="F70" s="199"/>
       <c r="G70" s="131"/>
       <c r="H70" s="131"/>
       <c r="I70" s="131"/>
@@ -11119,11 +11119,11 @@
       <c r="A71" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="212"/>
-      <c r="C71" s="197"/>
-      <c r="D71" s="197"/>
-      <c r="E71" s="197"/>
-      <c r="F71" s="198"/>
+      <c r="B71" s="213"/>
+      <c r="C71" s="198"/>
+      <c r="D71" s="198"/>
+      <c r="E71" s="198"/>
+      <c r="F71" s="199"/>
       <c r="G71" s="131"/>
       <c r="H71" s="131"/>
       <c r="I71" s="131"/>
@@ -11149,11 +11149,11 @@
       <c r="A72" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="212"/>
-      <c r="C72" s="197"/>
-      <c r="D72" s="197"/>
-      <c r="E72" s="197"/>
-      <c r="F72" s="198"/>
+      <c r="B72" s="213"/>
+      <c r="C72" s="198"/>
+      <c r="D72" s="198"/>
+      <c r="E72" s="198"/>
+      <c r="F72" s="199"/>
       <c r="G72" s="131"/>
       <c r="H72" s="131"/>
       <c r="I72" s="131"/>
@@ -12550,6 +12550,16 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B69:F69"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B71:F71"/>
@@ -12561,16 +12571,6 @@
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>
@@ -12635,13 +12635,13 @@
       <c r="A2" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="214" t="s">
         <v>486</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="113"/>
       <c r="H2" s="113"/>
       <c r="I2" s="113"/>
@@ -12663,11 +12663,11 @@
       <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="195"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="196"/>
       <c r="G3" s="113"/>
       <c r="H3" s="113"/>
       <c r="I3" s="113"/>
@@ -12689,13 +12689,13 @@
       <c r="A4" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="196"/>
       <c r="G4" s="113"/>
       <c r="H4" s="113"/>
       <c r="I4" s="113"/>
@@ -12717,13 +12717,13 @@
       <c r="A5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="196"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
@@ -12745,11 +12745,11 @@
       <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="195"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="196"/>
       <c r="G6" s="113"/>
       <c r="H6" s="113"/>
       <c r="I6" s="113"/>
@@ -12771,13 +12771,13 @@
       <c r="A7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="214" t="s">
         <v>487</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="196"/>
       <c r="G7" s="113"/>
       <c r="H7" s="113"/>
       <c r="I7" s="113"/>
@@ -12799,11 +12799,11 @@
       <c r="A8" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="195"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="196"/>
       <c r="G8" s="113"/>
       <c r="H8" s="113"/>
       <c r="I8" s="113"/>
@@ -13496,13 +13496,13 @@
       <c r="A31" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="211" t="s">
+      <c r="B31" s="214" t="s">
         <v>519</v>
       </c>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="195"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="195"/>
+      <c r="F31" s="196"/>
       <c r="G31" s="113"/>
       <c r="H31" s="113"/>
       <c r="I31" s="113"/>
@@ -13525,11 +13525,11 @@
       <c r="A32" s="125" t="s">
         <v>452</v>
       </c>
-      <c r="B32" s="211"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="195"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="195"/>
+      <c r="F32" s="196"/>
       <c r="G32" s="113"/>
       <c r="H32" s="113"/>
       <c r="I32" s="113"/>
@@ -13552,13 +13552,13 @@
       <c r="A33" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="211" t="s">
+      <c r="B33" s="214" t="s">
         <v>453</v>
       </c>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="195"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="196"/>
       <c r="G33" s="113"/>
       <c r="H33" s="113"/>
       <c r="I33" s="113"/>
@@ -13581,13 +13581,13 @@
       <c r="A34" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="B34" s="211" t="s">
+      <c r="B34" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="195"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="196"/>
       <c r="G34" s="113"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
@@ -13610,11 +13610,11 @@
       <c r="A35" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="211"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="195"/>
+      <c r="B35" s="214"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="196"/>
       <c r="G35" s="113"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
@@ -13637,13 +13637,13 @@
       <c r="A36" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="211" t="s">
+      <c r="B36" s="214" t="s">
         <v>487</v>
       </c>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="195"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="196"/>
       <c r="G36" s="113"/>
       <c r="H36" s="113"/>
       <c r="I36" s="113"/>
@@ -13666,11 +13666,11 @@
       <c r="A37" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="211"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="195"/>
+      <c r="B37" s="214"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="196"/>
       <c r="G37" s="113"/>
       <c r="H37" s="113"/>
       <c r="I37" s="113"/>
@@ -14524,13 +14524,13 @@
       <c r="A66" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="212" t="s">
+      <c r="B66" s="213" t="s">
         <v>528</v>
       </c>
-      <c r="C66" s="197"/>
-      <c r="D66" s="197"/>
-      <c r="E66" s="197"/>
-      <c r="F66" s="198"/>
+      <c r="C66" s="198"/>
+      <c r="D66" s="198"/>
+      <c r="E66" s="198"/>
+      <c r="F66" s="199"/>
       <c r="G66" s="131"/>
       <c r="H66" s="131"/>
       <c r="I66" s="131"/>
@@ -14556,11 +14556,11 @@
       <c r="A67" s="134" t="s">
         <v>452</v>
       </c>
-      <c r="B67" s="212"/>
-      <c r="C67" s="197"/>
-      <c r="D67" s="197"/>
-      <c r="E67" s="197"/>
-      <c r="F67" s="198"/>
+      <c r="B67" s="213"/>
+      <c r="C67" s="198"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="198"/>
+      <c r="F67" s="199"/>
       <c r="G67" s="131"/>
       <c r="H67" s="131"/>
       <c r="I67" s="131"/>
@@ -14586,13 +14586,13 @@
       <c r="A68" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="211" t="s">
+      <c r="B68" s="214" t="s">
         <v>453</v>
       </c>
-      <c r="C68" s="194"/>
-      <c r="D68" s="194"/>
-      <c r="E68" s="194"/>
-      <c r="F68" s="195"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="195"/>
+      <c r="E68" s="195"/>
+      <c r="F68" s="196"/>
       <c r="G68" s="131"/>
       <c r="H68" s="131"/>
       <c r="I68" s="131"/>
@@ -14618,13 +14618,13 @@
       <c r="A69" s="134" t="s">
         <v>454</v>
       </c>
-      <c r="B69" s="211" t="s">
+      <c r="B69" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="194"/>
-      <c r="D69" s="194"/>
-      <c r="E69" s="194"/>
-      <c r="F69" s="195"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="195"/>
+      <c r="E69" s="195"/>
+      <c r="F69" s="196"/>
       <c r="G69" s="131"/>
       <c r="H69" s="131"/>
       <c r="I69" s="131"/>
@@ -14650,11 +14650,11 @@
       <c r="A70" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="211"/>
-      <c r="C70" s="194"/>
-      <c r="D70" s="194"/>
-      <c r="E70" s="194"/>
-      <c r="F70" s="195"/>
+      <c r="B70" s="214"/>
+      <c r="C70" s="195"/>
+      <c r="D70" s="195"/>
+      <c r="E70" s="195"/>
+      <c r="F70" s="196"/>
       <c r="G70" s="131"/>
       <c r="H70" s="131"/>
       <c r="I70" s="131"/>
@@ -14680,13 +14680,13 @@
       <c r="A71" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="211" t="s">
+      <c r="B71" s="214" t="s">
         <v>487</v>
       </c>
-      <c r="C71" s="194"/>
-      <c r="D71" s="194"/>
-      <c r="E71" s="194"/>
-      <c r="F71" s="195"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="195"/>
+      <c r="E71" s="195"/>
+      <c r="F71" s="196"/>
       <c r="G71" s="131"/>
       <c r="H71" s="131"/>
       <c r="I71" s="131"/>
@@ -14712,11 +14712,11 @@
       <c r="A72" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="211"/>
-      <c r="C72" s="194"/>
-      <c r="D72" s="194"/>
-      <c r="E72" s="194"/>
-      <c r="F72" s="195"/>
+      <c r="B72" s="214"/>
+      <c r="C72" s="195"/>
+      <c r="D72" s="195"/>
+      <c r="E72" s="195"/>
+      <c r="F72" s="196"/>
       <c r="G72" s="131"/>
       <c r="H72" s="131"/>
       <c r="I72" s="131"/>
@@ -16220,6 +16220,16 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B69:F69"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B71:F71"/>
@@ -16231,16 +16241,6 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>
@@ -16259,8 +16259,8 @@
   </sheetPr>
   <dimension ref="A1:Z1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16304,13 +16304,13 @@
       <c r="A2" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="211" t="s">
+      <c r="B2" s="214" t="s">
         <v>530</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="196"/>
       <c r="G2" s="113"/>
       <c r="H2" s="113"/>
       <c r="I2" s="113"/>
@@ -16332,11 +16332,11 @@
       <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="195"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="196"/>
       <c r="G3" s="113"/>
       <c r="H3" s="113"/>
       <c r="I3" s="113"/>
@@ -16358,13 +16358,13 @@
       <c r="A4" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="214" t="s">
         <v>531</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="196"/>
       <c r="G4" s="113"/>
       <c r="H4" s="113"/>
       <c r="I4" s="113"/>
@@ -16386,13 +16386,13 @@
       <c r="A5" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="196"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
@@ -16414,13 +16414,13 @@
       <c r="A6" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="214" t="s">
         <v>532</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="196"/>
       <c r="G6" s="113"/>
       <c r="H6" s="113"/>
       <c r="I6" s="113"/>
@@ -16442,13 +16442,13 @@
       <c r="A7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="214" t="s">
         <v>533</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="196"/>
       <c r="G7" s="113"/>
       <c r="H7" s="113"/>
       <c r="I7" s="113"/>
@@ -16498,11 +16498,11 @@
       <c r="A9" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="211"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="195"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="196"/>
       <c r="G9" s="113"/>
       <c r="H9" s="113"/>
       <c r="I9" s="113"/>
@@ -16973,7 +16973,7 @@
       <c r="B24" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="C24" s="220">
+      <c r="C24" s="193">
         <v>45078</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -17006,7 +17006,7 @@
       <c r="B25" s="146" t="s">
         <v>639</v>
       </c>
-      <c r="C25" s="220">
+      <c r="C25" s="193">
         <v>45107</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -17245,13 +17245,13 @@
       <c r="A34" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="214" t="s">
+      <c r="B34" s="218" t="s">
         <v>550</v>
       </c>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="195"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="196"/>
       <c r="G34" s="113"/>
       <c r="H34" s="113"/>
       <c r="I34" s="113"/>
@@ -17274,11 +17274,11 @@
       <c r="A35" s="125" t="s">
         <v>452</v>
       </c>
-      <c r="B35" s="214"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="195"/>
+      <c r="B35" s="218"/>
+      <c r="C35" s="195"/>
+      <c r="D35" s="195"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="196"/>
       <c r="G35" s="113"/>
       <c r="H35" s="113"/>
       <c r="I35" s="113"/>
@@ -17301,13 +17301,13 @@
       <c r="A36" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="211" t="s">
+      <c r="B36" s="214" t="s">
         <v>551</v>
       </c>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="195"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="196"/>
       <c r="G36" s="113"/>
       <c r="H36" s="113"/>
       <c r="I36" s="113"/>
@@ -17330,11 +17330,11 @@
       <c r="A37" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="211"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="195"/>
+      <c r="B37" s="214"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="196"/>
       <c r="G37" s="113"/>
       <c r="H37" s="113"/>
       <c r="I37" s="113"/>
@@ -17357,13 +17357,13 @@
       <c r="A38" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="B38" s="211" t="s">
+      <c r="B38" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="195"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="196"/>
       <c r="G38" s="113"/>
       <c r="H38" s="113"/>
       <c r="I38" s="113"/>
@@ -17386,11 +17386,11 @@
       <c r="A39" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="211"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="195"/>
+      <c r="B39" s="214"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="196"/>
       <c r="G39" s="113"/>
       <c r="H39" s="113"/>
       <c r="I39" s="113"/>
@@ -17413,11 +17413,11 @@
       <c r="A40" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="211"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="195"/>
+      <c r="B40" s="214"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="196"/>
       <c r="G40" s="113"/>
       <c r="H40" s="113"/>
       <c r="I40" s="113"/>
@@ -17440,11 +17440,11 @@
       <c r="A41" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="211"/>
-      <c r="C41" s="194"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="195"/>
+      <c r="B41" s="214"/>
+      <c r="C41" s="195"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="196"/>
       <c r="G41" s="113"/>
       <c r="H41" s="113"/>
       <c r="I41" s="113"/>
@@ -18096,7 +18096,7 @@
       <c r="B62" s="215" t="s">
         <v>575</v>
       </c>
-      <c r="C62" s="195"/>
+      <c r="C62" s="196"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
@@ -18122,8 +18122,8 @@
       <c r="A63" s="125" t="s">
         <v>452</v>
       </c>
-      <c r="B63" s="216"/>
-      <c r="C63" s="195"/>
+      <c r="B63" s="217"/>
+      <c r="C63" s="196"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
@@ -18149,8 +18149,8 @@
       <c r="A64" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="217"/>
-      <c r="C64" s="195"/>
+      <c r="B64" s="216"/>
+      <c r="C64" s="196"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
@@ -18176,8 +18176,8 @@
       <c r="A65" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="216"/>
-      <c r="C65" s="195"/>
+      <c r="B65" s="217"/>
+      <c r="C65" s="196"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
@@ -18203,8 +18203,8 @@
       <c r="A66" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="B66" s="216"/>
-      <c r="C66" s="195"/>
+      <c r="B66" s="217"/>
+      <c r="C66" s="196"/>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
@@ -18230,8 +18230,8 @@
       <c r="A67" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="217"/>
-      <c r="C67" s="195"/>
+      <c r="B67" s="216"/>
+      <c r="C67" s="196"/>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
@@ -18257,8 +18257,8 @@
       <c r="A68" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="217"/>
-      <c r="C68" s="195"/>
+      <c r="B68" s="216"/>
+      <c r="C68" s="196"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
@@ -18284,8 +18284,8 @@
       <c r="A69" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="217"/>
-      <c r="C69" s="195"/>
+      <c r="B69" s="216"/>
+      <c r="C69" s="196"/>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
@@ -18526,10 +18526,10 @@
       <c r="B78" s="215" t="s">
         <v>576</v>
       </c>
-      <c r="C78" s="194"/>
-      <c r="D78" s="194"/>
-      <c r="E78" s="194"/>
-      <c r="F78" s="195"/>
+      <c r="C78" s="195"/>
+      <c r="D78" s="195"/>
+      <c r="E78" s="195"/>
+      <c r="F78" s="196"/>
       <c r="G78" s="113"/>
       <c r="H78" s="113"/>
       <c r="I78" s="113"/>
@@ -18553,10 +18553,10 @@
         <v>2</v>
       </c>
       <c r="B79" s="215"/>
-      <c r="C79" s="194"/>
-      <c r="D79" s="194"/>
-      <c r="E79" s="194"/>
-      <c r="F79" s="195"/>
+      <c r="C79" s="195"/>
+      <c r="D79" s="195"/>
+      <c r="E79" s="195"/>
+      <c r="F79" s="196"/>
       <c r="G79" s="113"/>
       <c r="H79" s="113"/>
       <c r="I79" s="113"/>
@@ -18580,10 +18580,10 @@
         <v>577</v>
       </c>
       <c r="B80" s="215"/>
-      <c r="C80" s="194"/>
-      <c r="D80" s="194"/>
-      <c r="E80" s="194"/>
-      <c r="F80" s="195"/>
+      <c r="C80" s="195"/>
+      <c r="D80" s="195"/>
+      <c r="E80" s="195"/>
+      <c r="F80" s="196"/>
       <c r="G80" s="113"/>
       <c r="H80" s="113"/>
       <c r="I80" s="113"/>
@@ -18607,10 +18607,10 @@
         <v>120</v>
       </c>
       <c r="B81" s="215"/>
-      <c r="C81" s="194"/>
-      <c r="D81" s="194"/>
-      <c r="E81" s="194"/>
-      <c r="F81" s="195"/>
+      <c r="C81" s="195"/>
+      <c r="D81" s="195"/>
+      <c r="E81" s="195"/>
+      <c r="F81" s="196"/>
       <c r="G81" s="113"/>
       <c r="H81" s="113"/>
       <c r="I81" s="113"/>
@@ -18634,10 +18634,10 @@
         <v>5</v>
       </c>
       <c r="B82" s="215"/>
-      <c r="C82" s="194"/>
-      <c r="D82" s="194"/>
-      <c r="E82" s="194"/>
-      <c r="F82" s="195"/>
+      <c r="C82" s="195"/>
+      <c r="D82" s="195"/>
+      <c r="E82" s="195"/>
+      <c r="F82" s="196"/>
       <c r="G82" s="113"/>
       <c r="H82" s="113"/>
       <c r="I82" s="113"/>
@@ -18661,10 +18661,10 @@
         <v>7</v>
       </c>
       <c r="B83" s="215"/>
-      <c r="C83" s="194"/>
-      <c r="D83" s="194"/>
-      <c r="E83" s="194"/>
-      <c r="F83" s="195"/>
+      <c r="C83" s="195"/>
+      <c r="D83" s="195"/>
+      <c r="E83" s="195"/>
+      <c r="F83" s="196"/>
       <c r="G83" s="113"/>
       <c r="H83" s="113"/>
       <c r="I83" s="113"/>
@@ -18688,10 +18688,10 @@
         <v>9</v>
       </c>
       <c r="B84" s="215"/>
-      <c r="C84" s="194"/>
-      <c r="D84" s="194"/>
-      <c r="E84" s="194"/>
-      <c r="F84" s="195"/>
+      <c r="C84" s="195"/>
+      <c r="D84" s="195"/>
+      <c r="E84" s="195"/>
+      <c r="F84" s="196"/>
       <c r="G84" s="113"/>
       <c r="H84" s="113"/>
       <c r="I84" s="113"/>
@@ -18715,10 +18715,10 @@
         <v>578</v>
       </c>
       <c r="B85" s="215"/>
-      <c r="C85" s="194"/>
-      <c r="D85" s="194"/>
-      <c r="E85" s="194"/>
-      <c r="F85" s="195"/>
+      <c r="C85" s="195"/>
+      <c r="D85" s="195"/>
+      <c r="E85" s="195"/>
+      <c r="F85" s="196"/>
       <c r="G85" s="113"/>
       <c r="H85" s="113"/>
       <c r="I85" s="113"/>
@@ -19003,11 +19003,11 @@
       <c r="A96" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B96" s="211"/>
-      <c r="C96" s="194"/>
-      <c r="D96" s="194"/>
-      <c r="E96" s="194"/>
-      <c r="F96" s="195"/>
+      <c r="B96" s="214"/>
+      <c r="C96" s="195"/>
+      <c r="D96" s="195"/>
+      <c r="E96" s="195"/>
+      <c r="F96" s="196"/>
       <c r="G96" s="113"/>
       <c r="H96" s="113"/>
       <c r="I96" s="113"/>
@@ -19030,11 +19030,11 @@
       <c r="A97" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="211"/>
-      <c r="C97" s="194"/>
-      <c r="D97" s="194"/>
-      <c r="E97" s="194"/>
-      <c r="F97" s="195"/>
+      <c r="B97" s="214"/>
+      <c r="C97" s="195"/>
+      <c r="D97" s="195"/>
+      <c r="E97" s="195"/>
+      <c r="F97" s="196"/>
       <c r="G97" s="113"/>
       <c r="H97" s="113"/>
       <c r="I97" s="113"/>
@@ -19057,11 +19057,11 @@
       <c r="A98" s="114" t="s">
         <v>579</v>
       </c>
-      <c r="B98" s="211"/>
-      <c r="C98" s="194"/>
-      <c r="D98" s="194"/>
-      <c r="E98" s="194"/>
-      <c r="F98" s="195"/>
+      <c r="B98" s="214"/>
+      <c r="C98" s="195"/>
+      <c r="D98" s="195"/>
+      <c r="E98" s="195"/>
+      <c r="F98" s="196"/>
       <c r="G98" s="113"/>
       <c r="H98" s="113"/>
       <c r="I98" s="113"/>
@@ -19084,11 +19084,11 @@
       <c r="A99" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="211"/>
-      <c r="C99" s="194"/>
-      <c r="D99" s="194"/>
-      <c r="E99" s="194"/>
-      <c r="F99" s="195"/>
+      <c r="B99" s="214"/>
+      <c r="C99" s="195"/>
+      <c r="D99" s="195"/>
+      <c r="E99" s="195"/>
+      <c r="F99" s="196"/>
       <c r="G99" s="113"/>
       <c r="H99" s="113"/>
       <c r="I99" s="113"/>
@@ -19111,11 +19111,11 @@
       <c r="A100" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="211"/>
-      <c r="C100" s="194"/>
-      <c r="D100" s="194"/>
-      <c r="E100" s="194"/>
-      <c r="F100" s="195"/>
+      <c r="B100" s="214"/>
+      <c r="C100" s="195"/>
+      <c r="D100" s="195"/>
+      <c r="E100" s="195"/>
+      <c r="F100" s="196"/>
       <c r="G100" s="113"/>
       <c r="H100" s="113"/>
       <c r="I100" s="113"/>
@@ -19138,11 +19138,11 @@
       <c r="A101" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="211"/>
-      <c r="C101" s="194"/>
-      <c r="D101" s="194"/>
-      <c r="E101" s="194"/>
-      <c r="F101" s="195"/>
+      <c r="B101" s="214"/>
+      <c r="C101" s="195"/>
+      <c r="D101" s="195"/>
+      <c r="E101" s="195"/>
+      <c r="F101" s="196"/>
       <c r="G101" s="113"/>
       <c r="H101" s="113"/>
       <c r="I101" s="113"/>
@@ -19165,11 +19165,11 @@
       <c r="A102" s="114" t="s">
         <v>578</v>
       </c>
-      <c r="B102" s="211"/>
-      <c r="C102" s="194"/>
-      <c r="D102" s="194"/>
-      <c r="E102" s="194"/>
-      <c r="F102" s="195"/>
+      <c r="B102" s="214"/>
+      <c r="C102" s="195"/>
+      <c r="D102" s="195"/>
+      <c r="E102" s="195"/>
+      <c r="F102" s="196"/>
       <c r="G102" s="113"/>
       <c r="H102" s="113"/>
       <c r="I102" s="113"/>
@@ -19504,11 +19504,11 @@
       <c r="A115" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="211"/>
-      <c r="C115" s="194"/>
-      <c r="D115" s="194"/>
-      <c r="E115" s="194"/>
-      <c r="F115" s="195"/>
+      <c r="B115" s="214"/>
+      <c r="C115" s="195"/>
+      <c r="D115" s="195"/>
+      <c r="E115" s="195"/>
+      <c r="F115" s="196"/>
       <c r="G115" s="113"/>
       <c r="H115" s="113"/>
       <c r="I115" s="113"/>
@@ -19531,11 +19531,11 @@
       <c r="A116" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B116" s="211"/>
-      <c r="C116" s="194"/>
-      <c r="D116" s="194"/>
-      <c r="E116" s="194"/>
-      <c r="F116" s="195"/>
+      <c r="B116" s="214"/>
+      <c r="C116" s="195"/>
+      <c r="D116" s="195"/>
+      <c r="E116" s="195"/>
+      <c r="F116" s="196"/>
       <c r="G116" s="113"/>
       <c r="H116" s="113"/>
       <c r="I116" s="113"/>
@@ -19558,11 +19558,11 @@
       <c r="A117" s="114" t="s">
         <v>580</v>
       </c>
-      <c r="B117" s="211"/>
-      <c r="C117" s="194"/>
-      <c r="D117" s="194"/>
-      <c r="E117" s="194"/>
-      <c r="F117" s="195"/>
+      <c r="B117" s="214"/>
+      <c r="C117" s="195"/>
+      <c r="D117" s="195"/>
+      <c r="E117" s="195"/>
+      <c r="F117" s="196"/>
       <c r="G117" s="113"/>
       <c r="H117" s="113"/>
       <c r="I117" s="113"/>
@@ -19585,11 +19585,11 @@
       <c r="A118" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="211"/>
-      <c r="C118" s="194"/>
-      <c r="D118" s="194"/>
-      <c r="E118" s="194"/>
-      <c r="F118" s="195"/>
+      <c r="B118" s="214"/>
+      <c r="C118" s="195"/>
+      <c r="D118" s="195"/>
+      <c r="E118" s="195"/>
+      <c r="F118" s="196"/>
       <c r="G118" s="113"/>
       <c r="H118" s="113"/>
       <c r="I118" s="113"/>
@@ -19612,11 +19612,11 @@
       <c r="A119" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="B119" s="211"/>
-      <c r="C119" s="194"/>
-      <c r="D119" s="194"/>
-      <c r="E119" s="194"/>
-      <c r="F119" s="195"/>
+      <c r="B119" s="214"/>
+      <c r="C119" s="195"/>
+      <c r="D119" s="195"/>
+      <c r="E119" s="195"/>
+      <c r="F119" s="196"/>
       <c r="G119" s="113"/>
       <c r="H119" s="113"/>
       <c r="I119" s="113"/>
@@ -19639,11 +19639,11 @@
       <c r="A120" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B120" s="211"/>
-      <c r="C120" s="194"/>
-      <c r="D120" s="194"/>
-      <c r="E120" s="194"/>
-      <c r="F120" s="195"/>
+      <c r="B120" s="214"/>
+      <c r="C120" s="195"/>
+      <c r="D120" s="195"/>
+      <c r="E120" s="195"/>
+      <c r="F120" s="196"/>
       <c r="G120" s="113"/>
       <c r="H120" s="113"/>
       <c r="I120" s="113"/>
@@ -19666,11 +19666,11 @@
       <c r="A121" s="114" t="s">
         <v>578</v>
       </c>
-      <c r="B121" s="211"/>
-      <c r="C121" s="194"/>
-      <c r="D121" s="194"/>
-      <c r="E121" s="194"/>
-      <c r="F121" s="195"/>
+      <c r="B121" s="214"/>
+      <c r="C121" s="195"/>
+      <c r="D121" s="195"/>
+      <c r="E121" s="195"/>
+      <c r="F121" s="196"/>
       <c r="G121" s="113"/>
       <c r="H121" s="113"/>
       <c r="I121" s="113"/>
@@ -24981,6 +24981,41 @@
     <row r="1031" spans="1:26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
     <mergeCell ref="B119:F119"/>
     <mergeCell ref="B120:F120"/>
     <mergeCell ref="B121:F121"/>
@@ -24991,41 +25026,6 @@
     <mergeCell ref="B116:F116"/>
     <mergeCell ref="B117:F117"/>
     <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1"/>
@@ -25065,51 +25065,51 @@
       <c r="A2" s="154" t="s">
         <v>582</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="195"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="196"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="195"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="196"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="196"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="198"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="199"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="196"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="198"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="199"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="218"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="195"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="196"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="154" t="s">
@@ -25135,21 +25135,21 @@
       <c r="A9" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="218"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="195"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="196"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="198"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="199"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="154" t="s">
@@ -25321,67 +25321,67 @@
       <c r="A2" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="198"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="199"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="199"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="196"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="198"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="199"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="196"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="198"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="199"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="176" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="220" t="s">
         <v>587</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="199"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="220" t="s">
         <v>588</v>
       </c>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="198"/>
+      <c r="E7" s="198"/>
+      <c r="F7" s="199"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="176" t="s">
@@ -25399,11 +25399,11 @@
       <c r="A9" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="196"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="198"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="199"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="176" t="s">
